--- a/june-2019/references/leh-itinerary-detailed.xlsx
+++ b/june-2019/references/leh-itinerary-detailed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\travel\june-2019\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4979121C-3E00-41A4-922B-4CBB0FD16321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B543A7-A578-466B-9A94-817EC42DD2BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="738">
   <si>
     <t>Tasks</t>
   </si>
@@ -507,12 +507,6 @@
     <t>Air Pump - (Already purcahed one)</t>
   </si>
   <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -538,9 +532,6 @@
   </si>
   <si>
     <t>Maps &amp; directions print outs</t>
-  </si>
-  <si>
-    <t>Anywhere</t>
   </si>
   <si>
     <t>Identify Petrol pumps &amp; Stay locations as per itinerary.</t>
@@ -1537,9 +1528,6 @@
     <t>Always carry water, chips, biscits &amp; High Calorie Food. Drink water a lot.</t>
   </si>
   <si>
-    <t>No Pump</t>
-  </si>
-  <si>
     <t>Shego</t>
   </si>
   <si>
@@ -1935,9 +1923,6 @@
   </si>
   <si>
     <t>Rekong Peo</t>
-  </si>
-  <si>
-    <t>Highway</t>
   </si>
   <si>
     <t>Garage Cover</t>
@@ -3804,10 +3789,6 @@
     </r>
   </si>
   <si>
-    <t>Leh
-Diskit</t>
-  </si>
-  <si>
     <t>http://www.ghumakkar.com/2013/02/11/road-to-leh-part-3-sarchu-to-leh-and-sightseeing-and-back/</t>
   </si>
   <si>
@@ -4363,19 +4344,9 @@
     <t>Ghaziabad</t>
   </si>
   <si>
-    <t>Ghaziabd</t>
-  </si>
-  <si>
-    <t>EPE &amp; 
-NH1</t>
-  </si>
-  <si>
     <t>Total Distance</t>
   </si>
   <si>
-    <t>NH1 &amp; EPE</t>
-  </si>
-  <si>
     <t>Ghaziabad - Panipat - Karnal - Pipli - Ambala - Khanna - Ludhiana - Jalandhar - Mukerian - Kathua - Samba - Jammu</t>
   </si>
   <si>
@@ -4385,322 +4356,396 @@
     <t xml:space="preserve">Altitude </t>
   </si>
   <si>
-    <t xml:space="preserve">Petrol </t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
     <t>Jammu - Udhampur - Patnitop - Batote - Ramban - Banihal - Qazigund - Khanabal - Srinagar</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Srinagar – Wayul - Manigam - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gund</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sonamarg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Zozi La – Drass – Kargil </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kargil – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mulbekh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Haniskot - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lamayuru</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Khalsi - Saspul - Basgo - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Magnetic Hill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Leh </t>
-    </r>
-  </si>
-  <si>
     <t>Leh local</t>
-  </si>
-  <si>
-    <t>Leh Palace - Shanti stupa, Hall of fame etc</t>
   </si>
   <si>
     <t>Diskit,
 Karu</t>
   </si>
   <si>
+    <t>Ample</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leh – South Pullu - North Pullu - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khardung La</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Khalsar - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diskit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Hunder - Turtuk - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Turtuk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turtuk - Hunder - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diskit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khalsar - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agham</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Tangyar - Wari La - Tathok - Sakti - Karu - Upshi</t>
+    </r>
+  </si>
+  <si>
+    <t>Pang - Lachung La - Sarchu - Antrk Camps - KillingSarai - Jispa - Satingiri Halipad - Keylong</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keylong - Biling- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tandi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Sissu - Koksar - Gramphu - Rohtang pass - Marhi - Gulaba - Manali - Kullu - Mandi</t>
+    </r>
+  </si>
+  <si>
+    <t>Mandi - Bilaspur - Rupnagar - Ambala - Kurukshetra - Karnal- Panipat- Rai - Ghaziabad</t>
+  </si>
+  <si>
+    <t>Turtuk</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upshi - Kumdok - Kere - Chumthang - Mahe - Sumdo - Tso Kiagar – Karzok - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tsomoriri Lake</t>
+    </r>
+  </si>
+  <si>
+    <t>https://inbravo.github.io/travel/june-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay </t>
+  </si>
+  <si>
+    <t>Jammu,
+Kud</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kargil – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mulbekh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Haniskot - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lamayuru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Khalsi - Saspul - Basgo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Magnetic Hill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Hall of fame- Leh </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leh Permit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Leh Palace - Shanti stupa - Market</t>
+    </r>
+  </si>
+  <si>
+    <t>Pang, 
+Sarchu</t>
+  </si>
+  <si>
+    <t>Jispa,
+Keylong</t>
+  </si>
+  <si>
+    <t>Kullu, Mandi</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Karu,
+Upshi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Srinagar – Wayul - Manigam - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gund</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sonamarg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Zozi La – Drass – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kargil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Karzok - Tso Kiagar - Sumdo - Tso Kar - Leh -Manali Highway - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pang</t>
+    </r>
+  </si>
+  <si>
     <t>Leh,
-Karu</t>
-  </si>
-  <si>
-    <t>Ample</t>
-  </si>
-  <si>
-    <t>Tandi, 
-Manali, 
-Kullu</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Leh – South Pullu - North Pullu - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Khardung La</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Khalsar - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diskit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Hunder - Turtuk - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Turtuk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Turtuk - Hunder - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diskit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Khalsar - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Agham</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Tangyar - Wari La - Tathok - Sakti - Karu - Upshi</t>
-    </r>
-  </si>
-  <si>
-    <t>Karzok - Tso Kiagar - Sumdo - Tso Kar - Leh-Manali Highway - Pang</t>
-  </si>
-  <si>
-    <t>Pang - Lachung La - Sarchu - Antrk Camps - KillingSarai - Jispa - Satingiri Halipad - Keylong</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Keylong - Biling- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tandi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Sissu - Koksar - Gramphu - Rohtang pass - Marhi - Gulaba - Manali - Kullu - Mandi</t>
-    </r>
-  </si>
-  <si>
-    <t>Mandi - Bilaspur - Rupnagar - Ambala - Kurukshetra - Karnal- Panipat- Rai - Ghaziabad</t>
-  </si>
-  <si>
-    <t>Turtuk</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Upshi - Kumdok - Kere - Chumthang - Mahe - Sumdo - Tso Kiagar – Karzok - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tsomoriri Lake</t>
-    </r>
-  </si>
-  <si>
-    <t>https://inbravo.github.io/travel/june-2019</t>
+Diskit</t>
+  </si>
+  <si>
+    <t>No fuel</t>
   </si>
 </sst>
 </file>
@@ -5077,7 +5122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5502,9 +5547,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5517,9 +5559,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5528,8 +5567,47 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5537,55 +5615,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5598,6 +5627,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5607,15 +5645,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5625,30 +5654,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5672,6 +5701,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6033,7 +6074,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>5</v>
@@ -6042,13 +6083,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E1" s="136" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F1" s="130" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>7</v>
@@ -6059,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="87"/>
@@ -6102,25 +6143,25 @@
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B7" s="130" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E7" s="130" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="130" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6239,7 +6280,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>114</v>
@@ -6327,10 +6368,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6338,10 +6379,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="110" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6349,10 +6390,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6360,10 +6401,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6371,10 +6412,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6382,10 +6423,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6393,10 +6434,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6404,10 +6445,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6415,10 +6456,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="111" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6426,10 +6467,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6437,10 +6478,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="111" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6448,10 +6489,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6459,10 +6500,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6470,10 +6511,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6484,7 +6525,7 @@
         <v>110</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6495,7 +6536,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6538,428 +6579,435 @@
   <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="4.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="174" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="201" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="203" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="204" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="159" t="s">
+    <row r="1" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="168" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="160" t="s">
+      <c r="C1" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="160" t="s">
-        <v>719</v>
-      </c>
-      <c r="G1" s="160" t="s">
-        <v>720</v>
-      </c>
-      <c r="H1" s="160" t="s">
-        <v>721</v>
-      </c>
-      <c r="I1" s="160" t="s">
-        <v>530</v>
-      </c>
-      <c r="J1" s="161" t="s">
-        <v>722</v>
+      <c r="F1" s="171" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1" s="171" t="s">
+        <v>711</v>
+      </c>
+      <c r="H1" s="156" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1" s="171" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="157" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B2" s="148">
         <v>1</v>
       </c>
-      <c r="C2" s="169">
+      <c r="C2" s="164">
         <v>43617</v>
       </c>
       <c r="D2" s="149" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E2" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="150">
+      <c r="F2" s="149">
         <v>615</v>
       </c>
-      <c r="G2" s="151">
+      <c r="G2" s="150">
         <v>980</v>
       </c>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="149" t="s">
+        <v>726</v>
+      </c>
+      <c r="I2" s="149" t="s">
+        <v>716</v>
+      </c>
+      <c r="J2" s="151" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="152">
+        <v>2</v>
+      </c>
+      <c r="C3" s="165">
+        <v>43618</v>
+      </c>
+      <c r="D3" s="155" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="153">
+        <v>270</v>
+      </c>
+      <c r="G3" s="153">
+        <v>6640</v>
+      </c>
+      <c r="H3" s="149" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="153" t="s">
+        <v>716</v>
+      </c>
+      <c r="J3" s="154" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="152">
+        <v>3</v>
+      </c>
+      <c r="C4" s="165">
+        <v>43619</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="153">
+        <v>211</v>
+      </c>
+      <c r="G4" s="153">
+        <v>9079</v>
+      </c>
+      <c r="H4" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="155" t="s">
+        <v>524</v>
+      </c>
+      <c r="J4" s="154" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="152">
+        <v>4</v>
+      </c>
+      <c r="C5" s="165">
+        <v>43620</v>
+      </c>
+      <c r="D5" s="155" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="153">
+        <v>227</v>
+      </c>
+      <c r="G5" s="153">
+        <v>14136</v>
+      </c>
+      <c r="H5" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="153" t="s">
+        <v>323</v>
+      </c>
+      <c r="J5" s="154" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="152">
+        <v>5</v>
+      </c>
+      <c r="C6" s="165">
+        <v>43621</v>
+      </c>
+      <c r="D6" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="155" t="s">
+        <v>714</v>
+      </c>
+      <c r="F6" s="153">
+        <v>20</v>
+      </c>
+      <c r="G6" s="153">
+        <v>14136</v>
+      </c>
+      <c r="H6" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="153" t="s">
+        <v>716</v>
+      </c>
+      <c r="J6" s="154" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="152">
+        <v>6</v>
+      </c>
+      <c r="C7" s="165">
+        <v>43622</v>
+      </c>
+      <c r="D7" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="155" t="s">
+        <v>722</v>
+      </c>
+      <c r="F7" s="153">
+        <v>250</v>
+      </c>
+      <c r="G7" s="153">
+        <v>14271</v>
+      </c>
+      <c r="H7" s="155" t="s">
+        <v>722</v>
+      </c>
+      <c r="I7" s="155" t="s">
+        <v>736</v>
+      </c>
+      <c r="J7" s="154" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="152">
+        <v>7</v>
+      </c>
+      <c r="C8" s="165">
+        <v>43623</v>
+      </c>
+      <c r="D8" s="155" t="s">
+        <v>722</v>
+      </c>
+      <c r="E8" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="153">
+        <v>223</v>
+      </c>
+      <c r="G8" s="153">
+        <v>17582</v>
+      </c>
+      <c r="H8" s="155" t="s">
+        <v>733</v>
+      </c>
+      <c r="I8" s="155" t="s">
+        <v>715</v>
+      </c>
+      <c r="J8" s="154" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="152">
+        <v>8</v>
+      </c>
+      <c r="C9" s="165">
+        <v>43624</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="155" t="s">
+        <v>705</v>
+      </c>
+      <c r="F9" s="153">
+        <v>202</v>
+      </c>
+      <c r="G9" s="167">
+        <v>14836</v>
+      </c>
+      <c r="H9" s="155" t="s">
+        <v>732</v>
+      </c>
+      <c r="I9" s="153" t="s">
+        <v>737</v>
+      </c>
+      <c r="J9" s="154" t="s">
+        <v>723</v>
+      </c>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="152">
+        <v>9</v>
+      </c>
+      <c r="C10" s="165">
+        <v>43625</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>705</v>
+      </c>
+      <c r="E10" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="153">
+        <v>156</v>
+      </c>
+      <c r="G10" s="153">
+        <v>15600</v>
+      </c>
+      <c r="H10" s="155" t="s">
+        <v>729</v>
+      </c>
+      <c r="I10" s="153" t="s">
+        <v>737</v>
+      </c>
+      <c r="J10" s="154" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="152">
+        <v>10</v>
+      </c>
+      <c r="C11" s="165">
+        <v>43626</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="153">
+        <v>186</v>
+      </c>
+      <c r="G11" s="153">
+        <v>10140</v>
+      </c>
+      <c r="H11" s="155" t="s">
         <v>730</v>
       </c>
-      <c r="I2" s="150" t="s">
-        <v>715</v>
-      </c>
-      <c r="J2" s="152" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="153">
-        <v>2</v>
-      </c>
-      <c r="C3" s="170">
-        <v>43618</v>
-      </c>
-      <c r="D3" s="154" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="154" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="155">
-        <v>270</v>
-      </c>
-      <c r="G3" s="155">
-        <v>6640</v>
-      </c>
-      <c r="H3" s="155" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="155" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="156" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="153">
-        <v>3</v>
-      </c>
-      <c r="C4" s="170">
-        <v>43619</v>
-      </c>
-      <c r="D4" s="154" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="155">
-        <v>211</v>
-      </c>
-      <c r="G4" s="155">
-        <v>9079</v>
-      </c>
-      <c r="H4" s="157" t="s">
-        <v>528</v>
-      </c>
-      <c r="I4" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="156" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="153">
-        <v>4</v>
-      </c>
-      <c r="C5" s="170">
-        <v>43620</v>
-      </c>
-      <c r="D5" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="155">
-        <v>227</v>
-      </c>
-      <c r="G5" s="155">
-        <v>14136</v>
-      </c>
-      <c r="H5" s="157" t="s">
-        <v>326</v>
-      </c>
-      <c r="I5" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="156" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="153">
-        <v>5</v>
-      </c>
-      <c r="C6" s="170">
-        <v>43621</v>
-      </c>
-      <c r="D6" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="154" t="s">
-        <v>726</v>
-      </c>
-      <c r="F6" s="155">
-        <v>20</v>
-      </c>
-      <c r="G6" s="155">
-        <v>14136</v>
-      </c>
-      <c r="H6" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="158" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="153">
-        <v>6</v>
-      </c>
-      <c r="C7" s="170">
-        <v>43622</v>
-      </c>
-      <c r="D7" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="F7" s="155">
-        <v>250</v>
-      </c>
-      <c r="G7" s="155">
-        <v>14271</v>
-      </c>
-      <c r="H7" s="157" t="s">
-        <v>687</v>
-      </c>
-      <c r="I7" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="156" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="153">
-        <v>7</v>
-      </c>
-      <c r="C8" s="170">
-        <v>43623</v>
-      </c>
-      <c r="D8" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="E8" s="154" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="155">
-        <v>223</v>
-      </c>
-      <c r="G8" s="155">
-        <v>17582</v>
-      </c>
-      <c r="H8" s="157" t="s">
-        <v>728</v>
-      </c>
-      <c r="I8" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="156" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="153">
-        <v>8</v>
-      </c>
-      <c r="C9" s="170">
-        <v>43624</v>
-      </c>
-      <c r="D9" s="154" t="s">
-        <v>345</v>
-      </c>
-      <c r="E9" s="154" t="s">
-        <v>711</v>
-      </c>
-      <c r="F9" s="155">
-        <v>202</v>
-      </c>
-      <c r="G9" s="175">
-        <v>14836</v>
-      </c>
-      <c r="H9" s="157" t="s">
-        <v>729</v>
-      </c>
-      <c r="I9" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="156" t="s">
-        <v>739</v>
-      </c>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="153">
-        <v>9</v>
-      </c>
-      <c r="C10" s="170">
-        <v>43625</v>
-      </c>
-      <c r="D10" s="154" t="s">
-        <v>711</v>
-      </c>
-      <c r="E10" s="154" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="155">
-        <v>156</v>
-      </c>
-      <c r="G10" s="155">
-        <v>15600</v>
-      </c>
-      <c r="H10" s="155" t="s">
-        <v>457</v>
-      </c>
-      <c r="I10" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" s="156" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="153">
-        <v>10</v>
-      </c>
-      <c r="C11" s="170">
-        <v>43626</v>
-      </c>
-      <c r="D11" s="154" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" s="154" t="s">
+      <c r="I11" s="153" t="s">
+        <v>737</v>
+      </c>
+      <c r="J11" s="154" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="152">
+        <v>11</v>
+      </c>
+      <c r="C12" s="165">
+        <v>43627</v>
+      </c>
+      <c r="D12" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="155">
-        <v>186</v>
-      </c>
-      <c r="G11" s="155">
-        <v>10140</v>
-      </c>
-      <c r="H11" s="155" t="s">
-        <v>457</v>
-      </c>
-      <c r="I11" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J11" s="156" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="153">
-        <v>11</v>
-      </c>
-      <c r="C12" s="170">
-        <v>43627</v>
-      </c>
-      <c r="D12" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="154" t="s">
-        <v>712</v>
-      </c>
-      <c r="F12" s="155">
+      <c r="E12" s="155" t="s">
+        <v>706</v>
+      </c>
+      <c r="F12" s="153">
         <v>225</v>
       </c>
-      <c r="G12" s="155">
+      <c r="G12" s="153">
         <v>10100</v>
       </c>
-      <c r="H12" s="157" t="s">
+      <c r="H12" s="155" t="s">
         <v>731</v>
       </c>
-      <c r="I12" s="155" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="156" t="s">
-        <v>736</v>
+      <c r="I12" s="153" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12" s="154" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="162">
+      <c r="B13" s="158">
         <v>12</v>
       </c>
-      <c r="C13" s="171">
+      <c r="C13" s="166">
         <v>43628</v>
       </c>
-      <c r="D13" s="163" t="s">
-        <v>712</v>
-      </c>
-      <c r="E13" s="163" t="s">
-        <v>713</v>
-      </c>
-      <c r="F13" s="164">
+      <c r="D13" s="160" t="s">
+        <v>706</v>
+      </c>
+      <c r="E13" s="160" t="s">
+        <v>707</v>
+      </c>
+      <c r="F13" s="159">
         <v>460</v>
       </c>
-      <c r="G13" s="176">
+      <c r="G13" s="168">
         <v>2474</v>
       </c>
-      <c r="H13" s="151" t="s">
-        <v>730</v>
-      </c>
-      <c r="I13" s="165" t="s">
-        <v>717</v>
-      </c>
-      <c r="J13" s="166" t="s">
-        <v>737</v>
+      <c r="H13" s="150" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="160" t="s">
+        <v>716</v>
+      </c>
+      <c r="J13" s="161" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="178" t="s">
-        <v>716</v>
-      </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="167">
+      <c r="B14" s="172" t="s">
+        <v>708</v>
+      </c>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="162">
         <f>SUM(F2:F13)</f>
         <v>3045</v>
       </c>
-      <c r="G14" s="180" t="s">
-        <v>740</v>
-      </c>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="181"/>
+      <c r="G14" s="174" t="s">
+        <v>724</v>
+      </c>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
     </row>
     <row r="15" spans="2:13" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="172"/>
-      <c r="G15" s="177"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
     </row>
     <row r="16" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="173"/>
-      <c r="G16" s="177"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7002,19 +7050,19 @@
         <v>30</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>27</v>
@@ -7023,7 +7071,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B2" s="39">
         <v>41438</v>
@@ -7039,7 +7087,7 @@
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="24" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -7047,7 +7095,7 @@
       <c r="A3" s="42"/>
       <c r="B3" s="101"/>
       <c r="C3" s="43" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D3" s="31">
         <v>112</v>
@@ -7056,8 +7104,8 @@
         <f>SUM(D3,E2)</f>
         <v>112</v>
       </c>
-      <c r="F3" s="185" t="s">
-        <v>644</v>
+      <c r="F3" s="176" t="s">
+        <v>639</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="7"/>
@@ -7066,7 +7114,7 @@
       <c r="A4" s="42"/>
       <c r="B4" s="101"/>
       <c r="C4" s="43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D4" s="31">
         <v>36</v>
@@ -7075,7 +7123,7 @@
         <f>SUM(D4,E3)</f>
         <v>148</v>
       </c>
-      <c r="F4" s="186"/>
+      <c r="F4" s="177"/>
       <c r="G4" s="29"/>
       <c r="H4" s="7"/>
     </row>
@@ -7083,7 +7131,7 @@
       <c r="A5" s="42"/>
       <c r="B5" s="101"/>
       <c r="C5" s="43" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D5" s="31">
         <v>35</v>
@@ -7092,7 +7140,7 @@
         <f t="shared" ref="E5:E68" si="0">SUM(D5,E4)</f>
         <v>183</v>
       </c>
-      <c r="F5" s="186"/>
+      <c r="F5" s="177"/>
       <c r="G5" s="29"/>
       <c r="H5" s="7"/>
     </row>
@@ -7100,7 +7148,7 @@
       <c r="A6" s="42"/>
       <c r="B6" s="101"/>
       <c r="C6" s="43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D6" s="31">
         <v>50</v>
@@ -7109,7 +7157,7 @@
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="29"/>
       <c r="H6" s="7"/>
     </row>
@@ -7117,7 +7165,7 @@
       <c r="A7" s="42"/>
       <c r="B7" s="101"/>
       <c r="C7" s="43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D7" s="31">
         <v>67</v>
@@ -7126,7 +7174,7 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F7" s="186"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="29"/>
       <c r="H7" s="7"/>
     </row>
@@ -7134,7 +7182,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="101"/>
       <c r="C8" s="43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D8" s="31">
         <v>42</v>
@@ -7143,13 +7191,13 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="F8" s="187"/>
+      <c r="F8" s="178"/>
       <c r="G8" s="29"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B9" s="39">
         <v>41439</v>
@@ -7174,7 +7222,7 @@
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D10" s="31">
         <v>84</v>
@@ -7183,8 +7231,8 @@
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="F10" s="185" t="s">
-        <v>646</v>
+      <c r="F10" s="176" t="s">
+        <v>641</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="7"/>
@@ -7193,7 +7241,7 @@
       <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="43" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D11" s="31">
         <v>67</v>
@@ -7202,7 +7250,7 @@
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="F11" s="186"/>
+      <c r="F11" s="177"/>
       <c r="G11" s="29"/>
       <c r="H11" s="7"/>
     </row>
@@ -7210,7 +7258,7 @@
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D12" s="31">
         <v>48</v>
@@ -7219,7 +7267,7 @@
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
-      <c r="F12" s="186"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="29"/>
       <c r="H12" s="7"/>
     </row>
@@ -7227,7 +7275,7 @@
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="43" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D13" s="31">
         <v>13</v>
@@ -7236,7 +7284,7 @@
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="F13" s="186"/>
+      <c r="F13" s="177"/>
       <c r="G13" s="29"/>
       <c r="H13" s="7"/>
     </row>
@@ -7253,9 +7301,9 @@
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="F14" s="186"/>
+      <c r="F14" s="177"/>
       <c r="G14" s="29" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -7263,7 +7311,7 @@
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="48" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D15" s="31">
         <v>11</v>
@@ -7272,7 +7320,7 @@
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="F15" s="186"/>
+      <c r="F15" s="177"/>
       <c r="G15" s="103"/>
       <c r="H15" s="9"/>
     </row>
@@ -7280,7 +7328,7 @@
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="43" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D16" s="31">
         <v>28</v>
@@ -7289,7 +7337,7 @@
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="F16" s="186"/>
+      <c r="F16" s="177"/>
       <c r="G16" s="29"/>
       <c r="H16" s="7"/>
     </row>
@@ -7297,7 +7345,7 @@
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D17" s="31">
         <v>36</v>
@@ -7306,7 +7354,7 @@
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-      <c r="F17" s="186"/>
+      <c r="F17" s="177"/>
       <c r="G17" s="29"/>
       <c r="H17" s="7"/>
     </row>
@@ -7314,7 +7362,7 @@
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D18" s="31">
         <v>40</v>
@@ -7323,19 +7371,19 @@
         <f t="shared" si="0"/>
         <v>769</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="178"/>
       <c r="G18" s="29"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B19" s="39">
         <v>41440</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D19" s="47">
         <v>8</v>
@@ -7348,7 +7396,7 @@
         <v>374</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -7356,7 +7404,7 @@
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="43" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D20" s="31">
         <v>12</v>
@@ -7365,8 +7413,8 @@
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
-      <c r="F20" s="185" t="s">
-        <v>650</v>
+      <c r="F20" s="176" t="s">
+        <v>645</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="7"/>
@@ -7375,7 +7423,7 @@
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="43" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D21" s="31">
         <v>14</v>
@@ -7384,7 +7432,7 @@
         <f t="shared" si="0"/>
         <v>803</v>
       </c>
-      <c r="F21" s="186"/>
+      <c r="F21" s="177"/>
       <c r="G21" s="29"/>
       <c r="H21" s="7"/>
     </row>
@@ -7392,7 +7440,7 @@
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="48" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D22" s="49">
         <v>5</v>
@@ -7401,7 +7449,7 @@
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="F22" s="186"/>
+      <c r="F22" s="177"/>
       <c r="G22" s="29"/>
       <c r="H22" s="7"/>
     </row>
@@ -7409,7 +7457,7 @@
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="48" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D23" s="49">
         <v>10</v>
@@ -7418,7 +7466,7 @@
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
-      <c r="F23" s="186"/>
+      <c r="F23" s="177"/>
       <c r="G23" s="29"/>
       <c r="H23" s="7"/>
     </row>
@@ -7426,7 +7474,7 @@
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D24" s="31">
         <v>36</v>
@@ -7435,7 +7483,7 @@
         <f t="shared" si="0"/>
         <v>854</v>
       </c>
-      <c r="F24" s="186"/>
+      <c r="F24" s="177"/>
       <c r="G24" s="29"/>
       <c r="H24" s="7"/>
     </row>
@@ -7443,7 +7491,7 @@
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D25" s="31">
         <v>19</v>
@@ -7452,7 +7500,7 @@
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
-      <c r="F25" s="186"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="29"/>
       <c r="H25" s="7"/>
     </row>
@@ -7460,7 +7508,7 @@
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="84" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D26" s="31">
         <v>22</v>
@@ -7469,9 +7517,9 @@
         <f t="shared" si="0"/>
         <v>895</v>
       </c>
-      <c r="F26" s="186"/>
+      <c r="F26" s="177"/>
       <c r="G26" s="29" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -7479,7 +7527,7 @@
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="43" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D27" s="31">
         <v>17</v>
@@ -7488,7 +7536,7 @@
         <f t="shared" si="0"/>
         <v>912</v>
       </c>
-      <c r="F27" s="186"/>
+      <c r="F27" s="177"/>
       <c r="G27" s="29"/>
       <c r="H27" s="7"/>
     </row>
@@ -7496,7 +7544,7 @@
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="43" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D28" s="31">
         <v>24</v>
@@ -7505,7 +7553,7 @@
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="F28" s="186"/>
+      <c r="F28" s="177"/>
       <c r="G28" s="29"/>
       <c r="H28" s="7"/>
     </row>
@@ -7513,7 +7561,7 @@
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="43" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D29" s="31">
         <v>15</v>
@@ -7522,7 +7570,7 @@
         <f t="shared" si="0"/>
         <v>951</v>
       </c>
-      <c r="F29" s="186"/>
+      <c r="F29" s="177"/>
       <c r="G29" s="29"/>
       <c r="H29" s="7"/>
     </row>
@@ -7530,7 +7578,7 @@
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D30" s="49">
         <v>7</v>
@@ -7539,13 +7587,13 @@
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="F30" s="187"/>
+      <c r="F30" s="178"/>
       <c r="G30" s="29"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B31" s="39">
         <v>41441</v>
@@ -7564,7 +7612,7 @@
         <v>186</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="H31" s="9"/>
     </row>
@@ -7572,7 +7620,7 @@
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D32" s="31">
         <v>4</v>
@@ -7581,8 +7629,8 @@
         <f t="shared" si="0"/>
         <v>967</v>
       </c>
-      <c r="F32" s="182" t="s">
-        <v>651</v>
+      <c r="F32" s="179" t="s">
+        <v>646</v>
       </c>
       <c r="G32" s="104"/>
       <c r="H32" s="10"/>
@@ -7591,7 +7639,7 @@
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D33" s="31">
         <v>4</v>
@@ -7600,7 +7648,7 @@
         <f t="shared" si="0"/>
         <v>971</v>
       </c>
-      <c r="F33" s="183"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="29"/>
       <c r="H33" s="7"/>
     </row>
@@ -7608,7 +7656,7 @@
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D34" s="31">
         <v>1</v>
@@ -7617,7 +7665,7 @@
         <f t="shared" si="0"/>
         <v>972</v>
       </c>
-      <c r="F34" s="183"/>
+      <c r="F34" s="180"/>
       <c r="G34" s="29"/>
       <c r="H34" s="7"/>
     </row>
@@ -7625,7 +7673,7 @@
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="43" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D35" s="31">
         <v>10</v>
@@ -7634,7 +7682,7 @@
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="F35" s="183"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="29"/>
       <c r="H35" s="7"/>
     </row>
@@ -7642,7 +7690,7 @@
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="43" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D36" s="31">
         <v>8</v>
@@ -7651,7 +7699,7 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="F36" s="183"/>
+      <c r="F36" s="180"/>
       <c r="G36" s="29"/>
       <c r="H36" s="7"/>
     </row>
@@ -7659,7 +7707,7 @@
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D37" s="31">
         <v>3</v>
@@ -7668,7 +7716,7 @@
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
-      <c r="F37" s="183"/>
+      <c r="F37" s="180"/>
       <c r="G37" s="29"/>
       <c r="H37" s="7"/>
     </row>
@@ -7676,7 +7724,7 @@
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D38" s="31">
         <v>11</v>
@@ -7685,7 +7733,7 @@
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="F38" s="183"/>
+      <c r="F38" s="180"/>
       <c r="G38" s="29"/>
       <c r="H38" s="7"/>
     </row>
@@ -7693,7 +7741,7 @@
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="43" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D39" s="31">
         <v>10</v>
@@ -7702,7 +7750,7 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="F39" s="183"/>
+      <c r="F39" s="180"/>
       <c r="G39" s="29"/>
       <c r="H39" s="7"/>
     </row>
@@ -7710,7 +7758,7 @@
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="84" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D40" s="31">
         <v>10</v>
@@ -7719,9 +7767,9 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="F40" s="183"/>
+      <c r="F40" s="180"/>
       <c r="G40" s="29" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -7729,7 +7777,7 @@
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D41" s="31">
         <v>7</v>
@@ -7738,7 +7786,7 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="F41" s="183"/>
+      <c r="F41" s="180"/>
       <c r="G41" s="29"/>
       <c r="H41" s="7"/>
     </row>
@@ -7746,7 +7794,7 @@
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="84" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D42" s="31">
         <v>16</v>
@@ -7755,9 +7803,9 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="F42" s="183"/>
+      <c r="F42" s="180"/>
       <c r="G42" s="29" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -7765,7 +7813,7 @@
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D43" s="31">
         <v>15</v>
@@ -7774,7 +7822,7 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="F43" s="183"/>
+      <c r="F43" s="180"/>
       <c r="G43" s="105"/>
       <c r="H43" s="11"/>
     </row>
@@ -7782,7 +7830,7 @@
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="84" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D44" s="31">
         <v>12</v>
@@ -7791,9 +7839,9 @@
         <f t="shared" si="0"/>
         <v>1074</v>
       </c>
-      <c r="F44" s="183"/>
+      <c r="F44" s="180"/>
       <c r="G44" s="29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -7801,7 +7849,7 @@
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D45" s="31">
         <v>17</v>
@@ -7810,7 +7858,7 @@
         <f t="shared" si="0"/>
         <v>1091</v>
       </c>
-      <c r="F45" s="183"/>
+      <c r="F45" s="180"/>
       <c r="G45" s="29"/>
       <c r="H45" s="7"/>
     </row>
@@ -7818,7 +7866,7 @@
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="84" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D46" s="31">
         <v>21</v>
@@ -7827,9 +7875,9 @@
         <f t="shared" si="0"/>
         <v>1112</v>
       </c>
-      <c r="F46" s="183"/>
+      <c r="F46" s="180"/>
       <c r="G46" s="29" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -7837,7 +7885,7 @@
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D47" s="31">
         <v>24</v>
@@ -7846,7 +7894,7 @@
         <f t="shared" si="0"/>
         <v>1136</v>
       </c>
-      <c r="F47" s="183"/>
+      <c r="F47" s="180"/>
       <c r="G47" s="29"/>
       <c r="H47" s="7"/>
     </row>
@@ -7854,7 +7902,7 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D48" s="31">
         <v>19</v>
@@ -7863,13 +7911,13 @@
         <f t="shared" si="0"/>
         <v>1155</v>
       </c>
-      <c r="F48" s="184"/>
+      <c r="F48" s="181"/>
       <c r="G48" s="29"/>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B49" s="39">
         <v>41442</v>
@@ -7888,7 +7936,7 @@
         <v>211</v>
       </c>
       <c r="G49" s="107" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="H49" s="10"/>
     </row>
@@ -7896,7 +7944,7 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D50" s="31">
         <v>15</v>
@@ -7905,8 +7953,8 @@
         <f t="shared" si="0"/>
         <v>1189</v>
       </c>
-      <c r="F50" s="185" t="s">
-        <v>652</v>
+      <c r="F50" s="176" t="s">
+        <v>647</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="7"/>
@@ -7915,7 +7963,7 @@
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D51" s="31">
         <v>2</v>
@@ -7924,7 +7972,7 @@
         <f t="shared" si="0"/>
         <v>1191</v>
       </c>
-      <c r="F51" s="186"/>
+      <c r="F51" s="177"/>
       <c r="G51" s="29"/>
       <c r="H51" s="7"/>
     </row>
@@ -7932,7 +7980,7 @@
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D52" s="31">
         <v>18</v>
@@ -7941,7 +7989,7 @@
         <f t="shared" si="0"/>
         <v>1209</v>
       </c>
-      <c r="F52" s="186"/>
+      <c r="F52" s="177"/>
       <c r="G52" s="29"/>
       <c r="H52" s="7"/>
     </row>
@@ -7949,7 +7997,7 @@
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="84" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D53" s="31">
         <v>6</v>
@@ -7958,9 +8006,9 @@
         <f t="shared" si="0"/>
         <v>1215</v>
       </c>
-      <c r="F53" s="186"/>
+      <c r="F53" s="177"/>
       <c r="G53" s="29" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -7968,7 +8016,7 @@
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="43" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D54" s="31">
         <v>15</v>
@@ -7977,7 +8025,7 @@
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="F54" s="186"/>
+      <c r="F54" s="177"/>
       <c r="G54" s="29"/>
       <c r="H54" s="7"/>
     </row>
@@ -7985,7 +8033,7 @@
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="43" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D55" s="31">
         <v>11</v>
@@ -7994,7 +8042,7 @@
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
-      <c r="F55" s="186"/>
+      <c r="F55" s="177"/>
       <c r="G55" s="29"/>
       <c r="H55" s="7"/>
     </row>
@@ -8002,7 +8050,7 @@
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="43" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D56" s="31">
         <v>6</v>
@@ -8011,7 +8059,7 @@
         <f t="shared" si="0"/>
         <v>1247</v>
       </c>
-      <c r="F56" s="186"/>
+      <c r="F56" s="177"/>
       <c r="G56" s="29"/>
       <c r="H56" s="7"/>
     </row>
@@ -8019,7 +8067,7 @@
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D57" s="31">
         <v>7</v>
@@ -8028,7 +8076,7 @@
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="F57" s="186"/>
+      <c r="F57" s="177"/>
       <c r="G57" s="29"/>
       <c r="H57" s="7"/>
     </row>
@@ -8036,7 +8084,7 @@
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="43" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D58" s="31">
         <v>14</v>
@@ -8045,7 +8093,7 @@
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
-      <c r="F58" s="186"/>
+      <c r="F58" s="177"/>
       <c r="G58" s="29"/>
       <c r="H58" s="7"/>
     </row>
@@ -8062,9 +8110,9 @@
         <f t="shared" si="0"/>
         <v>1283</v>
       </c>
-      <c r="F59" s="186"/>
+      <c r="F59" s="177"/>
       <c r="G59" s="105" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H59" s="11"/>
     </row>
@@ -8072,7 +8120,7 @@
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="48" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D60" s="31">
         <v>19</v>
@@ -8081,7 +8129,7 @@
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="F60" s="186"/>
+      <c r="F60" s="177"/>
       <c r="G60" s="29"/>
       <c r="H60" s="7"/>
     </row>
@@ -8089,7 +8137,7 @@
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D61" s="31">
         <v>13</v>
@@ -8098,7 +8146,7 @@
         <f t="shared" si="0"/>
         <v>1315</v>
       </c>
-      <c r="F61" s="186"/>
+      <c r="F61" s="177"/>
       <c r="G61" s="29"/>
       <c r="H61" s="7"/>
     </row>
@@ -8106,7 +8154,7 @@
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D62" s="31">
         <v>26</v>
@@ -8115,7 +8163,7 @@
         <f t="shared" si="0"/>
         <v>1341</v>
       </c>
-      <c r="F62" s="186"/>
+      <c r="F62" s="177"/>
       <c r="G62" s="29"/>
       <c r="H62" s="7"/>
     </row>
@@ -8123,7 +8171,7 @@
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D63" s="31">
         <v>21</v>
@@ -8132,7 +8180,7 @@
         <f t="shared" si="0"/>
         <v>1362</v>
       </c>
-      <c r="F63" s="186"/>
+      <c r="F63" s="177"/>
       <c r="G63" s="29"/>
       <c r="H63" s="7"/>
     </row>
@@ -8140,7 +8188,7 @@
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="84" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D64" s="31">
         <v>5</v>
@@ -8149,9 +8197,9 @@
         <f t="shared" si="0"/>
         <v>1367</v>
       </c>
-      <c r="F64" s="186"/>
+      <c r="F64" s="177"/>
       <c r="G64" s="29" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -8168,9 +8216,9 @@
         <f t="shared" si="0"/>
         <v>1374</v>
       </c>
-      <c r="F65" s="186"/>
+      <c r="F65" s="177"/>
       <c r="G65" s="29" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -8178,7 +8226,7 @@
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="84" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D66" s="31">
         <v>20</v>
@@ -8187,18 +8235,18 @@
         <f t="shared" si="0"/>
         <v>1394</v>
       </c>
-      <c r="F66" s="187"/>
+      <c r="F66" s="178"/>
       <c r="G66" s="29" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" ht="204" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B67" s="108" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>145</v>
@@ -8214,7 +8262,7 @@
         <v>227</v>
       </c>
       <c r="G67" s="107" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -8222,7 +8270,7 @@
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="50" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D68" s="31">
         <v>26</v>
@@ -8231,8 +8279,8 @@
         <f t="shared" si="0"/>
         <v>1427</v>
       </c>
-      <c r="F68" s="185" t="s">
-        <v>653</v>
+      <c r="F68" s="176" t="s">
+        <v>648</v>
       </c>
       <c r="G68" s="29"/>
       <c r="H68" s="7"/>
@@ -8241,7 +8289,7 @@
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="83" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D69" s="31">
         <v>14</v>
@@ -8250,9 +8298,9 @@
         <f t="shared" ref="E69:E134" si="1">SUM(D69,E68)</f>
         <v>1441</v>
       </c>
-      <c r="F69" s="186"/>
+      <c r="F69" s="177"/>
       <c r="G69" s="29" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -8260,7 +8308,7 @@
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="50" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D70" s="31">
         <v>16</v>
@@ -8269,7 +8317,7 @@
         <f t="shared" si="1"/>
         <v>1457</v>
       </c>
-      <c r="F70" s="186"/>
+      <c r="F70" s="177"/>
       <c r="G70" s="29"/>
       <c r="H70" s="7"/>
     </row>
@@ -8277,7 +8325,7 @@
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="50" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D71" s="31">
         <v>17</v>
@@ -8286,7 +8334,7 @@
         <f t="shared" si="1"/>
         <v>1474</v>
       </c>
-      <c r="F71" s="186"/>
+      <c r="F71" s="177"/>
       <c r="G71" s="29"/>
       <c r="H71" s="7"/>
     </row>
@@ -8294,7 +8342,7 @@
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="50" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D72" s="31">
         <v>22</v>
@@ -8303,7 +8351,7 @@
         <f t="shared" si="1"/>
         <v>1496</v>
       </c>
-      <c r="F72" s="186"/>
+      <c r="F72" s="177"/>
       <c r="G72" s="29"/>
       <c r="H72" s="7"/>
     </row>
@@ -8311,7 +8359,7 @@
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D73" s="31">
         <v>23</v>
@@ -8320,21 +8368,21 @@
         <f t="shared" si="1"/>
         <v>1519</v>
       </c>
-      <c r="F73" s="187"/>
+      <c r="F73" s="178"/>
       <c r="G73" s="29" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" s="39">
         <v>41445</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="47">
         <v>12</v>
@@ -8347,7 +8395,7 @@
         <v>130</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -8355,7 +8403,7 @@
       <c r="A75" s="94"/>
       <c r="B75" s="94"/>
       <c r="C75" s="83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D75" s="31">
         <v>12</v>
@@ -8364,11 +8412,11 @@
         <f t="shared" si="1"/>
         <v>1543</v>
       </c>
-      <c r="F75" s="188" t="s">
-        <v>651</v>
+      <c r="F75" s="182" t="s">
+        <v>646</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -8376,7 +8424,7 @@
       <c r="A76" s="94"/>
       <c r="B76" s="94"/>
       <c r="C76" s="135" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D76" s="31">
         <v>20</v>
@@ -8385,7 +8433,7 @@
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
-      <c r="F76" s="189"/>
+      <c r="F76" s="183"/>
       <c r="G76" s="29"/>
       <c r="H76" s="7"/>
     </row>
@@ -8393,7 +8441,7 @@
       <c r="A77" s="94"/>
       <c r="B77" s="94"/>
       <c r="C77" s="135" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D77" s="31">
         <v>7</v>
@@ -8402,7 +8450,7 @@
         <f t="shared" si="1"/>
         <v>1570</v>
       </c>
-      <c r="F77" s="189"/>
+      <c r="F77" s="183"/>
       <c r="G77" s="29"/>
       <c r="H77" s="7"/>
     </row>
@@ -8410,7 +8458,7 @@
       <c r="A78" s="94"/>
       <c r="B78" s="94"/>
       <c r="C78" s="83" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D78" s="31">
         <v>4</v>
@@ -8419,9 +8467,9 @@
         <f t="shared" si="1"/>
         <v>1574</v>
       </c>
-      <c r="F78" s="189"/>
+      <c r="F78" s="183"/>
       <c r="G78" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -8429,7 +8477,7 @@
       <c r="A79" s="94"/>
       <c r="B79" s="94"/>
       <c r="C79" s="135" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D79" s="31">
         <v>15</v>
@@ -8438,7 +8486,7 @@
         <f t="shared" si="1"/>
         <v>1589</v>
       </c>
-      <c r="F79" s="189"/>
+      <c r="F79" s="183"/>
       <c r="G79" s="29"/>
       <c r="H79" s="7"/>
     </row>
@@ -8446,7 +8494,7 @@
       <c r="A80" s="94"/>
       <c r="B80" s="94"/>
       <c r="C80" s="83" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D80" s="31">
         <v>10</v>
@@ -8455,9 +8503,9 @@
         <f t="shared" si="1"/>
         <v>1599</v>
       </c>
-      <c r="F80" s="189"/>
+      <c r="F80" s="183"/>
       <c r="G80" s="29" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H80" s="9"/>
     </row>
@@ -8465,7 +8513,7 @@
       <c r="A81" s="94"/>
       <c r="B81" s="94"/>
       <c r="C81" s="135" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D81" s="31">
         <v>10</v>
@@ -8474,14 +8522,14 @@
         <f t="shared" si="1"/>
         <v>1609</v>
       </c>
-      <c r="F81" s="189"/>
+      <c r="F81" s="183"/>
       <c r="G81" s="29"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="94"/>
       <c r="B82" s="94"/>
       <c r="C82" s="135" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D82" s="31">
         <v>15</v>
@@ -8490,14 +8538,14 @@
         <f t="shared" si="1"/>
         <v>1624</v>
       </c>
-      <c r="F82" s="189"/>
+      <c r="F82" s="183"/>
       <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="94"/>
       <c r="B83" s="94"/>
       <c r="C83" s="50" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D83" s="31">
         <v>23</v>
@@ -8506,14 +8554,14 @@
         <f t="shared" si="1"/>
         <v>1647</v>
       </c>
-      <c r="F83" s="189"/>
+      <c r="F83" s="183"/>
       <c r="G83" s="29"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="94"/>
       <c r="B84" s="94"/>
       <c r="C84" s="50" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D84" s="31">
         <v>22</v>
@@ -8522,14 +8570,14 @@
         <f t="shared" si="1"/>
         <v>1669</v>
       </c>
-      <c r="F84" s="189"/>
+      <c r="F84" s="183"/>
       <c r="G84" s="29"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="94"/>
       <c r="B85" s="94"/>
       <c r="C85" s="50" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D85" s="31">
         <v>17</v>
@@ -8538,14 +8586,14 @@
         <f t="shared" si="1"/>
         <v>1686</v>
       </c>
-      <c r="F85" s="189"/>
+      <c r="F85" s="183"/>
       <c r="G85" s="29"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="94"/>
       <c r="B86" s="94"/>
       <c r="C86" s="50" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D86" s="31">
         <v>16</v>
@@ -8554,14 +8602,14 @@
         <f t="shared" si="1"/>
         <v>1702</v>
       </c>
-      <c r="F86" s="189"/>
+      <c r="F86" s="183"/>
       <c r="G86" s="29"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="94"/>
       <c r="B87" s="94"/>
       <c r="C87" s="50" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D87" s="31">
         <v>14</v>
@@ -8570,12 +8618,12 @@
         <f t="shared" si="1"/>
         <v>1716</v>
       </c>
-      <c r="F87" s="190"/>
+      <c r="F87" s="184"/>
       <c r="G87" s="29"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B88" s="39">
         <v>41446</v>
@@ -8594,14 +8642,14 @@
         <v>211</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D89" s="31">
         <v>6</v>
@@ -8610,8 +8658,8 @@
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="F89" s="185" t="s">
-        <v>654</v>
+      <c r="F89" s="176" t="s">
+        <v>649</v>
       </c>
       <c r="G89" s="28"/>
     </row>
@@ -8619,7 +8667,7 @@
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="85" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D90" s="31">
         <v>9</v>
@@ -8628,16 +8676,16 @@
         <f t="shared" si="1"/>
         <v>1757</v>
       </c>
-      <c r="F90" s="186"/>
+      <c r="F90" s="177"/>
       <c r="G90" s="28" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D91" s="31">
         <v>6</v>
@@ -8646,16 +8694,16 @@
         <f t="shared" si="1"/>
         <v>1763</v>
       </c>
-      <c r="F91" s="186"/>
+      <c r="F91" s="177"/>
       <c r="G91" s="28" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="53" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D92" s="31">
         <v>16</v>
@@ -8664,7 +8712,7 @@
         <f t="shared" si="1"/>
         <v>1779</v>
       </c>
-      <c r="F92" s="186"/>
+      <c r="F92" s="177"/>
       <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
@@ -8680,16 +8728,16 @@
         <f t="shared" si="1"/>
         <v>1786</v>
       </c>
-      <c r="F93" s="186"/>
+      <c r="F93" s="177"/>
       <c r="G93" s="28" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D94" s="31">
         <v>7</v>
@@ -8698,16 +8746,16 @@
         <f t="shared" si="1"/>
         <v>1793</v>
       </c>
-      <c r="F94" s="186"/>
+      <c r="F94" s="177"/>
       <c r="G94" s="28" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="53" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D95" s="31">
         <v>32</v>
@@ -8716,14 +8764,14 @@
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="F95" s="186"/>
+      <c r="F95" s="177"/>
       <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="85" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D96" s="31">
         <v>13</v>
@@ -8732,16 +8780,16 @@
         <f t="shared" si="1"/>
         <v>1838</v>
       </c>
-      <c r="F96" s="186"/>
+      <c r="F96" s="177"/>
       <c r="G96" s="28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="44" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D97" s="31">
         <v>32</v>
@@ -8750,14 +8798,14 @@
         <f t="shared" si="1"/>
         <v>1870</v>
       </c>
-      <c r="F97" s="186"/>
+      <c r="F97" s="177"/>
       <c r="G97" s="28"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="53" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D98" s="31">
         <v>9</v>
@@ -8766,14 +8814,14 @@
         <f t="shared" si="1"/>
         <v>1879</v>
       </c>
-      <c r="F98" s="186"/>
+      <c r="F98" s="177"/>
       <c r="G98" s="28"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D99" s="31">
         <v>24</v>
@@ -8782,14 +8830,14 @@
         <f t="shared" si="1"/>
         <v>1903</v>
       </c>
-      <c r="F99" s="186"/>
+      <c r="F99" s="177"/>
       <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="42"/>
       <c r="C100" s="53" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D100" s="31">
         <v>20</v>
@@ -8798,18 +8846,18 @@
         <f t="shared" si="1"/>
         <v>1923</v>
       </c>
-      <c r="F100" s="187"/>
+      <c r="F100" s="178"/>
       <c r="G100" s="28"/>
     </row>
     <row r="101" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B101" s="39">
         <v>41447</v>
       </c>
       <c r="C101" s="51" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D101" s="47">
         <v>1</v>
@@ -8822,14 +8870,14 @@
         <v>182</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="54"/>
       <c r="B102" s="54"/>
       <c r="C102" s="55" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D102" s="31">
         <v>1</v>
@@ -8838,8 +8886,8 @@
         <f t="shared" si="1"/>
         <v>1925</v>
       </c>
-      <c r="F102" s="182" t="s">
-        <v>655</v>
+      <c r="F102" s="179" t="s">
+        <v>650</v>
       </c>
       <c r="G102" s="28"/>
     </row>
@@ -8847,7 +8895,7 @@
       <c r="A103" s="42"/>
       <c r="B103" s="42"/>
       <c r="C103" s="44" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D103" s="31">
         <v>20</v>
@@ -8856,14 +8904,14 @@
         <f t="shared" si="1"/>
         <v>1945</v>
       </c>
-      <c r="F103" s="183"/>
+      <c r="F103" s="180"/>
       <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="42"/>
       <c r="C104" s="91" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D104" s="31">
         <v>24</v>
@@ -8872,16 +8920,16 @@
         <f t="shared" si="1"/>
         <v>1969</v>
       </c>
-      <c r="F104" s="183"/>
+      <c r="F104" s="180"/>
       <c r="G104" s="28" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="42"/>
       <c r="C105" s="44" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D105" s="31">
         <v>9</v>
@@ -8890,14 +8938,14 @@
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="F105" s="183"/>
+      <c r="F105" s="180"/>
       <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="42"/>
       <c r="C106" s="44" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D106" s="31">
         <v>32</v>
@@ -8906,14 +8954,14 @@
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="F106" s="183"/>
+      <c r="F106" s="180"/>
       <c r="G106" s="28"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="42"/>
       <c r="C107" s="44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D107" s="31">
         <v>13</v>
@@ -8922,14 +8970,14 @@
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="F107" s="183"/>
+      <c r="F107" s="180"/>
       <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="42"/>
       <c r="C108" s="91" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D108" s="31">
         <v>32</v>
@@ -8938,16 +8986,16 @@
         <f t="shared" si="1"/>
         <v>2055</v>
       </c>
-      <c r="F108" s="183"/>
+      <c r="F108" s="180"/>
       <c r="G108" s="28" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="42"/>
       <c r="C109" s="44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D109" s="31">
         <v>13</v>
@@ -8956,14 +9004,14 @@
         <f t="shared" si="1"/>
         <v>2068</v>
       </c>
-      <c r="F109" s="183"/>
+      <c r="F109" s="180"/>
       <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="42"/>
       <c r="C110" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D110" s="31">
         <v>14</v>
@@ -8972,14 +9020,14 @@
         <f t="shared" si="1"/>
         <v>2082</v>
       </c>
-      <c r="F110" s="183"/>
+      <c r="F110" s="180"/>
       <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="42"/>
       <c r="C111" s="44" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D111" s="31">
         <v>9</v>
@@ -8988,14 +9036,14 @@
         <f t="shared" si="1"/>
         <v>2091</v>
       </c>
-      <c r="F111" s="183"/>
+      <c r="F111" s="180"/>
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="42"/>
       <c r="C112" s="44" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D112" s="31">
         <v>4</v>
@@ -9004,14 +9052,14 @@
         <f t="shared" si="1"/>
         <v>2095</v>
       </c>
-      <c r="F112" s="183"/>
+      <c r="F112" s="180"/>
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="42"/>
       <c r="C113" s="91" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D113" s="31">
         <v>3</v>
@@ -9020,16 +9068,16 @@
         <f t="shared" si="1"/>
         <v>2098</v>
       </c>
-      <c r="F113" s="183"/>
+      <c r="F113" s="180"/>
       <c r="G113" s="28" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="42"/>
       <c r="C114" s="91" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D114" s="31">
         <v>32</v>
@@ -9038,16 +9086,16 @@
         <f>SUM(D114,E113)</f>
         <v>2130</v>
       </c>
-      <c r="F114" s="183"/>
+      <c r="F114" s="180"/>
       <c r="G114" s="28" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="153" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="91" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D115" s="31">
         <v>14</v>
@@ -9056,20 +9104,20 @@
         <f>SUM(D115,E114)</f>
         <v>2144</v>
       </c>
-      <c r="F115" s="184"/>
+      <c r="F115" s="181"/>
       <c r="G115" s="28" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B116" s="39">
         <v>41448</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D116" s="47">
         <v>52</v>
@@ -9082,14 +9130,14 @@
         <v>272</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="42"/>
       <c r="C117" s="91" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D117" s="31">
         <v>22</v>
@@ -9098,18 +9146,18 @@
         <f t="shared" si="1"/>
         <v>2218</v>
       </c>
-      <c r="F117" s="182" t="s">
-        <v>656</v>
+      <c r="F117" s="179" t="s">
+        <v>651</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="88"/>
       <c r="B118" s="89"/>
       <c r="C118" s="53" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D118" s="45">
         <v>45</v>
@@ -9118,9 +9166,9 @@
         <f>SUM(D118,E117)</f>
         <v>2263</v>
       </c>
-      <c r="F118" s="183"/>
+      <c r="F118" s="180"/>
       <c r="G118" s="29" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9136,16 +9184,16 @@
         <f>SUM(D119,E118)</f>
         <v>2273</v>
       </c>
-      <c r="F119" s="183"/>
+      <c r="F119" s="180"/>
       <c r="G119" s="29" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="42"/>
       <c r="C120" s="44" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D120" s="31">
         <v>9</v>
@@ -9154,14 +9202,14 @@
         <f t="shared" si="1"/>
         <v>2282</v>
       </c>
-      <c r="F120" s="183"/>
+      <c r="F120" s="180"/>
       <c r="G120" s="28"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="42"/>
       <c r="C121" s="44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D121" s="31">
         <v>11</v>
@@ -9170,14 +9218,14 @@
         <f t="shared" si="1"/>
         <v>2293</v>
       </c>
-      <c r="F121" s="183"/>
+      <c r="F121" s="180"/>
       <c r="G121" s="28"/>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="42"/>
       <c r="C122" s="91" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D122" s="31">
         <v>13</v>
@@ -9186,16 +9234,16 @@
         <f t="shared" si="1"/>
         <v>2306</v>
       </c>
-      <c r="F122" s="183"/>
+      <c r="F122" s="180"/>
       <c r="G122" s="28" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="42"/>
       <c r="C123" s="91" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D123" s="31">
         <v>21</v>
@@ -9204,16 +9252,16 @@
         <f t="shared" si="1"/>
         <v>2327</v>
       </c>
-      <c r="F123" s="183"/>
+      <c r="F123" s="180"/>
       <c r="G123" s="28" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="42"/>
       <c r="C124" s="44" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D124" s="31">
         <v>22</v>
@@ -9222,16 +9270,16 @@
         <f t="shared" si="1"/>
         <v>2349</v>
       </c>
-      <c r="F124" s="183"/>
+      <c r="F124" s="180"/>
       <c r="G124" s="28" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="42"/>
       <c r="C125" s="44" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D125" s="31">
         <v>10</v>
@@ -9240,16 +9288,16 @@
         <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="F125" s="183"/>
+      <c r="F125" s="180"/>
       <c r="G125" s="28" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="42"/>
       <c r="C126" s="44" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D126" s="31">
         <v>17</v>
@@ -9258,12 +9306,12 @@
         <f t="shared" si="1"/>
         <v>2376</v>
       </c>
-      <c r="F126" s="184"/>
+      <c r="F126" s="181"/>
       <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B127" s="39">
         <v>41449</v>
@@ -9282,14 +9330,14 @@
         <v>186</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="42"/>
       <c r="C128" s="91" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D128" s="31">
         <v>10</v>
@@ -9298,18 +9346,18 @@
         <f t="shared" si="1"/>
         <v>2392</v>
       </c>
-      <c r="F128" s="182" t="s">
-        <v>657</v>
+      <c r="F128" s="179" t="s">
+        <v>652</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="42"/>
       <c r="C129" s="44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D129" s="31">
         <v>7</v>
@@ -9318,14 +9366,14 @@
         <f t="shared" si="1"/>
         <v>2399</v>
       </c>
-      <c r="F129" s="183"/>
+      <c r="F129" s="180"/>
       <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="42"/>
       <c r="C130" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D130" s="31">
         <v>1</v>
@@ -9334,14 +9382,14 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F130" s="183"/>
+      <c r="F130" s="180"/>
       <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
       <c r="B131" s="42"/>
       <c r="C131" s="44" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D131" s="31">
         <v>6</v>
@@ -9350,14 +9398,14 @@
         <f t="shared" si="1"/>
         <v>2406</v>
       </c>
-      <c r="F131" s="183"/>
+      <c r="F131" s="180"/>
       <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
       <c r="B132" s="42"/>
       <c r="C132" s="44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D132" s="31">
         <v>2</v>
@@ -9366,14 +9414,14 @@
         <f t="shared" si="1"/>
         <v>2408</v>
       </c>
-      <c r="F132" s="183"/>
+      <c r="F132" s="180"/>
       <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
       <c r="B133" s="42"/>
       <c r="C133" s="44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D133" s="31">
         <v>1</v>
@@ -9382,14 +9430,14 @@
         <f t="shared" si="1"/>
         <v>2409</v>
       </c>
-      <c r="F133" s="183"/>
+      <c r="F133" s="180"/>
       <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
       <c r="B134" s="42"/>
       <c r="C134" s="91" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D134" s="31">
         <v>8</v>
@@ -9398,16 +9446,16 @@
         <f t="shared" si="1"/>
         <v>2417</v>
       </c>
-      <c r="F134" s="183"/>
+      <c r="F134" s="180"/>
       <c r="G134" s="28" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
       <c r="B135" s="42"/>
       <c r="C135" s="44" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D135" s="31">
         <v>14</v>
@@ -9416,14 +9464,14 @@
         <f t="shared" ref="E135:E198" si="2">SUM(D135,E134)</f>
         <v>2431</v>
       </c>
-      <c r="F135" s="183"/>
+      <c r="F135" s="180"/>
       <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
       <c r="B136" s="42"/>
       <c r="C136" s="44" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D136" s="31">
         <v>1</v>
@@ -9432,14 +9480,14 @@
         <f t="shared" si="2"/>
         <v>2432</v>
       </c>
-      <c r="F136" s="183"/>
+      <c r="F136" s="180"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
       <c r="B137" s="42"/>
       <c r="C137" s="91" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D137" s="31">
         <v>5</v>
@@ -9448,16 +9496,16 @@
         <f t="shared" si="2"/>
         <v>2437</v>
       </c>
-      <c r="F137" s="183"/>
+      <c r="F137" s="180"/>
       <c r="G137" s="109" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
       <c r="B138" s="42"/>
       <c r="C138" s="44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D138" s="31">
         <v>17</v>
@@ -9466,14 +9514,14 @@
         <f t="shared" si="2"/>
         <v>2454</v>
       </c>
-      <c r="F138" s="183"/>
+      <c r="F138" s="180"/>
       <c r="G138" s="28"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
       <c r="B139" s="42"/>
       <c r="C139" s="44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D139" s="31">
         <v>30</v>
@@ -9482,14 +9530,14 @@
         <f t="shared" si="2"/>
         <v>2484</v>
       </c>
-      <c r="F139" s="183"/>
+      <c r="F139" s="180"/>
       <c r="G139" s="28"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="42"/>
       <c r="B140" s="42"/>
       <c r="C140" s="44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D140" s="31">
         <v>14</v>
@@ -9498,14 +9546,14 @@
         <f t="shared" si="2"/>
         <v>2498</v>
       </c>
-      <c r="F140" s="183"/>
+      <c r="F140" s="180"/>
       <c r="G140" s="28"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="42"/>
       <c r="B141" s="42"/>
       <c r="C141" s="44" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D141" s="31">
         <v>18</v>
@@ -9514,14 +9562,14 @@
         <f t="shared" si="2"/>
         <v>2516</v>
       </c>
-      <c r="F141" s="183"/>
+      <c r="F141" s="180"/>
       <c r="G141" s="28"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="42"/>
       <c r="B142" s="42"/>
       <c r="C142" s="44" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D142" s="31">
         <v>12</v>
@@ -9530,14 +9578,14 @@
         <f t="shared" si="2"/>
         <v>2528</v>
       </c>
-      <c r="F142" s="183"/>
+      <c r="F142" s="180"/>
       <c r="G142" s="28"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="42"/>
       <c r="B143" s="42"/>
       <c r="C143" s="44" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D143" s="31">
         <v>4</v>
@@ -9546,14 +9594,14 @@
         <f t="shared" si="2"/>
         <v>2532</v>
       </c>
-      <c r="F143" s="183"/>
+      <c r="F143" s="180"/>
       <c r="G143" s="28"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="42"/>
       <c r="B144" s="42"/>
       <c r="C144" s="44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D144" s="31">
         <v>28</v>
@@ -9562,14 +9610,14 @@
         <f t="shared" si="2"/>
         <v>2560</v>
       </c>
-      <c r="F144" s="183"/>
+      <c r="F144" s="180"/>
       <c r="G144" s="28"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="42"/>
       <c r="B145" s="42"/>
       <c r="C145" s="44" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D145" s="31">
         <v>3</v>
@@ -9578,12 +9626,12 @@
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
-      <c r="F145" s="184"/>
+      <c r="F145" s="181"/>
       <c r="G145" s="28"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B146" s="39">
         <v>41450</v>
@@ -9607,7 +9655,7 @@
       <c r="A147" s="42"/>
       <c r="B147" s="42"/>
       <c r="C147" s="44" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D147" s="31">
         <v>7</v>
@@ -9616,8 +9664,8 @@
         <f t="shared" si="2"/>
         <v>2581</v>
       </c>
-      <c r="F147" s="182" t="s">
-        <v>658</v>
+      <c r="F147" s="179" t="s">
+        <v>653</v>
       </c>
       <c r="G147" s="28"/>
     </row>
@@ -9625,7 +9673,7 @@
       <c r="A148" s="42"/>
       <c r="B148" s="42"/>
       <c r="C148" s="44" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D148" s="31">
         <v>6</v>
@@ -9634,14 +9682,14 @@
         <f t="shared" si="2"/>
         <v>2587</v>
       </c>
-      <c r="F148" s="183"/>
+      <c r="F148" s="180"/>
       <c r="G148" s="28"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="42"/>
       <c r="B149" s="42"/>
       <c r="C149" s="44" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D149" s="31">
         <v>5</v>
@@ -9650,14 +9698,14 @@
         <f t="shared" si="2"/>
         <v>2592</v>
       </c>
-      <c r="F149" s="183"/>
+      <c r="F149" s="180"/>
       <c r="G149" s="28"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="42"/>
       <c r="B150" s="42"/>
       <c r="C150" s="44" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D150" s="31">
         <v>25</v>
@@ -9666,14 +9714,14 @@
         <f t="shared" si="2"/>
         <v>2617</v>
       </c>
-      <c r="F150" s="183"/>
+      <c r="F150" s="180"/>
       <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="42"/>
       <c r="B151" s="42"/>
       <c r="C151" s="44" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D151" s="31">
         <v>4</v>
@@ -9682,16 +9730,16 @@
         <f t="shared" si="2"/>
         <v>2621</v>
       </c>
-      <c r="F151" s="183"/>
+      <c r="F151" s="180"/>
       <c r="G151" s="28" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="42"/>
       <c r="B152" s="42"/>
       <c r="C152" s="44" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D152" s="31">
         <v>5</v>
@@ -9700,14 +9748,14 @@
         <f t="shared" si="2"/>
         <v>2626</v>
       </c>
-      <c r="F152" s="183"/>
+      <c r="F152" s="180"/>
       <c r="G152" s="28"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="42"/>
       <c r="B153" s="42"/>
       <c r="C153" s="44" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D153" s="31">
         <v>14</v>
@@ -9716,14 +9764,14 @@
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="F153" s="183"/>
+      <c r="F153" s="180"/>
       <c r="G153" s="28"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="42"/>
       <c r="B154" s="42"/>
       <c r="C154" s="44" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D154" s="31">
         <v>9</v>
@@ -9732,16 +9780,16 @@
         <f t="shared" si="2"/>
         <v>2649</v>
       </c>
-      <c r="F154" s="183"/>
+      <c r="F154" s="180"/>
       <c r="G154" s="28" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="42"/>
       <c r="B155" s="42"/>
       <c r="C155" s="44" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D155" s="31">
         <v>8</v>
@@ -9750,14 +9798,14 @@
         <f t="shared" si="2"/>
         <v>2657</v>
       </c>
-      <c r="F155" s="183"/>
+      <c r="F155" s="180"/>
       <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="42"/>
       <c r="B156" s="42"/>
       <c r="C156" s="44" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D156" s="31">
         <v>27</v>
@@ -9766,16 +9814,16 @@
         <f t="shared" si="2"/>
         <v>2684</v>
       </c>
-      <c r="F156" s="183"/>
+      <c r="F156" s="180"/>
       <c r="G156" s="28" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="42"/>
       <c r="B157" s="42"/>
       <c r="C157" s="44" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D157" s="31">
         <v>39</v>
@@ -9784,14 +9832,14 @@
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="F157" s="183"/>
+      <c r="F157" s="180"/>
       <c r="G157" s="28"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="42"/>
       <c r="B158" s="42"/>
       <c r="C158" s="44" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D158" s="31">
         <v>39</v>
@@ -9800,14 +9848,14 @@
         <f t="shared" si="2"/>
         <v>2762</v>
       </c>
-      <c r="F158" s="183"/>
+      <c r="F158" s="180"/>
       <c r="G158" s="28"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="42"/>
       <c r="B159" s="42"/>
       <c r="C159" s="44" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D159" s="31">
         <v>1</v>
@@ -9816,14 +9864,14 @@
         <f t="shared" si="2"/>
         <v>2763</v>
       </c>
-      <c r="F159" s="183"/>
+      <c r="F159" s="180"/>
       <c r="G159" s="28"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="42"/>
       <c r="B160" s="42"/>
       <c r="C160" s="44" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D160" s="31">
         <v>18</v>
@@ -9832,14 +9880,14 @@
         <f t="shared" si="2"/>
         <v>2781</v>
       </c>
-      <c r="F160" s="183"/>
+      <c r="F160" s="180"/>
       <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="42"/>
       <c r="B161" s="42"/>
       <c r="C161" s="44" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D161" s="31">
         <v>3</v>
@@ -9848,14 +9896,14 @@
         <f t="shared" si="2"/>
         <v>2784</v>
       </c>
-      <c r="F161" s="183"/>
+      <c r="F161" s="180"/>
       <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="42"/>
       <c r="B162" s="42"/>
       <c r="C162" s="91" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D162" s="31">
         <v>21</v>
@@ -9864,20 +9912,20 @@
         <f t="shared" si="2"/>
         <v>2805</v>
       </c>
-      <c r="F162" s="184"/>
+      <c r="F162" s="181"/>
       <c r="G162" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="102" x14ac:dyDescent="0.25">
       <c r="A163" s="38" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B163" s="39">
         <v>41451</v>
       </c>
       <c r="C163" s="52" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D163" s="47">
         <v>4</v>
@@ -9890,14 +9938,14 @@
         <v>235</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="42"/>
       <c r="B164" s="42"/>
       <c r="C164" s="85" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D164" s="45">
         <v>14</v>
@@ -9906,18 +9954,18 @@
         <f t="shared" si="2"/>
         <v>2823</v>
       </c>
-      <c r="F164" s="182" t="s">
-        <v>659</v>
+      <c r="F164" s="179" t="s">
+        <v>654</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="42"/>
       <c r="B165" s="42"/>
       <c r="C165" s="56" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D165" s="45">
         <v>1</v>
@@ -9926,14 +9974,14 @@
         <f t="shared" si="2"/>
         <v>2824</v>
       </c>
-      <c r="F165" s="183"/>
+      <c r="F165" s="180"/>
       <c r="G165" s="28"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="42"/>
       <c r="B166" s="42"/>
       <c r="C166" s="56" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D166" s="45">
         <v>10</v>
@@ -9942,14 +9990,14 @@
         <f t="shared" si="2"/>
         <v>2834</v>
       </c>
-      <c r="F166" s="183"/>
+      <c r="F166" s="180"/>
       <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="42"/>
       <c r="B167" s="42"/>
       <c r="C167" s="56" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D167" s="45">
         <v>5</v>
@@ -9958,14 +10006,14 @@
         <f t="shared" si="2"/>
         <v>2839</v>
       </c>
-      <c r="F167" s="183"/>
+      <c r="F167" s="180"/>
       <c r="G167" s="28"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="42"/>
       <c r="B168" s="42"/>
       <c r="C168" s="85" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D168" s="45">
         <v>5</v>
@@ -9974,16 +10022,16 @@
         <f t="shared" si="2"/>
         <v>2844</v>
       </c>
-      <c r="F168" s="183"/>
+      <c r="F168" s="180"/>
       <c r="G168" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="42"/>
       <c r="B169" s="42"/>
       <c r="C169" s="56" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D169" s="45">
         <v>10</v>
@@ -9992,14 +10040,14 @@
         <f t="shared" si="2"/>
         <v>2854</v>
       </c>
-      <c r="F169" s="183"/>
+      <c r="F169" s="180"/>
       <c r="G169" s="28"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="42"/>
       <c r="B170" s="42"/>
       <c r="C170" s="56" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D170" s="45">
         <v>37</v>
@@ -10008,14 +10056,14 @@
         <f t="shared" si="2"/>
         <v>2891</v>
       </c>
-      <c r="F170" s="183"/>
+      <c r="F170" s="180"/>
       <c r="G170" s="28"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="42"/>
       <c r="B171" s="42"/>
       <c r="C171" s="56" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D171" s="45">
         <v>11</v>
@@ -10024,14 +10072,14 @@
         <f t="shared" si="2"/>
         <v>2902</v>
       </c>
-      <c r="F171" s="183"/>
+      <c r="F171" s="180"/>
       <c r="G171" s="28"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="99"/>
       <c r="B172" s="100"/>
       <c r="C172" s="56" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D172" s="45">
         <v>21</v>
@@ -10040,14 +10088,14 @@
         <f t="shared" si="2"/>
         <v>2923</v>
       </c>
-      <c r="F172" s="183"/>
+      <c r="F172" s="180"/>
       <c r="G172" s="103"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="42"/>
       <c r="B173" s="42"/>
       <c r="C173" s="85" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D173" s="45">
         <v>18</v>
@@ -10056,16 +10104,16 @@
         <f t="shared" si="2"/>
         <v>2941</v>
       </c>
-      <c r="F173" s="183"/>
+      <c r="F173" s="180"/>
       <c r="G173" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="42"/>
       <c r="B174" s="42"/>
       <c r="C174" s="56" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D174" s="45">
         <v>12</v>
@@ -10074,14 +10122,14 @@
         <f t="shared" si="2"/>
         <v>2953</v>
       </c>
-      <c r="F174" s="183"/>
+      <c r="F174" s="180"/>
       <c r="G174" s="28"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="42"/>
       <c r="B175" s="42"/>
       <c r="C175" s="56" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D175" s="45">
         <v>14</v>
@@ -10090,14 +10138,14 @@
         <f t="shared" si="2"/>
         <v>2967</v>
       </c>
-      <c r="F175" s="183"/>
+      <c r="F175" s="180"/>
       <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="42"/>
       <c r="B176" s="42"/>
       <c r="C176" s="56" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D176" s="45">
         <v>3</v>
@@ -10106,14 +10154,14 @@
         <f t="shared" si="2"/>
         <v>2970</v>
       </c>
-      <c r="F176" s="183"/>
+      <c r="F176" s="180"/>
       <c r="G176" s="28"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="42"/>
       <c r="B177" s="42"/>
       <c r="C177" s="56" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D177" s="45">
         <v>6</v>
@@ -10122,12 +10170,12 @@
         <f t="shared" si="2"/>
         <v>2976</v>
       </c>
-      <c r="F177" s="184"/>
+      <c r="F177" s="181"/>
       <c r="G177" s="28"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B178" s="39">
         <v>41452</v>
@@ -10151,7 +10199,7 @@
       <c r="A179" s="42"/>
       <c r="B179" s="42"/>
       <c r="C179" s="56" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D179" s="45">
         <v>13</v>
@@ -10160,8 +10208,8 @@
         <f t="shared" si="2"/>
         <v>2994</v>
       </c>
-      <c r="F179" s="182" t="s">
-        <v>660</v>
+      <c r="F179" s="179" t="s">
+        <v>655</v>
       </c>
       <c r="G179" s="28"/>
     </row>
@@ -10169,7 +10217,7 @@
       <c r="A180" s="42"/>
       <c r="B180" s="42"/>
       <c r="C180" s="56" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D180" s="45">
         <v>4</v>
@@ -10178,14 +10226,14 @@
         <f t="shared" si="2"/>
         <v>2998</v>
       </c>
-      <c r="F180" s="183"/>
+      <c r="F180" s="180"/>
       <c r="G180" s="28"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="42"/>
       <c r="B181" s="42"/>
       <c r="C181" s="56" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D181" s="45">
         <v>3</v>
@@ -10194,14 +10242,14 @@
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
-      <c r="F181" s="183"/>
+      <c r="F181" s="180"/>
       <c r="G181" s="28"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="42"/>
       <c r="B182" s="42"/>
       <c r="C182" s="56" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D182" s="45">
         <v>7</v>
@@ -10210,14 +10258,14 @@
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
-      <c r="F182" s="183"/>
+      <c r="F182" s="180"/>
       <c r="G182" s="28"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="42"/>
       <c r="B183" s="42"/>
       <c r="C183" s="56" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D183" s="45">
         <v>7</v>
@@ -10226,14 +10274,14 @@
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
-      <c r="F183" s="183"/>
+      <c r="F183" s="180"/>
       <c r="G183" s="28"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="42"/>
       <c r="B184" s="42"/>
       <c r="C184" s="56" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D184" s="45">
         <v>10</v>
@@ -10242,14 +10290,14 @@
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
-      <c r="F184" s="183"/>
+      <c r="F184" s="180"/>
       <c r="G184" s="28"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="42"/>
       <c r="B185" s="42"/>
       <c r="C185" s="56" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D185" s="45">
         <v>2</v>
@@ -10258,14 +10306,14 @@
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
-      <c r="F185" s="183"/>
+      <c r="F185" s="180"/>
       <c r="G185" s="28"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="42"/>
       <c r="B186" s="42"/>
       <c r="C186" s="85" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D186" s="45">
         <v>2</v>
@@ -10274,16 +10322,16 @@
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
-      <c r="F186" s="183"/>
+      <c r="F186" s="180"/>
       <c r="G186" s="28" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="99"/>
       <c r="B187" s="100"/>
       <c r="C187" s="56" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D187" s="45">
         <v>6</v>
@@ -10292,14 +10340,14 @@
         <f t="shared" si="2"/>
         <v>3035</v>
       </c>
-      <c r="F187" s="183"/>
+      <c r="F187" s="180"/>
       <c r="G187" s="103"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="42"/>
       <c r="B188" s="42"/>
       <c r="C188" s="56" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D188" s="45">
         <v>3</v>
@@ -10308,14 +10356,14 @@
         <f t="shared" si="2"/>
         <v>3038</v>
       </c>
-      <c r="F188" s="183"/>
+      <c r="F188" s="180"/>
       <c r="G188" s="28"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="42"/>
       <c r="B189" s="42"/>
       <c r="C189" s="56" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D189" s="45">
         <v>4</v>
@@ -10324,14 +10372,14 @@
         <f t="shared" si="2"/>
         <v>3042</v>
       </c>
-      <c r="F189" s="183"/>
+      <c r="F189" s="180"/>
       <c r="G189" s="28"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="42"/>
       <c r="B190" s="42"/>
       <c r="C190" s="56" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D190" s="45">
         <v>4</v>
@@ -10340,14 +10388,14 @@
         <f t="shared" si="2"/>
         <v>3046</v>
       </c>
-      <c r="F190" s="183"/>
+      <c r="F190" s="180"/>
       <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="42"/>
       <c r="B191" s="42"/>
       <c r="C191" s="56" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D191" s="45">
         <v>8</v>
@@ -10356,14 +10404,14 @@
         <f t="shared" si="2"/>
         <v>3054</v>
       </c>
-      <c r="F191" s="183"/>
+      <c r="F191" s="180"/>
       <c r="G191" s="28"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="42"/>
       <c r="B192" s="42"/>
       <c r="C192" s="56" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D192" s="45">
         <v>9</v>
@@ -10372,14 +10420,14 @@
         <f t="shared" si="2"/>
         <v>3063</v>
       </c>
-      <c r="F192" s="183"/>
+      <c r="F192" s="180"/>
       <c r="G192" s="28"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="42"/>
       <c r="B193" s="42"/>
       <c r="C193" s="56" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D193" s="45">
         <v>5</v>
@@ -10388,14 +10436,14 @@
         <f t="shared" si="2"/>
         <v>3068</v>
       </c>
-      <c r="F193" s="183"/>
+      <c r="F193" s="180"/>
       <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="42"/>
       <c r="B194" s="42"/>
       <c r="C194" s="56" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D194" s="45">
         <v>3</v>
@@ -10404,14 +10452,14 @@
         <f t="shared" si="2"/>
         <v>3071</v>
       </c>
-      <c r="F194" s="183"/>
+      <c r="F194" s="180"/>
       <c r="G194" s="28"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="42"/>
       <c r="B195" s="42"/>
       <c r="C195" s="56" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D195" s="45">
         <v>5</v>
@@ -10420,14 +10468,14 @@
         <f t="shared" si="2"/>
         <v>3076</v>
       </c>
-      <c r="F195" s="183"/>
+      <c r="F195" s="180"/>
       <c r="G195" s="28"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="42"/>
       <c r="B196" s="42"/>
       <c r="C196" s="56" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D196" s="45">
         <v>9</v>
@@ -10436,14 +10484,14 @@
         <f t="shared" si="2"/>
         <v>3085</v>
       </c>
-      <c r="F196" s="183"/>
+      <c r="F196" s="180"/>
       <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="42"/>
       <c r="B197" s="42"/>
       <c r="C197" s="56" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D197" s="45">
         <v>4</v>
@@ -10452,14 +10500,14 @@
         <f t="shared" si="2"/>
         <v>3089</v>
       </c>
-      <c r="F197" s="183"/>
+      <c r="F197" s="180"/>
       <c r="G197" s="28"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="42"/>
       <c r="B198" s="42"/>
       <c r="C198" s="56" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D198" s="45">
         <v>15</v>
@@ -10468,14 +10516,14 @@
         <f t="shared" si="2"/>
         <v>3104</v>
       </c>
-      <c r="F198" s="183"/>
+      <c r="F198" s="180"/>
       <c r="G198" s="28"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="42"/>
       <c r="B199" s="42"/>
       <c r="C199" s="56" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D199" s="45">
         <v>20</v>
@@ -10484,14 +10532,14 @@
         <f t="shared" ref="E199" si="3">SUM(D199,E198)</f>
         <v>3124</v>
       </c>
-      <c r="F199" s="183"/>
+      <c r="F199" s="180"/>
       <c r="G199" s="28"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="42"/>
       <c r="B200" s="42"/>
       <c r="C200" s="56" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D200" s="45">
         <v>22</v>
@@ -10500,14 +10548,14 @@
         <f>SUM(D200,E199)</f>
         <v>3146</v>
       </c>
-      <c r="F200" s="183"/>
+      <c r="F200" s="180"/>
       <c r="G200" s="28"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="42"/>
       <c r="B201" s="42"/>
       <c r="C201" s="56" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D201" s="45">
         <v>10</v>
@@ -10516,14 +10564,14 @@
         <f t="shared" ref="E201:E207" si="4">SUM(D201,E200)</f>
         <v>3156</v>
       </c>
-      <c r="F201" s="183"/>
+      <c r="F201" s="180"/>
       <c r="G201" s="28"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="42"/>
       <c r="B202" s="42"/>
       <c r="C202" s="56" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D202" s="45">
         <v>14</v>
@@ -10532,14 +10580,14 @@
         <f t="shared" si="4"/>
         <v>3170</v>
       </c>
-      <c r="F202" s="183"/>
+      <c r="F202" s="180"/>
       <c r="G202" s="28"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="42"/>
       <c r="B203" s="42"/>
       <c r="C203" s="56" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D203" s="45">
         <v>42</v>
@@ -10548,14 +10596,14 @@
         <f t="shared" si="4"/>
         <v>3212</v>
       </c>
-      <c r="F203" s="183"/>
+      <c r="F203" s="180"/>
       <c r="G203" s="28"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="42"/>
       <c r="B204" s="42"/>
       <c r="C204" s="56" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D204" s="45">
         <v>50</v>
@@ -10564,14 +10612,14 @@
         <f t="shared" si="4"/>
         <v>3262</v>
       </c>
-      <c r="F204" s="183"/>
+      <c r="F204" s="180"/>
       <c r="G204" s="28"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="42"/>
       <c r="B205" s="42"/>
       <c r="C205" s="56" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D205" s="45">
         <v>35</v>
@@ -10580,14 +10628,14 @@
         <f t="shared" si="4"/>
         <v>3297</v>
       </c>
-      <c r="F205" s="183"/>
+      <c r="F205" s="180"/>
       <c r="G205" s="28"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="42"/>
       <c r="B206" s="42"/>
       <c r="C206" s="56" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D206" s="45">
         <v>36</v>
@@ -10596,12 +10644,12 @@
         <f t="shared" si="4"/>
         <v>3333</v>
       </c>
-      <c r="F206" s="184"/>
+      <c r="F206" s="181"/>
       <c r="G206" s="28"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B207" s="39">
         <v>41452</v>
@@ -10620,16 +10668,11 @@
         <v>464</v>
       </c>
       <c r="G207" s="24" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="F20:F30"/>
-    <mergeCell ref="F32:F48"/>
-    <mergeCell ref="F50:F66"/>
     <mergeCell ref="F147:F162"/>
     <mergeCell ref="F164:F177"/>
     <mergeCell ref="F179:F206"/>
@@ -10639,6 +10682,11 @@
     <mergeCell ref="F102:F115"/>
     <mergeCell ref="F117:F126"/>
     <mergeCell ref="F128:F145"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="F20:F30"/>
+    <mergeCell ref="F32:F48"/>
+    <mergeCell ref="F50:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10662,8 +10710,8 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10682,1094 +10730,1094 @@
         <v>30</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>162</v>
-      </c>
       <c r="G1" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="191">
+      <c r="A2" s="190">
         <v>1</v>
       </c>
-      <c r="B2" s="193">
+      <c r="B2" s="191">
         <v>41438</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="186" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G2" s="27">
         <v>1688</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="191"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>177</v>
-      </c>
       <c r="G3" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="186"/>
       <c r="D4" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G4" s="27">
         <v>1360</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G5" s="27">
         <v>1323</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196">
+      <c r="A6" s="189">
         <v>2</v>
       </c>
-      <c r="B6" s="197">
+      <c r="B6" s="187">
         <v>41439</v>
       </c>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="188" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G6" s="30">
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="195"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="132" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G7" s="30">
         <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="195"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
       <c r="D8" s="28" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G8" s="30">
         <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="195" t="s">
-        <v>407</v>
+      <c r="A9" s="189"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188" t="s">
+        <v>404</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G9" s="30">
         <v>2900</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
-      <c r="B10" s="197"/>
-      <c r="C10" s="195"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
       <c r="D10" s="28" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G10" s="30">
         <v>2650</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
-      <c r="B11" s="197"/>
-      <c r="C11" s="195"/>
+      <c r="A11" s="189"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G11" s="30">
         <v>3120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="191">
+      <c r="A12" s="190">
         <v>3</v>
       </c>
-      <c r="B12" s="193">
+      <c r="B12" s="191">
         <v>41440</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="186" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G12" s="27">
         <v>2450</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="194"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="186"/>
       <c r="D13" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G13" s="27">
         <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G14" s="27">
         <v>1439</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="194"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G15" s="27">
         <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="196">
+      <c r="A16" s="189">
         <v>4</v>
       </c>
-      <c r="B16" s="197">
+      <c r="B16" s="187">
         <v>41441</v>
       </c>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="188" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G16" s="30">
         <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="196"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="195"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="188"/>
       <c r="D17" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G17" s="30">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="193" t="s">
-        <v>218</v>
+      <c r="A18" s="190" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="191" t="s">
+        <v>215</v>
       </c>
       <c r="C18" s="192" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="191"/>
-      <c r="B19" s="193"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="192"/>
       <c r="D19" s="24" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
-      <c r="B20" s="193"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="192"/>
       <c r="D20" s="24" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G20" s="27">
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
-      <c r="B21" s="193"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="191"/>
       <c r="C21" s="192"/>
       <c r="D21" s="24" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G21" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="193"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="191"/>
       <c r="C22" s="192"/>
       <c r="D22" s="24" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G22" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="191"/>
-      <c r="B23" s="193"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="191"/>
       <c r="C23" s="192"/>
       <c r="D23" s="24" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G23" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="191"/>
-      <c r="B24" s="193"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="191"/>
       <c r="C24" s="192"/>
       <c r="D24" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G24" s="27">
         <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
-      <c r="B25" s="193"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="192"/>
       <c r="D25" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G25" s="27">
         <v>3360</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="193"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="192"/>
       <c r="D26" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G26" s="27">
         <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
-      <c r="B27" s="193"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="192"/>
       <c r="D27" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="58" t="s">
         <v>202</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>205</v>
       </c>
       <c r="G27" s="27">
         <v>3500</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="196">
+      <c r="A28" s="189">
         <v>7</v>
       </c>
-      <c r="B28" s="197">
+      <c r="B28" s="187">
         <v>41444</v>
       </c>
-      <c r="C28" s="195" t="s">
-        <v>247</v>
+      <c r="C28" s="188" t="s">
+        <v>244</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G28" s="30">
         <v>1700</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="195"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="187"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G29" s="30">
         <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="196"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="195"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="188"/>
       <c r="D30" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="61" t="s">
         <v>217</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>220</v>
       </c>
       <c r="G30" s="30">
         <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="196"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="195"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="188"/>
       <c r="D31" s="28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" s="125" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G31" s="30">
         <v>3300</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="196"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="195"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="188"/>
       <c r="D32" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F32" s="125" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G32" s="30">
         <v>3300</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="196"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="195"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="188"/>
       <c r="D33" s="143" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E33" s="143" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F33" s="125" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G33" s="30">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="196"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="195"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F34" s="125" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G34" s="30">
         <v>3800</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="191">
+      <c r="A35" s="190">
         <v>9</v>
       </c>
-      <c r="B35" s="193">
+      <c r="B35" s="191">
         <v>41446</v>
       </c>
-      <c r="C35" s="194" t="s">
-        <v>285</v>
+      <c r="C35" s="186" t="s">
+        <v>282</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G35" s="27">
         <v>3800</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="191"/>
-      <c r="B36" s="193"/>
-      <c r="C36" s="194"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="186"/>
       <c r="D36" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F36" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G36" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="191"/>
-      <c r="B37" s="193"/>
-      <c r="C37" s="194"/>
+      <c r="A37" s="190"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="186"/>
       <c r="D37" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G37" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="191"/>
-      <c r="B38" s="193"/>
-      <c r="C38" s="194"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="186"/>
       <c r="D38" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G38" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="191"/>
-      <c r="B39" s="193"/>
-      <c r="C39" s="194"/>
+      <c r="A39" s="190"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="186"/>
       <c r="D39" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G39" s="27">
         <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="191"/>
-      <c r="B40" s="193"/>
-      <c r="C40" s="194"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="186"/>
       <c r="D40" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G40" s="27">
         <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="196">
+      <c r="A41" s="189">
         <v>10</v>
       </c>
-      <c r="B41" s="197">
+      <c r="B41" s="187">
         <v>41447</v>
       </c>
-      <c r="C41" s="195" t="s">
-        <v>448</v>
+      <c r="C41" s="188" t="s">
+        <v>445</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G41" s="30">
         <v>3000</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="196"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="195"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G42" s="30">
         <v>1600</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="196"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="195"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="188"/>
       <c r="D43" s="28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="196"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="195"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="188"/>
       <c r="D44" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="196"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="195"/>
+      <c r="A45" s="189"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="188"/>
       <c r="D45" s="28" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F45" s="59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="199">
+      <c r="A46" s="193">
         <v>11</v>
       </c>
-      <c r="B46" s="193">
+      <c r="B46" s="191">
         <v>41448</v>
       </c>
       <c r="C46" s="192" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="200"/>
-      <c r="B47" s="193"/>
+      <c r="A47" s="194"/>
+      <c r="B47" s="191"/>
       <c r="C47" s="192"/>
       <c r="D47" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G47" s="27">
         <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="200"/>
-      <c r="B48" s="193"/>
+      <c r="A48" s="194"/>
+      <c r="B48" s="191"/>
       <c r="C48" s="192"/>
       <c r="D48" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>147</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G48" s="27">
         <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="201"/>
-      <c r="B49" s="193"/>
+      <c r="A49" s="195"/>
+      <c r="B49" s="191"/>
       <c r="C49" s="192"/>
       <c r="D49" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F49" s="60" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="196">
+      <c r="A50" s="189">
         <v>12</v>
       </c>
-      <c r="B50" s="197">
+      <c r="B50" s="187">
         <v>41449</v>
       </c>
-      <c r="C50" s="195" t="s">
+      <c r="C50" s="188" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="189"/>
+      <c r="B51" s="187"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E51" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="F50" s="59" t="s">
+      <c r="F51" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="G50" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="28" t="s">
+      <c r="G51" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="189"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="F51" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="28" t="s">
-        <v>269</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>148</v>
       </c>
       <c r="F52" s="59" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="196"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="195"/>
+      <c r="A53" s="189"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="188"/>
       <c r="D53" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>148</v>
       </c>
       <c r="F53" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="190">
+        <v>13</v>
+      </c>
+      <c r="B54" s="191">
+        <v>41450</v>
+      </c>
+      <c r="C54" s="186" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" s="58" t="s">
         <v>272</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="191">
-        <v>13</v>
-      </c>
-      <c r="B54" s="193">
-        <v>41450</v>
-      </c>
-      <c r="C54" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>275</v>
       </c>
       <c r="G54" s="27">
         <v>1800</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="191"/>
-      <c r="B55" s="193"/>
-      <c r="C55" s="194"/>
+      <c r="A55" s="190"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="186"/>
       <c r="D55" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="190"/>
+      <c r="B56" s="191"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E56" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F56" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="G55" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="191"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="194"/>
-      <c r="D56" s="24" t="s">
+      <c r="G56" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="190"/>
+      <c r="B57" s="191"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E57" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F57" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="G56" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="191"/>
-      <c r="B57" s="193"/>
-      <c r="C57" s="194"/>
-      <c r="D57" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F57" s="58" t="s">
+      <c r="G57" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="189">
+        <v>14</v>
+      </c>
+      <c r="B58" s="187">
+        <v>41451</v>
+      </c>
+      <c r="C58" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="G57" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="196">
-        <v>14</v>
-      </c>
-      <c r="B58" s="197">
-        <v>41451</v>
-      </c>
-      <c r="C58" s="195" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>287</v>
-      </c>
       <c r="E58" s="28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G58" s="30">
         <v>3000</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="196"/>
-      <c r="B59" s="197"/>
-      <c r="C59" s="195"/>
+      <c r="A59" s="189"/>
+      <c r="B59" s="187"/>
+      <c r="C59" s="188"/>
       <c r="D59" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G59" s="30">
         <v>2000</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="196"/>
-      <c r="B60" s="197"/>
-      <c r="C60" s="195"/>
+      <c r="A60" s="189"/>
+      <c r="B60" s="187"/>
+      <c r="C60" s="188"/>
       <c r="D60" s="28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F60" s="59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G60" s="30">
         <v>3000</v>
@@ -11786,25 +11834,47 @@
         <v>151</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F61" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="198" t="s">
-        <v>524</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="185" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="185" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="A63:XFD63"/>
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="B41:B45"/>
@@ -11821,28 +11891,6 @@
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="B18:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -11888,7 +11936,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>131</v>
@@ -11902,7 +11950,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>53</v>
@@ -11916,10 +11964,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -11927,10 +11975,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>133</v>
@@ -11947,7 +11995,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11955,13 +12003,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11986,7 +12034,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D9" s="147" t="s">
         <v>132</v>
@@ -12003,7 +12051,7 @@
         <v>127</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12014,10 +12062,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12028,10 +12076,10 @@
         <v>128</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12042,10 +12090,10 @@
         <v>155</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12053,7 +12101,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C14" s="70" t="s">
         <v>136</v>
@@ -12070,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D15" s="69"/>
     </row>
@@ -12082,7 +12130,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D16" s="69"/>
     </row>
@@ -12094,7 +12142,7 @@
         <v>134</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D17" s="69"/>
     </row>
@@ -12106,7 +12154,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D18" s="69"/>
     </row>
@@ -12118,7 +12166,7 @@
         <v>137</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D19" s="69"/>
     </row>
@@ -12127,7 +12175,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>3</v>
@@ -12139,10 +12187,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D21" s="126"/>
     </row>
@@ -12151,10 +12199,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D22" s="126"/>
     </row>
@@ -12163,10 +12211,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D23" s="126"/>
     </row>
@@ -12175,7 +12223,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="134" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C24" s="67" t="s">
         <v>17</v>
@@ -12187,10 +12235,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D25" s="126"/>
     </row>
@@ -12202,7 +12250,7 @@
         <v>138</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D26" s="126"/>
     </row>
@@ -12230,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
@@ -12238,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12246,7 +12294,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12254,47 +12302,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="196">
+      <c r="A5" s="189">
         <v>4</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196"/>
+      <c r="A6" s="189"/>
       <c r="B6" s="81" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
+      <c r="A7" s="189"/>
       <c r="B7" s="81" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196">
+      <c r="A8" s="189">
         <v>5</v>
       </c>
       <c r="B8" s="97" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="189"/>
+      <c r="B9" s="81" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="81" t="s">
-        <v>603</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
+      <c r="A10" s="189"/>
       <c r="B10" s="81" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="128.25" x14ac:dyDescent="0.25">
@@ -12302,21 +12350,21 @@
         <v>6</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="196">
+      <c r="A12" s="189">
         <v>7</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="189"/>
       <c r="B13" s="81" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12324,7 +12372,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="77.25" x14ac:dyDescent="0.25">
@@ -12332,7 +12380,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12340,7 +12388,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12348,7 +12396,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="141" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12356,7 +12404,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="141" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12364,7 +12412,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12372,7 +12420,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="123" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="77.25" x14ac:dyDescent="0.25">
@@ -12380,7 +12428,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12388,7 +12436,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12396,7 +12444,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="123" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -12404,7 +12452,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -12412,7 +12460,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12420,7 +12468,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12428,7 +12476,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -12476,7 +12524,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12492,7 +12540,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -12516,7 +12564,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -12524,7 +12572,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -12568,7 +12616,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="78" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -12576,7 +12624,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -12588,69 +12636,69 @@
         <v>6</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="197" t="s">
+        <v>569</v>
+      </c>
+      <c r="B50" s="116" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="198"/>
+      <c r="B51" s="116" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="198"/>
+      <c r="B52" s="116" t="s">
         <v>574</v>
       </c>
-      <c r="B50" s="116" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="204"/>
-      <c r="B51" s="116" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="204"/>
-      <c r="B52" s="116" t="s">
-        <v>579</v>
-      </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="205"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="116" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="133" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="118" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B55" s="116" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="196" t="s">
+        <v>579</v>
+      </c>
+      <c r="B56" s="116" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="196"/>
+      <c r="B57" s="116" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="196"/>
+      <c r="B58" s="117" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="202" t="s">
-        <v>584</v>
-      </c>
-      <c r="B56" s="116" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="202"/>
-      <c r="B57" s="116" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="202"/>
-      <c r="B58" s="117" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -12752,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12760,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12768,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12776,7 +12824,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12784,7 +12832,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="77.25" x14ac:dyDescent="0.25">
@@ -12792,7 +12840,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12800,7 +12848,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12808,7 +12856,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12816,7 +12864,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12824,7 +12872,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12832,7 +12880,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12840,7 +12888,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12848,7 +12896,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12856,7 +12904,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12864,7 +12912,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12872,7 +12920,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12955,10 +13003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="200"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -13147,10 +13195,10 @@
       <c r="D15" s="77"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="206" t="s">
+      <c r="A16" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="206"/>
+      <c r="B16" s="200"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
@@ -13391,10 +13439,10 @@
       <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="206" t="s">
+      <c r="A34" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="206"/>
+      <c r="B34" s="200"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
@@ -13617,10 +13665,10 @@
       <c r="D50" s="77"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="206" t="s">
+      <c r="A52" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="206"/>
+      <c r="B52" s="200"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
@@ -13839,10 +13887,10 @@
       <c r="D68" s="77"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="206" t="s">
+      <c r="A69" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="206"/>
+      <c r="B69" s="200"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">

--- a/june-2019/references/leh-itinerary-detailed.xlsx
+++ b/june-2019/references/leh-itinerary-detailed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\travel\june-2019\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B543A7-A578-466B-9A94-817EC42DD2BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97F0328-2E26-44B9-B435-5AB7B405B672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="740">
   <si>
     <t>Tasks</t>
   </si>
@@ -1916,10 +1916,6 @@
       </rPr>
       <t>etc. where you may find the black diesel/petrol sold by the villagers.</t>
     </r>
-  </si>
-  <si>
-    <t>Gund,
-Sonamarg</t>
   </si>
   <si>
     <t>Rekong Peo</t>
@@ -4350,12 +4346,6 @@
     <t>Ghaziabad - Panipat - Karnal - Pipli - Ambala - Khanna - Ludhiana - Jalandhar - Mukerian - Kathua - Samba - Jammu</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altitude </t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
@@ -4487,9 +4477,6 @@
     </r>
   </si>
   <si>
-    <t>Pang - Lachung La - Sarchu - Antrk Camps - KillingSarai - Jispa - Satingiri Halipad - Keylong</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Keylong - Biling- </t>
     </r>
@@ -4549,74 +4536,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Kargil – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mulbekh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Haniskot - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lamayuru</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Khalsi - Saspul - Basgo - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Magnetic Hill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Hall of fame- Leh </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -4746,6 +4665,140 @@
   </si>
   <si>
     <t>No fuel</t>
+  </si>
+  <si>
+    <t>Nagbal,
+Gund,
+Sonamarg</t>
+  </si>
+  <si>
+    <t>Mulbekh,
+Khalsi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kargil – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mulbekh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Haniskot - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lamayuru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Khalsi - Saspul - Basgo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Magnetic Hill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hall of fame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Leh </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pang - Lachung La - Sarchu - Antrk Camps - KillingSarai - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jispa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Satingiri Halipad - Keylong</t>
+    </r>
+  </si>
+  <si>
+    <t>Tandi,
+Manali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dist. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt. </t>
   </si>
 </sst>
 </file>
@@ -5615,6 +5668,18 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5701,18 +5766,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6074,7 +6127,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>5</v>
@@ -6086,10 +6139,10 @@
         <v>300</v>
       </c>
       <c r="E1" s="136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F1" s="130" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>7</v>
@@ -6100,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="87"/>
@@ -6143,25 +6196,25 @@
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B7" s="130" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="130" t="s">
+        <v>700</v>
+      </c>
+      <c r="D7" s="136" t="s">
         <v>701</v>
       </c>
-      <c r="D7" s="136" t="s">
-        <v>702</v>
-      </c>
       <c r="E7" s="130" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F7" s="130" t="s">
         <v>159</v>
       </c>
       <c r="G7" s="130" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6280,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>114</v>
@@ -6382,7 +6435,7 @@
         <v>444</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6390,10 +6443,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6401,10 +6454,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6445,10 +6498,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="111" t="s">
+        <v>541</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>542</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6456,10 +6509,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="111" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" s="79" t="s">
         <v>672</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6478,10 +6531,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="111" t="s">
+        <v>527</v>
+      </c>
+      <c r="C23" s="79" t="s">
         <v>528</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6489,10 +6542,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6500,10 +6553,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6511,10 +6564,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="111" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="79" t="s">
         <v>537</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6525,7 +6578,7 @@
         <v>110</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6536,7 +6589,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6580,20 +6633,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14:J14"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="4.28515625" style="201" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="203" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" style="204" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="172" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="174" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="39.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="34" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
@@ -6611,19 +6664,19 @@
         <v>140</v>
       </c>
       <c r="F1" s="171" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="G1" s="171" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="H1" s="156" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I1" s="171" t="s">
         <v>295</v>
       </c>
       <c r="J1" s="157" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6634,7 +6687,7 @@
         <v>43617</v>
       </c>
       <c r="D2" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E2" s="149" t="s">
         <v>141</v>
@@ -6646,13 +6699,13 @@
         <v>980</v>
       </c>
       <c r="H2" s="149" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="I2" s="149" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J2" s="151" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6678,10 +6731,10 @@
         <v>143</v>
       </c>
       <c r="I3" s="153" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6707,10 +6760,10 @@
         <v>144</v>
       </c>
       <c r="I4" s="155" t="s">
-        <v>524</v>
+        <v>733</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6735,11 +6788,11 @@
       <c r="H5" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="153" t="s">
-        <v>323</v>
+      <c r="I5" s="155" t="s">
+        <v>734</v>
       </c>
       <c r="J5" s="154" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -6753,7 +6806,7 @@
         <v>145</v>
       </c>
       <c r="E6" s="155" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F6" s="153">
         <v>20</v>
@@ -6765,10 +6818,10 @@
         <v>145</v>
       </c>
       <c r="I6" s="153" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J6" s="154" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6782,7 +6835,7 @@
         <v>145</v>
       </c>
       <c r="E7" s="155" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F7" s="153">
         <v>250</v>
@@ -6791,13 +6844,13 @@
         <v>14271</v>
       </c>
       <c r="H7" s="155" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="I7" s="155" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J7" s="154" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -6808,7 +6861,7 @@
         <v>43623</v>
       </c>
       <c r="D8" s="155" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E8" s="155" t="s">
         <v>342</v>
@@ -6820,13 +6873,13 @@
         <v>17582</v>
       </c>
       <c r="H8" s="155" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I8" s="155" t="s">
+        <v>712</v>
+      </c>
+      <c r="J8" s="154" t="s">
         <v>715</v>
-      </c>
-      <c r="J8" s="154" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -6840,7 +6893,7 @@
         <v>342</v>
       </c>
       <c r="E9" s="155" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F9" s="153">
         <v>202</v>
@@ -6849,13 +6902,13 @@
         <v>14836</v>
       </c>
       <c r="H9" s="155" t="s">
+        <v>727</v>
+      </c>
+      <c r="I9" s="153" t="s">
         <v>732</v>
       </c>
-      <c r="I9" s="153" t="s">
-        <v>737</v>
-      </c>
       <c r="J9" s="154" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M9" s="35"/>
     </row>
@@ -6867,7 +6920,7 @@
         <v>43625</v>
       </c>
       <c r="D10" s="155" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E10" s="155" t="s">
         <v>349</v>
@@ -6879,13 +6932,13 @@
         <v>15600</v>
       </c>
       <c r="H10" s="155" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I10" s="153" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="J10" s="154" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -6908,13 +6961,13 @@
         <v>10140</v>
       </c>
       <c r="H11" s="155" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I11" s="153" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="J11" s="154" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6928,7 +6981,7 @@
         <v>147</v>
       </c>
       <c r="E12" s="155" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F12" s="153">
         <v>225</v>
@@ -6937,16 +6990,16 @@
         <v>10100</v>
       </c>
       <c r="H12" s="155" t="s">
-        <v>731</v>
-      </c>
-      <c r="I12" s="153" t="s">
-        <v>356</v>
+        <v>726</v>
+      </c>
+      <c r="I12" s="155" t="s">
+        <v>737</v>
       </c>
       <c r="J12" s="154" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="158">
         <v>12</v>
       </c>
@@ -6954,10 +7007,10 @@
         <v>43628</v>
       </c>
       <c r="D13" s="160" t="s">
+        <v>705</v>
+      </c>
+      <c r="E13" s="160" t="s">
         <v>706</v>
-      </c>
-      <c r="E13" s="160" t="s">
-        <v>707</v>
       </c>
       <c r="F13" s="159">
         <v>460</v>
@@ -6969,33 +7022,33 @@
         <v>161</v>
       </c>
       <c r="I13" s="160" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J13" s="161" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="172" t="s">
-        <v>708</v>
-      </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
+      <c r="B14" s="176" t="s">
+        <v>707</v>
+      </c>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="162">
         <f>SUM(F2:F13)</f>
         <v>3045</v>
       </c>
-      <c r="G14" s="174" t="s">
-        <v>724</v>
-      </c>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
+      <c r="G14" s="178" t="s">
+        <v>720</v>
+      </c>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="179"/>
     </row>
     <row r="15" spans="2:13" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="169"/>
-      <c r="C15" s="202"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="169"/>
       <c r="E15" s="169"/>
       <c r="F15" s="169"/>
@@ -7003,7 +7056,7 @@
     </row>
     <row r="16" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="169"/>
-      <c r="C16" s="202"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="169"/>
       <c r="E16" s="169"/>
       <c r="F16" s="169"/>
@@ -7062,7 +7115,7 @@
         <v>372</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>27</v>
@@ -7104,8 +7157,8 @@
         <f>SUM(D3,E2)</f>
         <v>112</v>
       </c>
-      <c r="F3" s="176" t="s">
-        <v>639</v>
+      <c r="F3" s="180" t="s">
+        <v>638</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="7"/>
@@ -7123,7 +7176,7 @@
         <f>SUM(D4,E3)</f>
         <v>148</v>
       </c>
-      <c r="F4" s="177"/>
+      <c r="F4" s="181"/>
       <c r="G4" s="29"/>
       <c r="H4" s="7"/>
     </row>
@@ -7140,7 +7193,7 @@
         <f t="shared" ref="E5:E68" si="0">SUM(D5,E4)</f>
         <v>183</v>
       </c>
-      <c r="F5" s="177"/>
+      <c r="F5" s="181"/>
       <c r="G5" s="29"/>
       <c r="H5" s="7"/>
     </row>
@@ -7157,7 +7210,7 @@
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="181"/>
       <c r="G6" s="29"/>
       <c r="H6" s="7"/>
     </row>
@@ -7174,7 +7227,7 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F7" s="177"/>
+      <c r="F7" s="181"/>
       <c r="G7" s="29"/>
       <c r="H7" s="7"/>
     </row>
@@ -7191,7 +7244,7 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="F8" s="178"/>
+      <c r="F8" s="182"/>
       <c r="G8" s="29"/>
       <c r="H8" s="7"/>
     </row>
@@ -7231,8 +7284,8 @@
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="F10" s="176" t="s">
-        <v>641</v>
+      <c r="F10" s="180" t="s">
+        <v>640</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="7"/>
@@ -7250,7 +7303,7 @@
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="F11" s="177"/>
+      <c r="F11" s="181"/>
       <c r="G11" s="29"/>
       <c r="H11" s="7"/>
     </row>
@@ -7267,7 +7320,7 @@
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="181"/>
       <c r="G12" s="29"/>
       <c r="H12" s="7"/>
     </row>
@@ -7284,7 +7337,7 @@
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="F13" s="177"/>
+      <c r="F13" s="181"/>
       <c r="G13" s="29"/>
       <c r="H13" s="7"/>
     </row>
@@ -7301,9 +7354,9 @@
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -7320,7 +7373,7 @@
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="F15" s="177"/>
+      <c r="F15" s="181"/>
       <c r="G15" s="103"/>
       <c r="H15" s="9"/>
     </row>
@@ -7337,7 +7390,7 @@
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="F16" s="177"/>
+      <c r="F16" s="181"/>
       <c r="G16" s="29"/>
       <c r="H16" s="7"/>
     </row>
@@ -7354,7 +7407,7 @@
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-      <c r="F17" s="177"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="29"/>
       <c r="H17" s="7"/>
     </row>
@@ -7371,7 +7424,7 @@
         <f t="shared" si="0"/>
         <v>769</v>
       </c>
-      <c r="F18" s="178"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="29"/>
       <c r="H18" s="7"/>
     </row>
@@ -7396,7 +7449,7 @@
         <v>374</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -7413,8 +7466,8 @@
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
-      <c r="F20" s="176" t="s">
-        <v>645</v>
+      <c r="F20" s="180" t="s">
+        <v>644</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="7"/>
@@ -7432,7 +7485,7 @@
         <f t="shared" si="0"/>
         <v>803</v>
       </c>
-      <c r="F21" s="177"/>
+      <c r="F21" s="181"/>
       <c r="G21" s="29"/>
       <c r="H21" s="7"/>
     </row>
@@ -7449,7 +7502,7 @@
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="F22" s="177"/>
+      <c r="F22" s="181"/>
       <c r="G22" s="29"/>
       <c r="H22" s="7"/>
     </row>
@@ -7466,7 +7519,7 @@
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
-      <c r="F23" s="177"/>
+      <c r="F23" s="181"/>
       <c r="G23" s="29"/>
       <c r="H23" s="7"/>
     </row>
@@ -7483,7 +7536,7 @@
         <f t="shared" si="0"/>
         <v>854</v>
       </c>
-      <c r="F24" s="177"/>
+      <c r="F24" s="181"/>
       <c r="G24" s="29"/>
       <c r="H24" s="7"/>
     </row>
@@ -7500,7 +7553,7 @@
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
-      <c r="F25" s="177"/>
+      <c r="F25" s="181"/>
       <c r="G25" s="29"/>
       <c r="H25" s="7"/>
     </row>
@@ -7517,9 +7570,9 @@
         <f t="shared" si="0"/>
         <v>895</v>
       </c>
-      <c r="F26" s="177"/>
+      <c r="F26" s="181"/>
       <c r="G26" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -7536,7 +7589,7 @@
         <f t="shared" si="0"/>
         <v>912</v>
       </c>
-      <c r="F27" s="177"/>
+      <c r="F27" s="181"/>
       <c r="G27" s="29"/>
       <c r="H27" s="7"/>
     </row>
@@ -7553,7 +7606,7 @@
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="F28" s="177"/>
+      <c r="F28" s="181"/>
       <c r="G28" s="29"/>
       <c r="H28" s="7"/>
     </row>
@@ -7570,7 +7623,7 @@
         <f t="shared" si="0"/>
         <v>951</v>
       </c>
-      <c r="F29" s="177"/>
+      <c r="F29" s="181"/>
       <c r="G29" s="29"/>
       <c r="H29" s="7"/>
     </row>
@@ -7587,7 +7640,7 @@
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="F30" s="178"/>
+      <c r="F30" s="182"/>
       <c r="G30" s="29"/>
       <c r="H30" s="7"/>
     </row>
@@ -7612,7 +7665,7 @@
         <v>186</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H31" s="9"/>
     </row>
@@ -7629,8 +7682,8 @@
         <f t="shared" si="0"/>
         <v>967</v>
       </c>
-      <c r="F32" s="179" t="s">
-        <v>646</v>
+      <c r="F32" s="183" t="s">
+        <v>645</v>
       </c>
       <c r="G32" s="104"/>
       <c r="H32" s="10"/>
@@ -7648,7 +7701,7 @@
         <f t="shared" si="0"/>
         <v>971</v>
       </c>
-      <c r="F33" s="180"/>
+      <c r="F33" s="184"/>
       <c r="G33" s="29"/>
       <c r="H33" s="7"/>
     </row>
@@ -7665,7 +7718,7 @@
         <f t="shared" si="0"/>
         <v>972</v>
       </c>
-      <c r="F34" s="180"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="29"/>
       <c r="H34" s="7"/>
     </row>
@@ -7682,7 +7735,7 @@
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="F35" s="180"/>
+      <c r="F35" s="184"/>
       <c r="G35" s="29"/>
       <c r="H35" s="7"/>
     </row>
@@ -7699,7 +7752,7 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="F36" s="180"/>
+      <c r="F36" s="184"/>
       <c r="G36" s="29"/>
       <c r="H36" s="7"/>
     </row>
@@ -7716,7 +7769,7 @@
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
-      <c r="F37" s="180"/>
+      <c r="F37" s="184"/>
       <c r="G37" s="29"/>
       <c r="H37" s="7"/>
     </row>
@@ -7733,7 +7786,7 @@
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="F38" s="180"/>
+      <c r="F38" s="184"/>
       <c r="G38" s="29"/>
       <c r="H38" s="7"/>
     </row>
@@ -7750,7 +7803,7 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="F39" s="180"/>
+      <c r="F39" s="184"/>
       <c r="G39" s="29"/>
       <c r="H39" s="7"/>
     </row>
@@ -7767,7 +7820,7 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="F40" s="180"/>
+      <c r="F40" s="184"/>
       <c r="G40" s="29" t="s">
         <v>509</v>
       </c>
@@ -7786,7 +7839,7 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="F41" s="180"/>
+      <c r="F41" s="184"/>
       <c r="G41" s="29"/>
       <c r="H41" s="7"/>
     </row>
@@ -7803,9 +7856,9 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="F42" s="180"/>
+      <c r="F42" s="184"/>
       <c r="G42" s="29" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -7822,7 +7875,7 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="F43" s="180"/>
+      <c r="F43" s="184"/>
       <c r="G43" s="105"/>
       <c r="H43" s="11"/>
     </row>
@@ -7839,7 +7892,7 @@
         <f t="shared" si="0"/>
         <v>1074</v>
       </c>
-      <c r="F44" s="180"/>
+      <c r="F44" s="184"/>
       <c r="G44" s="29" t="s">
         <v>522</v>
       </c>
@@ -7858,7 +7911,7 @@
         <f t="shared" si="0"/>
         <v>1091</v>
       </c>
-      <c r="F45" s="180"/>
+      <c r="F45" s="184"/>
       <c r="G45" s="29"/>
       <c r="H45" s="7"/>
     </row>
@@ -7875,9 +7928,9 @@
         <f t="shared" si="0"/>
         <v>1112</v>
       </c>
-      <c r="F46" s="180"/>
+      <c r="F46" s="184"/>
       <c r="G46" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -7894,7 +7947,7 @@
         <f t="shared" si="0"/>
         <v>1136</v>
       </c>
-      <c r="F47" s="180"/>
+      <c r="F47" s="184"/>
       <c r="G47" s="29"/>
       <c r="H47" s="7"/>
     </row>
@@ -7911,7 +7964,7 @@
         <f t="shared" si="0"/>
         <v>1155</v>
       </c>
-      <c r="F48" s="181"/>
+      <c r="F48" s="185"/>
       <c r="G48" s="29"/>
       <c r="H48" s="7"/>
     </row>
@@ -7936,7 +7989,7 @@
         <v>211</v>
       </c>
       <c r="G49" s="107" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H49" s="10"/>
     </row>
@@ -7953,8 +8006,8 @@
         <f t="shared" si="0"/>
         <v>1189</v>
       </c>
-      <c r="F50" s="176" t="s">
-        <v>647</v>
+      <c r="F50" s="180" t="s">
+        <v>646</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="7"/>
@@ -7972,7 +8025,7 @@
         <f t="shared" si="0"/>
         <v>1191</v>
       </c>
-      <c r="F51" s="177"/>
+      <c r="F51" s="181"/>
       <c r="G51" s="29"/>
       <c r="H51" s="7"/>
     </row>
@@ -7989,7 +8042,7 @@
         <f t="shared" si="0"/>
         <v>1209</v>
       </c>
-      <c r="F52" s="177"/>
+      <c r="F52" s="181"/>
       <c r="G52" s="29"/>
       <c r="H52" s="7"/>
     </row>
@@ -8006,7 +8059,7 @@
         <f t="shared" si="0"/>
         <v>1215</v>
       </c>
-      <c r="F53" s="177"/>
+      <c r="F53" s="181"/>
       <c r="G53" s="29" t="s">
         <v>509</v>
       </c>
@@ -8025,7 +8078,7 @@
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="F54" s="177"/>
+      <c r="F54" s="181"/>
       <c r="G54" s="29"/>
       <c r="H54" s="7"/>
     </row>
@@ -8042,7 +8095,7 @@
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
-      <c r="F55" s="177"/>
+      <c r="F55" s="181"/>
       <c r="G55" s="29"/>
       <c r="H55" s="7"/>
     </row>
@@ -8059,7 +8112,7 @@
         <f t="shared" si="0"/>
         <v>1247</v>
       </c>
-      <c r="F56" s="177"/>
+      <c r="F56" s="181"/>
       <c r="G56" s="29"/>
       <c r="H56" s="7"/>
     </row>
@@ -8076,7 +8129,7 @@
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="F57" s="177"/>
+      <c r="F57" s="181"/>
       <c r="G57" s="29"/>
       <c r="H57" s="7"/>
     </row>
@@ -8093,7 +8146,7 @@
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
-      <c r="F58" s="177"/>
+      <c r="F58" s="181"/>
       <c r="G58" s="29"/>
       <c r="H58" s="7"/>
     </row>
@@ -8110,7 +8163,7 @@
         <f t="shared" si="0"/>
         <v>1283</v>
       </c>
-      <c r="F59" s="177"/>
+      <c r="F59" s="181"/>
       <c r="G59" s="105" t="s">
         <v>507</v>
       </c>
@@ -8129,7 +8182,7 @@
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="F60" s="177"/>
+      <c r="F60" s="181"/>
       <c r="G60" s="29"/>
       <c r="H60" s="7"/>
     </row>
@@ -8146,7 +8199,7 @@
         <f t="shared" si="0"/>
         <v>1315</v>
       </c>
-      <c r="F61" s="177"/>
+      <c r="F61" s="181"/>
       <c r="G61" s="29"/>
       <c r="H61" s="7"/>
     </row>
@@ -8163,7 +8216,7 @@
         <f t="shared" si="0"/>
         <v>1341</v>
       </c>
-      <c r="F62" s="177"/>
+      <c r="F62" s="181"/>
       <c r="G62" s="29"/>
       <c r="H62" s="7"/>
     </row>
@@ -8180,7 +8233,7 @@
         <f t="shared" si="0"/>
         <v>1362</v>
       </c>
-      <c r="F63" s="177"/>
+      <c r="F63" s="181"/>
       <c r="G63" s="29"/>
       <c r="H63" s="7"/>
     </row>
@@ -8197,9 +8250,9 @@
         <f t="shared" si="0"/>
         <v>1367</v>
       </c>
-      <c r="F64" s="177"/>
+      <c r="F64" s="181"/>
       <c r="G64" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -8216,9 +8269,9 @@
         <f t="shared" si="0"/>
         <v>1374</v>
       </c>
-      <c r="F65" s="177"/>
+      <c r="F65" s="181"/>
       <c r="G65" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -8235,9 +8288,9 @@
         <f t="shared" si="0"/>
         <v>1394</v>
       </c>
-      <c r="F66" s="178"/>
+      <c r="F66" s="182"/>
       <c r="G66" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H66" s="10"/>
     </row>
@@ -8262,7 +8315,7 @@
         <v>227</v>
       </c>
       <c r="G67" s="107" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -8279,8 +8332,8 @@
         <f t="shared" si="0"/>
         <v>1427</v>
       </c>
-      <c r="F68" s="176" t="s">
-        <v>648</v>
+      <c r="F68" s="180" t="s">
+        <v>647</v>
       </c>
       <c r="G68" s="29"/>
       <c r="H68" s="7"/>
@@ -8298,7 +8351,7 @@
         <f t="shared" ref="E69:E134" si="1">SUM(D69,E68)</f>
         <v>1441</v>
       </c>
-      <c r="F69" s="177"/>
+      <c r="F69" s="181"/>
       <c r="G69" s="29" t="s">
         <v>510</v>
       </c>
@@ -8317,7 +8370,7 @@
         <f t="shared" si="1"/>
         <v>1457</v>
       </c>
-      <c r="F70" s="177"/>
+      <c r="F70" s="181"/>
       <c r="G70" s="29"/>
       <c r="H70" s="7"/>
     </row>
@@ -8334,7 +8387,7 @@
         <f t="shared" si="1"/>
         <v>1474</v>
       </c>
-      <c r="F71" s="177"/>
+      <c r="F71" s="181"/>
       <c r="G71" s="29"/>
       <c r="H71" s="7"/>
     </row>
@@ -8351,7 +8404,7 @@
         <f t="shared" si="1"/>
         <v>1496</v>
       </c>
-      <c r="F72" s="177"/>
+      <c r="F72" s="181"/>
       <c r="G72" s="29"/>
       <c r="H72" s="7"/>
     </row>
@@ -8368,9 +8421,9 @@
         <f t="shared" si="1"/>
         <v>1519</v>
       </c>
-      <c r="F73" s="178"/>
+      <c r="F73" s="182"/>
       <c r="G73" s="29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H73" s="9"/>
     </row>
@@ -8395,7 +8448,7 @@
         <v>130</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -8412,11 +8465,11 @@
         <f t="shared" si="1"/>
         <v>1543</v>
       </c>
-      <c r="F75" s="182" t="s">
-        <v>646</v>
+      <c r="F75" s="186" t="s">
+        <v>645</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -8433,7 +8486,7 @@
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
-      <c r="F76" s="183"/>
+      <c r="F76" s="187"/>
       <c r="G76" s="29"/>
       <c r="H76" s="7"/>
     </row>
@@ -8450,7 +8503,7 @@
         <f t="shared" si="1"/>
         <v>1570</v>
       </c>
-      <c r="F77" s="183"/>
+      <c r="F77" s="187"/>
       <c r="G77" s="29"/>
       <c r="H77" s="7"/>
     </row>
@@ -8467,9 +8520,9 @@
         <f t="shared" si="1"/>
         <v>1574</v>
       </c>
-      <c r="F78" s="183"/>
+      <c r="F78" s="187"/>
       <c r="G78" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -8486,7 +8539,7 @@
         <f t="shared" si="1"/>
         <v>1589</v>
       </c>
-      <c r="F79" s="183"/>
+      <c r="F79" s="187"/>
       <c r="G79" s="29"/>
       <c r="H79" s="7"/>
     </row>
@@ -8503,9 +8556,9 @@
         <f t="shared" si="1"/>
         <v>1599</v>
       </c>
-      <c r="F80" s="183"/>
+      <c r="F80" s="187"/>
       <c r="G80" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H80" s="9"/>
     </row>
@@ -8522,7 +8575,7 @@
         <f t="shared" si="1"/>
         <v>1609</v>
       </c>
-      <c r="F81" s="183"/>
+      <c r="F81" s="187"/>
       <c r="G81" s="29"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -8538,7 +8591,7 @@
         <f t="shared" si="1"/>
         <v>1624</v>
       </c>
-      <c r="F82" s="183"/>
+      <c r="F82" s="187"/>
       <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -8554,7 +8607,7 @@
         <f t="shared" si="1"/>
         <v>1647</v>
       </c>
-      <c r="F83" s="183"/>
+      <c r="F83" s="187"/>
       <c r="G83" s="29"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -8570,7 +8623,7 @@
         <f t="shared" si="1"/>
         <v>1669</v>
       </c>
-      <c r="F84" s="183"/>
+      <c r="F84" s="187"/>
       <c r="G84" s="29"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -8586,7 +8639,7 @@
         <f t="shared" si="1"/>
         <v>1686</v>
       </c>
-      <c r="F85" s="183"/>
+      <c r="F85" s="187"/>
       <c r="G85" s="29"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -8602,7 +8655,7 @@
         <f t="shared" si="1"/>
         <v>1702</v>
       </c>
-      <c r="F86" s="183"/>
+      <c r="F86" s="187"/>
       <c r="G86" s="29"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -8618,7 +8671,7 @@
         <f t="shared" si="1"/>
         <v>1716</v>
       </c>
-      <c r="F87" s="184"/>
+      <c r="F87" s="188"/>
       <c r="G87" s="29"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -8658,8 +8711,8 @@
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="F89" s="176" t="s">
-        <v>649</v>
+      <c r="F89" s="180" t="s">
+        <v>648</v>
       </c>
       <c r="G89" s="28"/>
     </row>
@@ -8676,9 +8729,9 @@
         <f t="shared" si="1"/>
         <v>1757</v>
       </c>
-      <c r="F90" s="177"/>
+      <c r="F90" s="181"/>
       <c r="G90" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -8694,7 +8747,7 @@
         <f t="shared" si="1"/>
         <v>1763</v>
       </c>
-      <c r="F91" s="177"/>
+      <c r="F91" s="181"/>
       <c r="G91" s="28" t="s">
         <v>511</v>
       </c>
@@ -8712,7 +8765,7 @@
         <f t="shared" si="1"/>
         <v>1779</v>
       </c>
-      <c r="F92" s="177"/>
+      <c r="F92" s="181"/>
       <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
@@ -8728,9 +8781,9 @@
         <f t="shared" si="1"/>
         <v>1786</v>
       </c>
-      <c r="F93" s="177"/>
+      <c r="F93" s="181"/>
       <c r="G93" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -8746,9 +8799,9 @@
         <f t="shared" si="1"/>
         <v>1793</v>
       </c>
-      <c r="F94" s="177"/>
+      <c r="F94" s="181"/>
       <c r="G94" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -8764,7 +8817,7 @@
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="F95" s="177"/>
+      <c r="F95" s="181"/>
       <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -8780,7 +8833,7 @@
         <f t="shared" si="1"/>
         <v>1838</v>
       </c>
-      <c r="F96" s="177"/>
+      <c r="F96" s="181"/>
       <c r="G96" s="28" t="s">
         <v>512</v>
       </c>
@@ -8798,7 +8851,7 @@
         <f t="shared" si="1"/>
         <v>1870</v>
       </c>
-      <c r="F97" s="177"/>
+      <c r="F97" s="181"/>
       <c r="G97" s="28"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8814,7 +8867,7 @@
         <f t="shared" si="1"/>
         <v>1879</v>
       </c>
-      <c r="F98" s="177"/>
+      <c r="F98" s="181"/>
       <c r="G98" s="28"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -8830,7 +8883,7 @@
         <f t="shared" si="1"/>
         <v>1903</v>
       </c>
-      <c r="F99" s="177"/>
+      <c r="F99" s="181"/>
       <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8846,7 +8899,7 @@
         <f t="shared" si="1"/>
         <v>1923</v>
       </c>
-      <c r="F100" s="178"/>
+      <c r="F100" s="182"/>
       <c r="G100" s="28"/>
     </row>
     <row r="101" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
@@ -8870,7 +8923,7 @@
         <v>182</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -8886,8 +8939,8 @@
         <f t="shared" si="1"/>
         <v>1925</v>
       </c>
-      <c r="F102" s="179" t="s">
-        <v>650</v>
+      <c r="F102" s="183" t="s">
+        <v>649</v>
       </c>
       <c r="G102" s="28"/>
     </row>
@@ -8904,7 +8957,7 @@
         <f t="shared" si="1"/>
         <v>1945</v>
       </c>
-      <c r="F103" s="180"/>
+      <c r="F103" s="184"/>
       <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8920,7 +8973,7 @@
         <f t="shared" si="1"/>
         <v>1969</v>
       </c>
-      <c r="F104" s="180"/>
+      <c r="F104" s="184"/>
       <c r="G104" s="28" t="s">
         <v>513</v>
       </c>
@@ -8938,7 +8991,7 @@
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="F105" s="180"/>
+      <c r="F105" s="184"/>
       <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -8954,7 +9007,7 @@
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="F106" s="180"/>
+      <c r="F106" s="184"/>
       <c r="G106" s="28"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -8970,7 +9023,7 @@
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="F107" s="180"/>
+      <c r="F107" s="184"/>
       <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -8986,9 +9039,9 @@
         <f t="shared" si="1"/>
         <v>2055</v>
       </c>
-      <c r="F108" s="180"/>
+      <c r="F108" s="184"/>
       <c r="G108" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9004,7 +9057,7 @@
         <f t="shared" si="1"/>
         <v>2068</v>
       </c>
-      <c r="F109" s="180"/>
+      <c r="F109" s="184"/>
       <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9020,7 +9073,7 @@
         <f t="shared" si="1"/>
         <v>2082</v>
       </c>
-      <c r="F110" s="180"/>
+      <c r="F110" s="184"/>
       <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9036,7 +9089,7 @@
         <f t="shared" si="1"/>
         <v>2091</v>
       </c>
-      <c r="F111" s="180"/>
+      <c r="F111" s="184"/>
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9052,7 +9105,7 @@
         <f t="shared" si="1"/>
         <v>2095</v>
       </c>
-      <c r="F112" s="180"/>
+      <c r="F112" s="184"/>
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9068,9 +9121,9 @@
         <f t="shared" si="1"/>
         <v>2098</v>
       </c>
-      <c r="F113" s="180"/>
+      <c r="F113" s="184"/>
       <c r="G113" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9086,16 +9139,16 @@
         <f>SUM(D114,E113)</f>
         <v>2130</v>
       </c>
-      <c r="F114" s="180"/>
+      <c r="F114" s="184"/>
       <c r="G114" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="153" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="91" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D115" s="31">
         <v>14</v>
@@ -9104,9 +9157,9 @@
         <f>SUM(D115,E114)</f>
         <v>2144</v>
       </c>
-      <c r="F115" s="181"/>
+      <c r="F115" s="185"/>
       <c r="G115" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9130,7 +9183,7 @@
         <v>272</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
@@ -9146,18 +9199,18 @@
         <f t="shared" si="1"/>
         <v>2218</v>
       </c>
-      <c r="F117" s="179" t="s">
-        <v>651</v>
+      <c r="F117" s="183" t="s">
+        <v>650</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="88"/>
       <c r="B118" s="89"/>
       <c r="C118" s="53" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D118" s="45">
         <v>45</v>
@@ -9166,9 +9219,9 @@
         <f>SUM(D118,E117)</f>
         <v>2263</v>
       </c>
-      <c r="F118" s="180"/>
+      <c r="F118" s="184"/>
       <c r="G118" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9184,9 +9237,9 @@
         <f>SUM(D119,E118)</f>
         <v>2273</v>
       </c>
-      <c r="F119" s="180"/>
+      <c r="F119" s="184"/>
       <c r="G119" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -9202,7 +9255,7 @@
         <f t="shared" si="1"/>
         <v>2282</v>
       </c>
-      <c r="F120" s="180"/>
+      <c r="F120" s="184"/>
       <c r="G120" s="28"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -9218,7 +9271,7 @@
         <f t="shared" si="1"/>
         <v>2293</v>
       </c>
-      <c r="F121" s="180"/>
+      <c r="F121" s="184"/>
       <c r="G121" s="28"/>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9234,9 +9287,9 @@
         <f t="shared" si="1"/>
         <v>2306</v>
       </c>
-      <c r="F122" s="180"/>
+      <c r="F122" s="184"/>
       <c r="G122" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -9252,9 +9305,9 @@
         <f t="shared" si="1"/>
         <v>2327</v>
       </c>
-      <c r="F123" s="180"/>
+      <c r="F123" s="184"/>
       <c r="G123" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
@@ -9270,9 +9323,9 @@
         <f t="shared" si="1"/>
         <v>2349</v>
       </c>
-      <c r="F124" s="180"/>
+      <c r="F124" s="184"/>
       <c r="G124" s="28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -9288,9 +9341,9 @@
         <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="F125" s="180"/>
+      <c r="F125" s="184"/>
       <c r="G125" s="28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -9306,7 +9359,7 @@
         <f t="shared" si="1"/>
         <v>2376</v>
       </c>
-      <c r="F126" s="181"/>
+      <c r="F126" s="185"/>
       <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -9330,7 +9383,7 @@
         <v>186</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9346,11 +9399,11 @@
         <f t="shared" si="1"/>
         <v>2392</v>
       </c>
-      <c r="F128" s="179" t="s">
-        <v>652</v>
+      <c r="F128" s="183" t="s">
+        <v>651</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -9366,7 +9419,7 @@
         <f t="shared" si="1"/>
         <v>2399</v>
       </c>
-      <c r="F129" s="180"/>
+      <c r="F129" s="184"/>
       <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -9382,7 +9435,7 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F130" s="180"/>
+      <c r="F130" s="184"/>
       <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -9398,7 +9451,7 @@
         <f t="shared" si="1"/>
         <v>2406</v>
       </c>
-      <c r="F131" s="180"/>
+      <c r="F131" s="184"/>
       <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -9414,7 +9467,7 @@
         <f t="shared" si="1"/>
         <v>2408</v>
       </c>
-      <c r="F132" s="180"/>
+      <c r="F132" s="184"/>
       <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -9430,7 +9483,7 @@
         <f t="shared" si="1"/>
         <v>2409</v>
       </c>
-      <c r="F133" s="180"/>
+      <c r="F133" s="184"/>
       <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9446,9 +9499,9 @@
         <f t="shared" si="1"/>
         <v>2417</v>
       </c>
-      <c r="F134" s="180"/>
+      <c r="F134" s="184"/>
       <c r="G134" s="28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -9464,7 +9517,7 @@
         <f t="shared" ref="E135:E198" si="2">SUM(D135,E134)</f>
         <v>2431</v>
       </c>
-      <c r="F135" s="180"/>
+      <c r="F135" s="184"/>
       <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -9480,7 +9533,7 @@
         <f t="shared" si="2"/>
         <v>2432</v>
       </c>
-      <c r="F136" s="180"/>
+      <c r="F136" s="184"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9496,9 +9549,9 @@
         <f t="shared" si="2"/>
         <v>2437</v>
       </c>
-      <c r="F137" s="180"/>
+      <c r="F137" s="184"/>
       <c r="G137" s="109" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -9514,7 +9567,7 @@
         <f t="shared" si="2"/>
         <v>2454</v>
       </c>
-      <c r="F138" s="180"/>
+      <c r="F138" s="184"/>
       <c r="G138" s="28"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -9530,7 +9583,7 @@
         <f t="shared" si="2"/>
         <v>2484</v>
       </c>
-      <c r="F139" s="180"/>
+      <c r="F139" s="184"/>
       <c r="G139" s="28"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -9546,7 +9599,7 @@
         <f t="shared" si="2"/>
         <v>2498</v>
       </c>
-      <c r="F140" s="180"/>
+      <c r="F140" s="184"/>
       <c r="G140" s="28"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -9562,7 +9615,7 @@
         <f t="shared" si="2"/>
         <v>2516</v>
       </c>
-      <c r="F141" s="180"/>
+      <c r="F141" s="184"/>
       <c r="G141" s="28"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -9578,7 +9631,7 @@
         <f t="shared" si="2"/>
         <v>2528</v>
       </c>
-      <c r="F142" s="180"/>
+      <c r="F142" s="184"/>
       <c r="G142" s="28"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -9594,7 +9647,7 @@
         <f t="shared" si="2"/>
         <v>2532</v>
       </c>
-      <c r="F143" s="180"/>
+      <c r="F143" s="184"/>
       <c r="G143" s="28"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -9610,7 +9663,7 @@
         <f t="shared" si="2"/>
         <v>2560</v>
       </c>
-      <c r="F144" s="180"/>
+      <c r="F144" s="184"/>
       <c r="G144" s="28"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -9626,7 +9679,7 @@
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
-      <c r="F145" s="181"/>
+      <c r="F145" s="185"/>
       <c r="G145" s="28"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -9664,8 +9717,8 @@
         <f t="shared" si="2"/>
         <v>2581</v>
       </c>
-      <c r="F147" s="179" t="s">
-        <v>653</v>
+      <c r="F147" s="183" t="s">
+        <v>652</v>
       </c>
       <c r="G147" s="28"/>
     </row>
@@ -9682,7 +9735,7 @@
         <f t="shared" si="2"/>
         <v>2587</v>
       </c>
-      <c r="F148" s="180"/>
+      <c r="F148" s="184"/>
       <c r="G148" s="28"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -9698,7 +9751,7 @@
         <f t="shared" si="2"/>
         <v>2592</v>
       </c>
-      <c r="F149" s="180"/>
+      <c r="F149" s="184"/>
       <c r="G149" s="28"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -9714,7 +9767,7 @@
         <f t="shared" si="2"/>
         <v>2617</v>
       </c>
-      <c r="F150" s="180"/>
+      <c r="F150" s="184"/>
       <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -9730,7 +9783,7 @@
         <f t="shared" si="2"/>
         <v>2621</v>
       </c>
-      <c r="F151" s="180"/>
+      <c r="F151" s="184"/>
       <c r="G151" s="28" t="s">
         <v>515</v>
       </c>
@@ -9748,7 +9801,7 @@
         <f t="shared" si="2"/>
         <v>2626</v>
       </c>
-      <c r="F152" s="180"/>
+      <c r="F152" s="184"/>
       <c r="G152" s="28"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -9764,7 +9817,7 @@
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="F153" s="180"/>
+      <c r="F153" s="184"/>
       <c r="G153" s="28"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -9780,7 +9833,7 @@
         <f t="shared" si="2"/>
         <v>2649</v>
       </c>
-      <c r="F154" s="180"/>
+      <c r="F154" s="184"/>
       <c r="G154" s="28" t="s">
         <v>516</v>
       </c>
@@ -9798,7 +9851,7 @@
         <f t="shared" si="2"/>
         <v>2657</v>
       </c>
-      <c r="F155" s="180"/>
+      <c r="F155" s="184"/>
       <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -9814,7 +9867,7 @@
         <f t="shared" si="2"/>
         <v>2684</v>
       </c>
-      <c r="F156" s="180"/>
+      <c r="F156" s="184"/>
       <c r="G156" s="28" t="s">
         <v>517</v>
       </c>
@@ -9832,7 +9885,7 @@
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="F157" s="180"/>
+      <c r="F157" s="184"/>
       <c r="G157" s="28"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -9848,7 +9901,7 @@
         <f t="shared" si="2"/>
         <v>2762</v>
       </c>
-      <c r="F158" s="180"/>
+      <c r="F158" s="184"/>
       <c r="G158" s="28"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -9864,7 +9917,7 @@
         <f t="shared" si="2"/>
         <v>2763</v>
       </c>
-      <c r="F159" s="180"/>
+      <c r="F159" s="184"/>
       <c r="G159" s="28"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -9880,7 +9933,7 @@
         <f t="shared" si="2"/>
         <v>2781</v>
       </c>
-      <c r="F160" s="180"/>
+      <c r="F160" s="184"/>
       <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -9896,14 +9949,14 @@
         <f t="shared" si="2"/>
         <v>2784</v>
       </c>
-      <c r="F161" s="180"/>
+      <c r="F161" s="184"/>
       <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="42"/>
       <c r="B162" s="42"/>
       <c r="C162" s="91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D162" s="31">
         <v>21</v>
@@ -9912,7 +9965,7 @@
         <f t="shared" si="2"/>
         <v>2805</v>
       </c>
-      <c r="F162" s="181"/>
+      <c r="F162" s="185"/>
       <c r="G162" s="28" t="s">
         <v>509</v>
       </c>
@@ -9938,7 +9991,7 @@
         <v>235</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -9954,11 +10007,11 @@
         <f t="shared" si="2"/>
         <v>2823</v>
       </c>
-      <c r="F164" s="179" t="s">
-        <v>654</v>
+      <c r="F164" s="183" t="s">
+        <v>653</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -9974,7 +10027,7 @@
         <f t="shared" si="2"/>
         <v>2824</v>
       </c>
-      <c r="F165" s="180"/>
+      <c r="F165" s="184"/>
       <c r="G165" s="28"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -9990,7 +10043,7 @@
         <f t="shared" si="2"/>
         <v>2834</v>
       </c>
-      <c r="F166" s="180"/>
+      <c r="F166" s="184"/>
       <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -10006,7 +10059,7 @@
         <f t="shared" si="2"/>
         <v>2839</v>
       </c>
-      <c r="F167" s="180"/>
+      <c r="F167" s="184"/>
       <c r="G167" s="28"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -10022,7 +10075,7 @@
         <f t="shared" si="2"/>
         <v>2844</v>
       </c>
-      <c r="F168" s="180"/>
+      <c r="F168" s="184"/>
       <c r="G168" s="28" t="s">
         <v>509</v>
       </c>
@@ -10040,7 +10093,7 @@
         <f t="shared" si="2"/>
         <v>2854</v>
       </c>
-      <c r="F169" s="180"/>
+      <c r="F169" s="184"/>
       <c r="G169" s="28"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -10056,7 +10109,7 @@
         <f t="shared" si="2"/>
         <v>2891</v>
       </c>
-      <c r="F170" s="180"/>
+      <c r="F170" s="184"/>
       <c r="G170" s="28"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -10072,7 +10125,7 @@
         <f t="shared" si="2"/>
         <v>2902</v>
       </c>
-      <c r="F171" s="180"/>
+      <c r="F171" s="184"/>
       <c r="G171" s="28"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -10088,7 +10141,7 @@
         <f t="shared" si="2"/>
         <v>2923</v>
       </c>
-      <c r="F172" s="180"/>
+      <c r="F172" s="184"/>
       <c r="G172" s="103"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -10104,7 +10157,7 @@
         <f t="shared" si="2"/>
         <v>2941</v>
       </c>
-      <c r="F173" s="180"/>
+      <c r="F173" s="184"/>
       <c r="G173" s="28" t="s">
         <v>509</v>
       </c>
@@ -10122,7 +10175,7 @@
         <f t="shared" si="2"/>
         <v>2953</v>
       </c>
-      <c r="F174" s="180"/>
+      <c r="F174" s="184"/>
       <c r="G174" s="28"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -10138,7 +10191,7 @@
         <f t="shared" si="2"/>
         <v>2967</v>
       </c>
-      <c r="F175" s="180"/>
+      <c r="F175" s="184"/>
       <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -10154,7 +10207,7 @@
         <f t="shared" si="2"/>
         <v>2970</v>
       </c>
-      <c r="F176" s="180"/>
+      <c r="F176" s="184"/>
       <c r="G176" s="28"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -10170,7 +10223,7 @@
         <f t="shared" si="2"/>
         <v>2976</v>
       </c>
-      <c r="F177" s="181"/>
+      <c r="F177" s="185"/>
       <c r="G177" s="28"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -10208,8 +10261,8 @@
         <f t="shared" si="2"/>
         <v>2994</v>
       </c>
-      <c r="F179" s="179" t="s">
-        <v>655</v>
+      <c r="F179" s="183" t="s">
+        <v>654</v>
       </c>
       <c r="G179" s="28"/>
     </row>
@@ -10226,7 +10279,7 @@
         <f t="shared" si="2"/>
         <v>2998</v>
       </c>
-      <c r="F180" s="180"/>
+      <c r="F180" s="184"/>
       <c r="G180" s="28"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -10242,7 +10295,7 @@
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
-      <c r="F181" s="180"/>
+      <c r="F181" s="184"/>
       <c r="G181" s="28"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -10258,7 +10311,7 @@
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
-      <c r="F182" s="180"/>
+      <c r="F182" s="184"/>
       <c r="G182" s="28"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -10274,7 +10327,7 @@
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
-      <c r="F183" s="180"/>
+      <c r="F183" s="184"/>
       <c r="G183" s="28"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -10290,7 +10343,7 @@
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
-      <c r="F184" s="180"/>
+      <c r="F184" s="184"/>
       <c r="G184" s="28"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -10306,7 +10359,7 @@
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
-      <c r="F185" s="180"/>
+      <c r="F185" s="184"/>
       <c r="G185" s="28"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -10322,7 +10375,7 @@
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
-      <c r="F186" s="180"/>
+      <c r="F186" s="184"/>
       <c r="G186" s="28" t="s">
         <v>518</v>
       </c>
@@ -10340,7 +10393,7 @@
         <f t="shared" si="2"/>
         <v>3035</v>
       </c>
-      <c r="F187" s="180"/>
+      <c r="F187" s="184"/>
       <c r="G187" s="103"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -10356,7 +10409,7 @@
         <f t="shared" si="2"/>
         <v>3038</v>
       </c>
-      <c r="F188" s="180"/>
+      <c r="F188" s="184"/>
       <c r="G188" s="28"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -10372,7 +10425,7 @@
         <f t="shared" si="2"/>
         <v>3042</v>
       </c>
-      <c r="F189" s="180"/>
+      <c r="F189" s="184"/>
       <c r="G189" s="28"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -10388,7 +10441,7 @@
         <f t="shared" si="2"/>
         <v>3046</v>
       </c>
-      <c r="F190" s="180"/>
+      <c r="F190" s="184"/>
       <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -10404,7 +10457,7 @@
         <f t="shared" si="2"/>
         <v>3054</v>
       </c>
-      <c r="F191" s="180"/>
+      <c r="F191" s="184"/>
       <c r="G191" s="28"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -10420,7 +10473,7 @@
         <f t="shared" si="2"/>
         <v>3063</v>
       </c>
-      <c r="F192" s="180"/>
+      <c r="F192" s="184"/>
       <c r="G192" s="28"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -10436,7 +10489,7 @@
         <f t="shared" si="2"/>
         <v>3068</v>
       </c>
-      <c r="F193" s="180"/>
+      <c r="F193" s="184"/>
       <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -10452,7 +10505,7 @@
         <f t="shared" si="2"/>
         <v>3071</v>
       </c>
-      <c r="F194" s="180"/>
+      <c r="F194" s="184"/>
       <c r="G194" s="28"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -10468,7 +10521,7 @@
         <f t="shared" si="2"/>
         <v>3076</v>
       </c>
-      <c r="F195" s="180"/>
+      <c r="F195" s="184"/>
       <c r="G195" s="28"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -10484,7 +10537,7 @@
         <f t="shared" si="2"/>
         <v>3085</v>
       </c>
-      <c r="F196" s="180"/>
+      <c r="F196" s="184"/>
       <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -10500,7 +10553,7 @@
         <f t="shared" si="2"/>
         <v>3089</v>
       </c>
-      <c r="F197" s="180"/>
+      <c r="F197" s="184"/>
       <c r="G197" s="28"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -10516,7 +10569,7 @@
         <f t="shared" si="2"/>
         <v>3104</v>
       </c>
-      <c r="F198" s="180"/>
+      <c r="F198" s="184"/>
       <c r="G198" s="28"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -10532,7 +10585,7 @@
         <f t="shared" ref="E199" si="3">SUM(D199,E198)</f>
         <v>3124</v>
       </c>
-      <c r="F199" s="180"/>
+      <c r="F199" s="184"/>
       <c r="G199" s="28"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -10548,7 +10601,7 @@
         <f>SUM(D200,E199)</f>
         <v>3146</v>
       </c>
-      <c r="F200" s="180"/>
+      <c r="F200" s="184"/>
       <c r="G200" s="28"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -10564,7 +10617,7 @@
         <f t="shared" ref="E201:E207" si="4">SUM(D201,E200)</f>
         <v>3156</v>
       </c>
-      <c r="F201" s="180"/>
+      <c r="F201" s="184"/>
       <c r="G201" s="28"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -10580,7 +10633,7 @@
         <f t="shared" si="4"/>
         <v>3170</v>
       </c>
-      <c r="F202" s="180"/>
+      <c r="F202" s="184"/>
       <c r="G202" s="28"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -10596,7 +10649,7 @@
         <f t="shared" si="4"/>
         <v>3212</v>
       </c>
-      <c r="F203" s="180"/>
+      <c r="F203" s="184"/>
       <c r="G203" s="28"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -10612,7 +10665,7 @@
         <f t="shared" si="4"/>
         <v>3262</v>
       </c>
-      <c r="F204" s="180"/>
+      <c r="F204" s="184"/>
       <c r="G204" s="28"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -10628,7 +10681,7 @@
         <f t="shared" si="4"/>
         <v>3297</v>
       </c>
-      <c r="F205" s="180"/>
+      <c r="F205" s="184"/>
       <c r="G205" s="28"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -10644,7 +10697,7 @@
         <f t="shared" si="4"/>
         <v>3333</v>
       </c>
-      <c r="F206" s="181"/>
+      <c r="F206" s="185"/>
       <c r="G206" s="28"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -10749,13 +10802,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="190">
+      <c r="A2" s="194">
         <v>1</v>
       </c>
-      <c r="B2" s="191">
+      <c r="B2" s="195">
         <v>41438</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="190" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10772,9 +10825,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="190"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="186"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="190"/>
       <c r="D3" s="24" t="s">
         <v>171</v>
       </c>
@@ -10789,9 +10842,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="190"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="186"/>
+      <c r="A4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="190"/>
       <c r="D4" s="24" t="s">
         <v>175</v>
       </c>
@@ -10806,9 +10859,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="190"/>
-      <c r="B5" s="191"/>
-      <c r="C5" s="186"/>
+      <c r="A5" s="194"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="190"/>
       <c r="D5" s="24" t="s">
         <v>177</v>
       </c>
@@ -10823,13 +10876,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="189">
+      <c r="A6" s="193">
         <v>2</v>
       </c>
-      <c r="B6" s="187">
+      <c r="B6" s="191">
         <v>41439</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="192" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -10846,26 +10899,26 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="188"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="132" t="s">
+        <v>659</v>
+      </c>
+      <c r="E7" s="132" t="s">
         <v>660</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="F7" s="59" t="s">
         <v>661</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>662</v>
       </c>
       <c r="G7" s="30">
         <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
+      <c r="A8" s="193"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="28" t="s">
         <v>406</v>
       </c>
@@ -10880,9 +10933,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="188" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="192" t="s">
         <v>404</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -10899,11 +10952,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="189"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="188"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="192"/>
       <c r="D10" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>414</v>
@@ -10916,9 +10969,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="189"/>
-      <c r="B11" s="187"/>
-      <c r="C11" s="188"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="192"/>
       <c r="D11" s="28" t="s">
         <v>416</v>
       </c>
@@ -10926,20 +10979,20 @@
         <v>417</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G11" s="30">
         <v>3120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="190">
+      <c r="A12" s="194">
         <v>3</v>
       </c>
-      <c r="B12" s="191">
+      <c r="B12" s="195">
         <v>41440</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="190" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -10956,14 +11009,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="190"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="186"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="190"/>
       <c r="D13" s="24" t="s">
         <v>183</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F13" s="58" t="s">
         <v>184</v>
@@ -10973,9 +11026,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="190"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="186"/>
+      <c r="A14" s="194"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="190"/>
       <c r="D14" s="24" t="s">
         <v>185</v>
       </c>
@@ -10990,9 +11043,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="190"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="186"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="24" t="s">
         <v>186</v>
       </c>
@@ -11007,13 +11060,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="189">
+      <c r="A16" s="193">
         <v>4</v>
       </c>
-      <c r="B16" s="187">
+      <c r="B16" s="191">
         <v>41441</v>
       </c>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="192" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -11030,9 +11083,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="189"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="188"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="192"/>
       <c r="D17" s="28" t="s">
         <v>193</v>
       </c>
@@ -11047,115 +11100,115 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="194" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="195" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="196" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="60" t="s">
         <v>545</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="G18" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="G18" s="25" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="194"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>561</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="194"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="24" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="190"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="190"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="F20" s="60" t="s">
         <v>548</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>549</v>
       </c>
       <c r="G20" s="27">
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="190"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="192"/>
+      <c r="A21" s="194"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="196"/>
       <c r="D21" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="60" t="s">
         <v>551</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>552</v>
       </c>
       <c r="G21" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
+      <c r="A22" s="194"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="196"/>
       <c r="D22" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>554</v>
-      </c>
       <c r="F22" s="60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G22" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="190"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="192"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
       <c r="D23" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="F23" s="60" t="s">
         <v>558</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>559</v>
       </c>
       <c r="G23" s="27">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="190"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="192"/>
+      <c r="A24" s="194"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
       <c r="D24" s="24" t="s">
         <v>197</v>
       </c>
@@ -11170,9 +11223,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="190"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
+      <c r="A25" s="194"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="196"/>
       <c r="D25" s="24" t="s">
         <v>203</v>
       </c>
@@ -11187,9 +11240,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="190"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
+      <c r="A26" s="194"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="196"/>
       <c r="D26" s="24" t="s">
         <v>206</v>
       </c>
@@ -11204,9 +11257,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="190"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="192"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
       <c r="D27" s="24" t="s">
         <v>199</v>
       </c>
@@ -11221,13 +11274,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="189">
+      <c r="A28" s="193">
         <v>7</v>
       </c>
-      <c r="B28" s="187">
+      <c r="B28" s="191">
         <v>41444</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="C28" s="192" t="s">
         <v>244</v>
       </c>
       <c r="D28" s="28" t="s">
@@ -11244,9 +11297,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="189"/>
-      <c r="B29" s="187"/>
-      <c r="C29" s="188"/>
+      <c r="A29" s="193"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="192"/>
       <c r="D29" s="28" t="s">
         <v>212</v>
       </c>
@@ -11261,9 +11314,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="189"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="188"/>
+      <c r="A30" s="193"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="28" t="s">
         <v>214</v>
       </c>
@@ -11278,9 +11331,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="189"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="188"/>
+      <c r="A31" s="193"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
       <c r="D31" s="28" t="s">
         <v>235</v>
       </c>
@@ -11295,9 +11348,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="189"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="188"/>
+      <c r="A32" s="193"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
       <c r="D32" s="28" t="s">
         <v>236</v>
       </c>
@@ -11312,26 +11365,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="189"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="188"/>
+      <c r="A33" s="193"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
       <c r="D33" s="143" t="s">
+        <v>683</v>
+      </c>
+      <c r="E33" s="143" t="s">
         <v>684</v>
       </c>
-      <c r="E33" s="143" t="s">
+      <c r="F33" s="125" t="s">
         <v>685</v>
-      </c>
-      <c r="F33" s="125" t="s">
-        <v>686</v>
       </c>
       <c r="G33" s="30">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="189"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
+      <c r="A34" s="193"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="192"/>
       <c r="D34" s="28" t="s">
         <v>237</v>
       </c>
@@ -11346,13 +11399,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="190">
+      <c r="A35" s="194">
         <v>9</v>
       </c>
-      <c r="B35" s="191">
+      <c r="B35" s="195">
         <v>41446</v>
       </c>
-      <c r="C35" s="186" t="s">
+      <c r="C35" s="190" t="s">
         <v>282</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -11369,9 +11422,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="190"/>
-      <c r="B36" s="191"/>
-      <c r="C36" s="186"/>
+      <c r="A36" s="194"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="190"/>
       <c r="D36" s="24" t="s">
         <v>221</v>
       </c>
@@ -11386,9 +11439,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="190"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="186"/>
+      <c r="A37" s="194"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="190"/>
       <c r="D37" s="24" t="s">
         <v>223</v>
       </c>
@@ -11403,9 +11456,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="190"/>
-      <c r="B38" s="191"/>
-      <c r="C38" s="186"/>
+      <c r="A38" s="194"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="190"/>
       <c r="D38" s="24" t="s">
         <v>225</v>
       </c>
@@ -11420,9 +11473,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="190"/>
-      <c r="B39" s="191"/>
-      <c r="C39" s="186"/>
+      <c r="A39" s="194"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="190"/>
       <c r="D39" s="24" t="s">
         <v>227</v>
       </c>
@@ -11437,9 +11490,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="190"/>
-      <c r="B40" s="191"/>
-      <c r="C40" s="186"/>
+      <c r="A40" s="194"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="190"/>
       <c r="D40" s="24" t="s">
         <v>228</v>
       </c>
@@ -11454,13 +11507,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="189">
+      <c r="A41" s="193">
         <v>10</v>
       </c>
-      <c r="B41" s="187">
+      <c r="B41" s="191">
         <v>41447</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="192" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -11477,9 +11530,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="189"/>
-      <c r="B42" s="187"/>
-      <c r="C42" s="188"/>
+      <c r="A42" s="193"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="192"/>
       <c r="D42" s="28" t="s">
         <v>233</v>
       </c>
@@ -11494,9 +11547,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="189"/>
-      <c r="B43" s="187"/>
-      <c r="C43" s="188"/>
+      <c r="A43" s="193"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="192"/>
       <c r="D43" s="28" t="s">
         <v>238</v>
       </c>
@@ -11511,9 +11564,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="189"/>
-      <c r="B44" s="187"/>
-      <c r="C44" s="188"/>
+      <c r="A44" s="193"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="192"/>
       <c r="D44" s="28" t="s">
         <v>239</v>
       </c>
@@ -11528,11 +11581,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="189"/>
-      <c r="B45" s="187"/>
-      <c r="C45" s="188"/>
+      <c r="A45" s="193"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="192"/>
       <c r="D45" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>349</v>
@@ -11545,20 +11598,20 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="193">
+      <c r="A46" s="197">
         <v>11</v>
       </c>
-      <c r="B46" s="191">
+      <c r="B46" s="195">
         <v>41448</v>
       </c>
-      <c r="C46" s="192" t="s">
+      <c r="C46" s="196" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>620</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>621</v>
       </c>
       <c r="F46" s="58" t="s">
         <v>161</v>
@@ -11568,9 +11621,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="194"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="192"/>
+      <c r="A47" s="198"/>
+      <c r="B47" s="195"/>
+      <c r="C47" s="196"/>
       <c r="D47" s="24" t="s">
         <v>245</v>
       </c>
@@ -11585,9 +11638,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="194"/>
-      <c r="B48" s="191"/>
-      <c r="C48" s="192"/>
+      <c r="A48" s="198"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="196"/>
       <c r="D48" s="24" t="s">
         <v>248</v>
       </c>
@@ -11602,9 +11655,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="195"/>
-      <c r="B49" s="191"/>
-      <c r="C49" s="192"/>
+      <c r="A49" s="199"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="196"/>
       <c r="D49" s="24" t="s">
         <v>250</v>
       </c>
@@ -11619,13 +11672,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="189">
+      <c r="A50" s="193">
         <v>12</v>
       </c>
-      <c r="B50" s="187">
+      <c r="B50" s="191">
         <v>41449</v>
       </c>
-      <c r="C50" s="188" t="s">
+      <c r="C50" s="192" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="28" t="s">
@@ -11642,9 +11695,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="189"/>
-      <c r="B51" s="187"/>
-      <c r="C51" s="188"/>
+      <c r="A51" s="193"/>
+      <c r="B51" s="191"/>
+      <c r="C51" s="192"/>
       <c r="D51" s="28" t="s">
         <v>263</v>
       </c>
@@ -11659,9 +11712,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="189"/>
-      <c r="B52" s="187"/>
-      <c r="C52" s="188"/>
+      <c r="A52" s="193"/>
+      <c r="B52" s="191"/>
+      <c r="C52" s="192"/>
       <c r="D52" s="28" t="s">
         <v>266</v>
       </c>
@@ -11676,9 +11729,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="189"/>
-      <c r="B53" s="187"/>
-      <c r="C53" s="188"/>
+      <c r="A53" s="193"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="192"/>
       <c r="D53" s="28" t="s">
         <v>268</v>
       </c>
@@ -11693,13 +11746,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="190">
+      <c r="A54" s="194">
         <v>13</v>
       </c>
-      <c r="B54" s="191">
+      <c r="B54" s="195">
         <v>41450</v>
       </c>
-      <c r="C54" s="186" t="s">
+      <c r="C54" s="190" t="s">
         <v>149</v>
       </c>
       <c r="D54" s="24" t="s">
@@ -11716,9 +11769,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="190"/>
-      <c r="B55" s="191"/>
-      <c r="C55" s="186"/>
+      <c r="A55" s="194"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="190"/>
       <c r="D55" s="24" t="s">
         <v>273</v>
       </c>
@@ -11733,9 +11786,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="190"/>
-      <c r="B56" s="191"/>
-      <c r="C56" s="186"/>
+      <c r="A56" s="194"/>
+      <c r="B56" s="195"/>
+      <c r="C56" s="190"/>
       <c r="D56" s="24" t="s">
         <v>276</v>
       </c>
@@ -11750,9 +11803,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="190"/>
-      <c r="B57" s="191"/>
-      <c r="C57" s="186"/>
+      <c r="A57" s="194"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="190"/>
       <c r="D57" s="24" t="s">
         <v>279</v>
       </c>
@@ -11767,13 +11820,13 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="189">
+      <c r="A58" s="193">
         <v>14</v>
       </c>
-      <c r="B58" s="187">
+      <c r="B58" s="191">
         <v>41451</v>
       </c>
-      <c r="C58" s="188" t="s">
+      <c r="C58" s="192" t="s">
         <v>150</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -11790,9 +11843,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="189"/>
-      <c r="B59" s="187"/>
-      <c r="C59" s="188"/>
+      <c r="A59" s="193"/>
+      <c r="B59" s="191"/>
+      <c r="C59" s="192"/>
       <c r="D59" s="28" t="s">
         <v>287</v>
       </c>
@@ -11807,14 +11860,14 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="189"/>
-      <c r="B60" s="187"/>
-      <c r="C60" s="188"/>
+      <c r="A60" s="193"/>
+      <c r="B60" s="191"/>
+      <c r="C60" s="192"/>
       <c r="D60" s="28" t="s">
         <v>290</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F60" s="59" t="s">
         <v>291</v>
@@ -11846,8 +11899,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="185" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="185" t="s">
+    <row r="63" spans="1:7" s="189" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="189" t="s">
         <v>520</v>
       </c>
     </row>
@@ -11964,7 +12017,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>165</v>
@@ -11978,7 +12031,7 @@
         <v>410</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>133</v>
@@ -11995,7 +12048,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12003,7 +12056,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>15</v>
@@ -12034,7 +12087,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D9" s="147" t="s">
         <v>132</v>
@@ -12051,7 +12104,7 @@
         <v>127</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12062,7 +12115,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>298</v>
@@ -12076,10 +12129,10 @@
         <v>128</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12090,10 +12143,10 @@
         <v>155</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12101,7 +12154,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C14" s="70" t="s">
         <v>136</v>
@@ -12118,7 +12171,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D15" s="69"/>
     </row>
@@ -12154,7 +12207,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D18" s="69"/>
     </row>
@@ -12166,7 +12219,7 @@
         <v>137</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D19" s="69"/>
     </row>
@@ -12175,7 +12228,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>3</v>
@@ -12187,7 +12240,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C21" s="70" t="s">
         <v>443</v>
@@ -12202,7 +12255,7 @@
         <v>297</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D22" s="126"/>
     </row>
@@ -12223,7 +12276,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="134" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C24" s="67" t="s">
         <v>17</v>
@@ -12235,7 +12288,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C25" s="67" t="s">
         <v>374</v>
@@ -12250,7 +12303,7 @@
         <v>138</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D26" s="126"/>
     </row>
@@ -12278,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
@@ -12286,7 +12339,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12294,7 +12347,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12302,47 +12355,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="189">
+      <c r="A5" s="193">
         <v>4</v>
       </c>
       <c r="B5" s="97" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="193"/>
+      <c r="B6" s="81" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="193"/>
+      <c r="B7" s="81" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="193">
+        <v>5</v>
+      </c>
+      <c r="B8" s="97" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="189"/>
-      <c r="B6" s="81" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
-      <c r="B7" s="81" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="189">
-        <v>5</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>593</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="81" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="81" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="128.25" x14ac:dyDescent="0.25">
@@ -12350,21 +12403,21 @@
         <v>6</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="189">
+      <c r="A12" s="193">
         <v>7</v>
       </c>
       <c r="B12" s="81" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="193"/>
+      <c r="B13" s="81" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
-      <c r="B13" s="81" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12380,7 +12433,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12388,7 +12441,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12396,7 +12449,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="141" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12404,7 +12457,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="141" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12412,7 +12465,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12420,7 +12473,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="123" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="77.25" x14ac:dyDescent="0.25">
@@ -12428,7 +12481,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12444,7 +12497,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="123" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -12452,7 +12505,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -12460,7 +12513,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -12468,7 +12521,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12476,7 +12529,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -12572,7 +12625,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -12624,7 +12677,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -12636,69 +12689,69 @@
         <v>6</v>
       </c>
       <c r="B49" s="62" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="201" t="s">
+        <v>568</v>
+      </c>
+      <c r="B50" s="116" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="202"/>
+      <c r="B51" s="116" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="197" t="s">
-        <v>569</v>
-      </c>
-      <c r="B50" s="116" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="198"/>
-      <c r="B51" s="116" t="s">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="202"/>
+      <c r="B52" s="116" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="198"/>
-      <c r="B52" s="116" t="s">
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="203"/>
+      <c r="B53" s="116" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
-      <c r="B53" s="116" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="133" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="118" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="196" t="s">
+      <c r="A56" s="200" t="s">
+        <v>578</v>
+      </c>
+      <c r="B56" s="116" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="200"/>
+      <c r="B57" s="116" t="s">
         <v>579</v>
       </c>
-      <c r="B56" s="116" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="200"/>
+      <c r="B58" s="117" t="s">
         <v>581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="196"/>
-      <c r="B57" s="116" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="196"/>
-      <c r="B58" s="117" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -12840,7 +12893,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12848,7 +12901,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12864,7 +12917,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12872,7 +12925,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12880,7 +12933,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12888,7 +12941,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39" x14ac:dyDescent="0.25">
@@ -12896,7 +12949,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12904,7 +12957,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -12912,7 +12965,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12920,7 +12973,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13003,10 +13056,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="204"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -13195,10 +13248,10 @@
       <c r="D15" s="77"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="200"/>
+      <c r="B16" s="204"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
@@ -13439,10 +13492,10 @@
       <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="200"/>
+      <c r="B34" s="204"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
@@ -13665,10 +13718,10 @@
       <c r="D50" s="77"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="200" t="s">
+      <c r="A52" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="200"/>
+      <c r="B52" s="204"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
@@ -13887,10 +13940,10 @@
       <c r="D68" s="77"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="200" t="s">
+      <c r="A69" s="204" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="200"/>
+      <c r="B69" s="204"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">

--- a/june-2019/references/leh-itinerary-detailed.xlsx
+++ b/june-2019/references/leh-itinerary-detailed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\travel\june-2019\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97F0328-2E26-44B9-B435-5AB7B405B672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70059F1C-D918-406A-BE98-D353D7C5D450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4343,13 +4343,7 @@
     <t>Total Distance</t>
   </si>
   <si>
-    <t>Ghaziabad - Panipat - Karnal - Pipli - Ambala - Khanna - Ludhiana - Jalandhar - Mukerian - Kathua - Samba - Jammu</t>
-  </si>
-  <si>
     <t>Route</t>
-  </si>
-  <si>
-    <t>Jammu - Udhampur - Patnitop - Batote - Ramban - Banihal - Qazigund - Khanabal - Srinagar</t>
   </si>
   <si>
     <t>Leh local</t>
@@ -4431,7 +4425,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Turtuk - Hunder - </t>
+      <t xml:space="preserve">Keylong - Biling- </t>
     </r>
     <r>
       <rPr>
@@ -4442,17 +4436,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Diskit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Khalsar - </t>
+      <t>Tandi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Sissu - Koksar - Gramphu - Rohtang pass - Marhi - Gulaba - Manali - Kullu - Mandi</t>
+    </r>
+  </si>
+  <si>
+    <t>Mandi - Bilaspur - Rupnagar - Ambala - Kurukshetra - Karnal- Panipat- Rai - Ghaziabad</t>
+  </si>
+  <si>
+    <t>Turtuk</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upshi - Kumdok - Kere - Chumthang - Mahe - Sumdo - Tso Kiagar – Karzok - </t>
     </r>
     <r>
       <rPr>
@@ -4463,64 +4468,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Agham</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Tangyar - Wari La - Tathok - Sakti - Karu - Upshi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Keylong - Biling- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tandi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Sissu - Koksar - Gramphu - Rohtang pass - Marhi - Gulaba - Manali - Kullu - Mandi</t>
-    </r>
-  </si>
-  <si>
-    <t>Mandi - Bilaspur - Rupnagar - Ambala - Kurukshetra - Karnal- Panipat- Rai - Ghaziabad</t>
-  </si>
-  <si>
-    <t>Turtuk</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Upshi - Kumdok - Kere - Chumthang - Mahe - Sumdo - Tso Kiagar – Karzok - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Tsomoriri Lake</t>
     </r>
   </si>
@@ -4529,10 +4476,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stay </t>
-  </si>
-  <si>
-    <t>Jammu,
-Kud</t>
   </si>
   <si>
     <r>
@@ -4569,79 +4512,8 @@
     <t>Kullu, Mandi</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Karu,
 Upshi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Srinagar – Wayul - Manigam - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gund</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sonamarg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Zozi La – Drass – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kargil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <r>
@@ -4799,6 +4671,154 @@
   </si>
   <si>
     <t xml:space="preserve">Alt. </t>
+  </si>
+  <si>
+    <t>Karzok</t>
+  </si>
+  <si>
+    <t>Ghaziabad - Panipat - Karnal - Pipli - Ambala - Khanna - Ludhiana - Jalandhar - Mukerian - Kathua - Samba - Udhampur</t>
+  </si>
+  <si>
+    <t>Udhampur - Patnitop - Batote - Ramban - Banihal - Qazigund - Khanabal - Srinagar</t>
+  </si>
+  <si>
+    <t>Samba,
+Udhampur</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turtuk - Hunder - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diskit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Khalsar - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agham</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Tangyar - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wari La</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Tathok - Sakti - Karu - Upshi (If Wari-la not open, use Khardungla route)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Srinagar – Wayul - Manigam - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gund</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sonamarg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Zozi La – Drass – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kargil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (from sonamarg traffic is allowed between 1 to 5 pm only)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5692,6 +5712,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5701,15 +5730,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5719,29 +5739,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6632,21 +6652,21 @@
   <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="2" width="4.28515625" style="172" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="172" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="174" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" style="175" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
@@ -6664,19 +6684,19 @@
         <v>140</v>
       </c>
       <c r="F1" s="171" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G1" s="171" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="H1" s="156" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I1" s="171" t="s">
         <v>295</v>
       </c>
       <c r="J1" s="157" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6690,25 +6710,25 @@
         <v>706</v>
       </c>
       <c r="E2" s="149" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="F2" s="149">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="G2" s="150">
         <v>980</v>
       </c>
       <c r="H2" s="149" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="I2" s="149" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J2" s="151" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="152">
         <v>2</v>
       </c>
@@ -6716,13 +6736,13 @@
         <v>43618</v>
       </c>
       <c r="D3" s="155" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="E3" s="155" t="s">
         <v>152</v>
       </c>
       <c r="F3" s="153">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="G3" s="153">
         <v>6640</v>
@@ -6731,13 +6751,13 @@
         <v>143</v>
       </c>
       <c r="I3" s="153" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="152">
         <v>3</v>
       </c>
@@ -6760,10 +6780,10 @@
         <v>144</v>
       </c>
       <c r="I4" s="155" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6789,10 +6809,10 @@
         <v>145</v>
       </c>
       <c r="I5" s="155" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="J5" s="154" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -6806,7 +6826,7 @@
         <v>145</v>
       </c>
       <c r="E6" s="155" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F6" s="153">
         <v>20</v>
@@ -6818,10 +6838,10 @@
         <v>145</v>
       </c>
       <c r="I6" s="153" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J6" s="154" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6835,7 +6855,7 @@
         <v>145</v>
       </c>
       <c r="E7" s="155" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F7" s="153">
         <v>250</v>
@@ -6844,16 +6864,16 @@
         <v>14271</v>
       </c>
       <c r="H7" s="155" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I7" s="155" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="J7" s="154" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" s="152">
         <v>7</v>
       </c>
@@ -6861,25 +6881,25 @@
         <v>43623</v>
       </c>
       <c r="D8" s="155" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E8" s="155" t="s">
         <v>342</v>
       </c>
       <c r="F8" s="153">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G8" s="153">
         <v>17582</v>
       </c>
       <c r="H8" s="155" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I8" s="155" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J8" s="154" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -6902,13 +6922,13 @@
         <v>14836</v>
       </c>
       <c r="H9" s="155" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="I9" s="153" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="J9" s="154" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="M9" s="35"/>
     </row>
@@ -6932,13 +6952,13 @@
         <v>15600</v>
       </c>
       <c r="H10" s="155" t="s">
+        <v>720</v>
+      </c>
+      <c r="I10" s="153" t="s">
+        <v>726</v>
+      </c>
+      <c r="J10" s="154" t="s">
         <v>724</v>
-      </c>
-      <c r="I10" s="153" t="s">
-        <v>732</v>
-      </c>
-      <c r="J10" s="154" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -6961,13 +6981,13 @@
         <v>10140</v>
       </c>
       <c r="H11" s="155" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I11" s="153" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="J11" s="154" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -6990,16 +7010,16 @@
         <v>10100</v>
       </c>
       <c r="H12" s="155" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="I12" s="155" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="J12" s="154" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="158">
         <v>12</v>
       </c>
@@ -7022,10 +7042,10 @@
         <v>161</v>
       </c>
       <c r="I13" s="160" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J13" s="161" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7037,10 +7057,10 @@
       <c r="E14" s="177"/>
       <c r="F14" s="162">
         <f>SUM(F2:F13)</f>
-        <v>3045</v>
+        <v>3002</v>
       </c>
       <c r="G14" s="178" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H14" s="178"/>
       <c r="I14" s="178"/>
@@ -7157,7 +7177,7 @@
         <f>SUM(D3,E2)</f>
         <v>112</v>
       </c>
-      <c r="F3" s="180" t="s">
+      <c r="F3" s="183" t="s">
         <v>638</v>
       </c>
       <c r="G3" s="29"/>
@@ -7176,7 +7196,7 @@
         <f>SUM(D4,E3)</f>
         <v>148</v>
       </c>
-      <c r="F4" s="181"/>
+      <c r="F4" s="184"/>
       <c r="G4" s="29"/>
       <c r="H4" s="7"/>
     </row>
@@ -7193,7 +7213,7 @@
         <f t="shared" ref="E5:E68" si="0">SUM(D5,E4)</f>
         <v>183</v>
       </c>
-      <c r="F5" s="181"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="29"/>
       <c r="H5" s="7"/>
     </row>
@@ -7210,7 +7230,7 @@
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="F6" s="181"/>
+      <c r="F6" s="184"/>
       <c r="G6" s="29"/>
       <c r="H6" s="7"/>
     </row>
@@ -7227,7 +7247,7 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F7" s="181"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="29"/>
       <c r="H7" s="7"/>
     </row>
@@ -7244,7 +7264,7 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="F8" s="182"/>
+      <c r="F8" s="185"/>
       <c r="G8" s="29"/>
       <c r="H8" s="7"/>
     </row>
@@ -7284,7 +7304,7 @@
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="F10" s="180" t="s">
+      <c r="F10" s="183" t="s">
         <v>640</v>
       </c>
       <c r="G10" s="29"/>
@@ -7303,7 +7323,7 @@
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="F11" s="181"/>
+      <c r="F11" s="184"/>
       <c r="G11" s="29"/>
       <c r="H11" s="7"/>
     </row>
@@ -7320,7 +7340,7 @@
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
-      <c r="F12" s="181"/>
+      <c r="F12" s="184"/>
       <c r="G12" s="29"/>
       <c r="H12" s="7"/>
     </row>
@@ -7337,7 +7357,7 @@
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="F13" s="181"/>
+      <c r="F13" s="184"/>
       <c r="G13" s="29"/>
       <c r="H13" s="7"/>
     </row>
@@ -7354,7 +7374,7 @@
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="F14" s="181"/>
+      <c r="F14" s="184"/>
       <c r="G14" s="29" t="s">
         <v>627</v>
       </c>
@@ -7373,7 +7393,7 @@
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="F15" s="181"/>
+      <c r="F15" s="184"/>
       <c r="G15" s="103"/>
       <c r="H15" s="9"/>
     </row>
@@ -7390,7 +7410,7 @@
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="F16" s="181"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="29"/>
       <c r="H16" s="7"/>
     </row>
@@ -7407,7 +7427,7 @@
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="184"/>
       <c r="G17" s="29"/>
       <c r="H17" s="7"/>
     </row>
@@ -7424,7 +7444,7 @@
         <f t="shared" si="0"/>
         <v>769</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="185"/>
       <c r="G18" s="29"/>
       <c r="H18" s="7"/>
     </row>
@@ -7466,7 +7486,7 @@
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
-      <c r="F20" s="180" t="s">
+      <c r="F20" s="183" t="s">
         <v>644</v>
       </c>
       <c r="G20" s="29"/>
@@ -7485,7 +7505,7 @@
         <f t="shared" si="0"/>
         <v>803</v>
       </c>
-      <c r="F21" s="181"/>
+      <c r="F21" s="184"/>
       <c r="G21" s="29"/>
       <c r="H21" s="7"/>
     </row>
@@ -7502,7 +7522,7 @@
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="F22" s="181"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="29"/>
       <c r="H22" s="7"/>
     </row>
@@ -7519,7 +7539,7 @@
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
-      <c r="F23" s="181"/>
+      <c r="F23" s="184"/>
       <c r="G23" s="29"/>
       <c r="H23" s="7"/>
     </row>
@@ -7536,7 +7556,7 @@
         <f t="shared" si="0"/>
         <v>854</v>
       </c>
-      <c r="F24" s="181"/>
+      <c r="F24" s="184"/>
       <c r="G24" s="29"/>
       <c r="H24" s="7"/>
     </row>
@@ -7553,7 +7573,7 @@
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
-      <c r="F25" s="181"/>
+      <c r="F25" s="184"/>
       <c r="G25" s="29"/>
       <c r="H25" s="7"/>
     </row>
@@ -7570,7 +7590,7 @@
         <f t="shared" si="0"/>
         <v>895</v>
       </c>
-      <c r="F26" s="181"/>
+      <c r="F26" s="184"/>
       <c r="G26" s="29" t="s">
         <v>589</v>
       </c>
@@ -7589,7 +7609,7 @@
         <f t="shared" si="0"/>
         <v>912</v>
       </c>
-      <c r="F27" s="181"/>
+      <c r="F27" s="184"/>
       <c r="G27" s="29"/>
       <c r="H27" s="7"/>
     </row>
@@ -7606,7 +7626,7 @@
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="F28" s="181"/>
+      <c r="F28" s="184"/>
       <c r="G28" s="29"/>
       <c r="H28" s="7"/>
     </row>
@@ -7623,7 +7643,7 @@
         <f t="shared" si="0"/>
         <v>951</v>
       </c>
-      <c r="F29" s="181"/>
+      <c r="F29" s="184"/>
       <c r="G29" s="29"/>
       <c r="H29" s="7"/>
     </row>
@@ -7640,7 +7660,7 @@
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="F30" s="182"/>
+      <c r="F30" s="185"/>
       <c r="G30" s="29"/>
       <c r="H30" s="7"/>
     </row>
@@ -7682,7 +7702,7 @@
         <f t="shared" si="0"/>
         <v>967</v>
       </c>
-      <c r="F32" s="183" t="s">
+      <c r="F32" s="180" t="s">
         <v>645</v>
       </c>
       <c r="G32" s="104"/>
@@ -7701,7 +7721,7 @@
         <f t="shared" si="0"/>
         <v>971</v>
       </c>
-      <c r="F33" s="184"/>
+      <c r="F33" s="181"/>
       <c r="G33" s="29"/>
       <c r="H33" s="7"/>
     </row>
@@ -7718,7 +7738,7 @@
         <f t="shared" si="0"/>
         <v>972</v>
       </c>
-      <c r="F34" s="184"/>
+      <c r="F34" s="181"/>
       <c r="G34" s="29"/>
       <c r="H34" s="7"/>
     </row>
@@ -7735,7 +7755,7 @@
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="F35" s="184"/>
+      <c r="F35" s="181"/>
       <c r="G35" s="29"/>
       <c r="H35" s="7"/>
     </row>
@@ -7752,7 +7772,7 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="F36" s="184"/>
+      <c r="F36" s="181"/>
       <c r="G36" s="29"/>
       <c r="H36" s="7"/>
     </row>
@@ -7769,7 +7789,7 @@
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
-      <c r="F37" s="184"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="29"/>
       <c r="H37" s="7"/>
     </row>
@@ -7786,7 +7806,7 @@
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="F38" s="184"/>
+      <c r="F38" s="181"/>
       <c r="G38" s="29"/>
       <c r="H38" s="7"/>
     </row>
@@ -7803,7 +7823,7 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="F39" s="184"/>
+      <c r="F39" s="181"/>
       <c r="G39" s="29"/>
       <c r="H39" s="7"/>
     </row>
@@ -7820,7 +7840,7 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="F40" s="184"/>
+      <c r="F40" s="181"/>
       <c r="G40" s="29" t="s">
         <v>509</v>
       </c>
@@ -7839,7 +7859,7 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="F41" s="184"/>
+      <c r="F41" s="181"/>
       <c r="G41" s="29"/>
       <c r="H41" s="7"/>
     </row>
@@ -7856,7 +7876,7 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="F42" s="184"/>
+      <c r="F42" s="181"/>
       <c r="G42" s="29" t="s">
         <v>686</v>
       </c>
@@ -7875,7 +7895,7 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="F43" s="184"/>
+      <c r="F43" s="181"/>
       <c r="G43" s="105"/>
       <c r="H43" s="11"/>
     </row>
@@ -7892,7 +7912,7 @@
         <f t="shared" si="0"/>
         <v>1074</v>
       </c>
-      <c r="F44" s="184"/>
+      <c r="F44" s="181"/>
       <c r="G44" s="29" t="s">
         <v>522</v>
       </c>
@@ -7911,7 +7931,7 @@
         <f t="shared" si="0"/>
         <v>1091</v>
       </c>
-      <c r="F45" s="184"/>
+      <c r="F45" s="181"/>
       <c r="G45" s="29"/>
       <c r="H45" s="7"/>
     </row>
@@ -7928,7 +7948,7 @@
         <f t="shared" si="0"/>
         <v>1112</v>
       </c>
-      <c r="F46" s="184"/>
+      <c r="F46" s="181"/>
       <c r="G46" s="29" t="s">
         <v>630</v>
       </c>
@@ -7947,7 +7967,7 @@
         <f t="shared" si="0"/>
         <v>1136</v>
       </c>
-      <c r="F47" s="184"/>
+      <c r="F47" s="181"/>
       <c r="G47" s="29"/>
       <c r="H47" s="7"/>
     </row>
@@ -7964,7 +7984,7 @@
         <f t="shared" si="0"/>
         <v>1155</v>
       </c>
-      <c r="F48" s="185"/>
+      <c r="F48" s="182"/>
       <c r="G48" s="29"/>
       <c r="H48" s="7"/>
     </row>
@@ -8006,7 +8026,7 @@
         <f t="shared" si="0"/>
         <v>1189</v>
       </c>
-      <c r="F50" s="180" t="s">
+      <c r="F50" s="183" t="s">
         <v>646</v>
       </c>
       <c r="G50" s="29"/>
@@ -8025,7 +8045,7 @@
         <f t="shared" si="0"/>
         <v>1191</v>
       </c>
-      <c r="F51" s="181"/>
+      <c r="F51" s="184"/>
       <c r="G51" s="29"/>
       <c r="H51" s="7"/>
     </row>
@@ -8042,7 +8062,7 @@
         <f t="shared" si="0"/>
         <v>1209</v>
       </c>
-      <c r="F52" s="181"/>
+      <c r="F52" s="184"/>
       <c r="G52" s="29"/>
       <c r="H52" s="7"/>
     </row>
@@ -8059,7 +8079,7 @@
         <f t="shared" si="0"/>
         <v>1215</v>
       </c>
-      <c r="F53" s="181"/>
+      <c r="F53" s="184"/>
       <c r="G53" s="29" t="s">
         <v>509</v>
       </c>
@@ -8078,7 +8098,7 @@
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="F54" s="181"/>
+      <c r="F54" s="184"/>
       <c r="G54" s="29"/>
       <c r="H54" s="7"/>
     </row>
@@ -8095,7 +8115,7 @@
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
-      <c r="F55" s="181"/>
+      <c r="F55" s="184"/>
       <c r="G55" s="29"/>
       <c r="H55" s="7"/>
     </row>
@@ -8112,7 +8132,7 @@
         <f t="shared" si="0"/>
         <v>1247</v>
       </c>
-      <c r="F56" s="181"/>
+      <c r="F56" s="184"/>
       <c r="G56" s="29"/>
       <c r="H56" s="7"/>
     </row>
@@ -8129,7 +8149,7 @@
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="F57" s="181"/>
+      <c r="F57" s="184"/>
       <c r="G57" s="29"/>
       <c r="H57" s="7"/>
     </row>
@@ -8146,7 +8166,7 @@
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
-      <c r="F58" s="181"/>
+      <c r="F58" s="184"/>
       <c r="G58" s="29"/>
       <c r="H58" s="7"/>
     </row>
@@ -8163,7 +8183,7 @@
         <f t="shared" si="0"/>
         <v>1283</v>
       </c>
-      <c r="F59" s="181"/>
+      <c r="F59" s="184"/>
       <c r="G59" s="105" t="s">
         <v>507</v>
       </c>
@@ -8182,7 +8202,7 @@
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="F60" s="181"/>
+      <c r="F60" s="184"/>
       <c r="G60" s="29"/>
       <c r="H60" s="7"/>
     </row>
@@ -8199,7 +8219,7 @@
         <f t="shared" si="0"/>
         <v>1315</v>
       </c>
-      <c r="F61" s="181"/>
+      <c r="F61" s="184"/>
       <c r="G61" s="29"/>
       <c r="H61" s="7"/>
     </row>
@@ -8216,7 +8236,7 @@
         <f t="shared" si="0"/>
         <v>1341</v>
       </c>
-      <c r="F62" s="181"/>
+      <c r="F62" s="184"/>
       <c r="G62" s="29"/>
       <c r="H62" s="7"/>
     </row>
@@ -8233,7 +8253,7 @@
         <f t="shared" si="0"/>
         <v>1362</v>
       </c>
-      <c r="F63" s="181"/>
+      <c r="F63" s="184"/>
       <c r="G63" s="29"/>
       <c r="H63" s="7"/>
     </row>
@@ -8250,7 +8270,7 @@
         <f t="shared" si="0"/>
         <v>1367</v>
       </c>
-      <c r="F64" s="181"/>
+      <c r="F64" s="184"/>
       <c r="G64" s="29" t="s">
         <v>534</v>
       </c>
@@ -8269,7 +8289,7 @@
         <f t="shared" si="0"/>
         <v>1374</v>
       </c>
-      <c r="F65" s="181"/>
+      <c r="F65" s="184"/>
       <c r="G65" s="29" t="s">
         <v>605</v>
       </c>
@@ -8288,7 +8308,7 @@
         <f t="shared" si="0"/>
         <v>1394</v>
       </c>
-      <c r="F66" s="182"/>
+      <c r="F66" s="185"/>
       <c r="G66" s="29" t="s">
         <v>535</v>
       </c>
@@ -8332,7 +8352,7 @@
         <f t="shared" si="0"/>
         <v>1427</v>
       </c>
-      <c r="F68" s="180" t="s">
+      <c r="F68" s="183" t="s">
         <v>647</v>
       </c>
       <c r="G68" s="29"/>
@@ -8351,7 +8371,7 @@
         <f t="shared" ref="E69:E134" si="1">SUM(D69,E68)</f>
         <v>1441</v>
       </c>
-      <c r="F69" s="181"/>
+      <c r="F69" s="184"/>
       <c r="G69" s="29" t="s">
         <v>510</v>
       </c>
@@ -8370,7 +8390,7 @@
         <f t="shared" si="1"/>
         <v>1457</v>
       </c>
-      <c r="F70" s="181"/>
+      <c r="F70" s="184"/>
       <c r="G70" s="29"/>
       <c r="H70" s="7"/>
     </row>
@@ -8387,7 +8407,7 @@
         <f t="shared" si="1"/>
         <v>1474</v>
       </c>
-      <c r="F71" s="181"/>
+      <c r="F71" s="184"/>
       <c r="G71" s="29"/>
       <c r="H71" s="7"/>
     </row>
@@ -8404,7 +8424,7 @@
         <f t="shared" si="1"/>
         <v>1496</v>
       </c>
-      <c r="F72" s="181"/>
+      <c r="F72" s="184"/>
       <c r="G72" s="29"/>
       <c r="H72" s="7"/>
     </row>
@@ -8421,7 +8441,7 @@
         <f t="shared" si="1"/>
         <v>1519</v>
       </c>
-      <c r="F73" s="182"/>
+      <c r="F73" s="185"/>
       <c r="G73" s="29" t="s">
         <v>587</v>
       </c>
@@ -8711,7 +8731,7 @@
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="F89" s="180" t="s">
+      <c r="F89" s="183" t="s">
         <v>648</v>
       </c>
       <c r="G89" s="28"/>
@@ -8729,7 +8749,7 @@
         <f t="shared" si="1"/>
         <v>1757</v>
       </c>
-      <c r="F90" s="181"/>
+      <c r="F90" s="184"/>
       <c r="G90" s="28" t="s">
         <v>564</v>
       </c>
@@ -8747,7 +8767,7 @@
         <f t="shared" si="1"/>
         <v>1763</v>
       </c>
-      <c r="F91" s="181"/>
+      <c r="F91" s="184"/>
       <c r="G91" s="28" t="s">
         <v>511</v>
       </c>
@@ -8765,7 +8785,7 @@
         <f t="shared" si="1"/>
         <v>1779</v>
       </c>
-      <c r="F92" s="181"/>
+      <c r="F92" s="184"/>
       <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
@@ -8781,7 +8801,7 @@
         <f t="shared" si="1"/>
         <v>1786</v>
       </c>
-      <c r="F93" s="181"/>
+      <c r="F93" s="184"/>
       <c r="G93" s="28" t="s">
         <v>665</v>
       </c>
@@ -8799,7 +8819,7 @@
         <f t="shared" si="1"/>
         <v>1793</v>
       </c>
-      <c r="F94" s="181"/>
+      <c r="F94" s="184"/>
       <c r="G94" s="28" t="s">
         <v>531</v>
       </c>
@@ -8817,7 +8837,7 @@
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="F95" s="181"/>
+      <c r="F95" s="184"/>
       <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -8833,7 +8853,7 @@
         <f t="shared" si="1"/>
         <v>1838</v>
       </c>
-      <c r="F96" s="181"/>
+      <c r="F96" s="184"/>
       <c r="G96" s="28" t="s">
         <v>512</v>
       </c>
@@ -8851,7 +8871,7 @@
         <f t="shared" si="1"/>
         <v>1870</v>
       </c>
-      <c r="F97" s="181"/>
+      <c r="F97" s="184"/>
       <c r="G97" s="28"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8867,7 +8887,7 @@
         <f t="shared" si="1"/>
         <v>1879</v>
       </c>
-      <c r="F98" s="181"/>
+      <c r="F98" s="184"/>
       <c r="G98" s="28"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -8883,7 +8903,7 @@
         <f t="shared" si="1"/>
         <v>1903</v>
       </c>
-      <c r="F99" s="181"/>
+      <c r="F99" s="184"/>
       <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8899,7 +8919,7 @@
         <f t="shared" si="1"/>
         <v>1923</v>
       </c>
-      <c r="F100" s="182"/>
+      <c r="F100" s="185"/>
       <c r="G100" s="28"/>
     </row>
     <row r="101" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
@@ -8939,7 +8959,7 @@
         <f t="shared" si="1"/>
         <v>1925</v>
       </c>
-      <c r="F102" s="183" t="s">
+      <c r="F102" s="180" t="s">
         <v>649</v>
       </c>
       <c r="G102" s="28"/>
@@ -8957,7 +8977,7 @@
         <f t="shared" si="1"/>
         <v>1945</v>
       </c>
-      <c r="F103" s="184"/>
+      <c r="F103" s="181"/>
       <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8973,7 +8993,7 @@
         <f t="shared" si="1"/>
         <v>1969</v>
       </c>
-      <c r="F104" s="184"/>
+      <c r="F104" s="181"/>
       <c r="G104" s="28" t="s">
         <v>513</v>
       </c>
@@ -8991,7 +9011,7 @@
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="F105" s="184"/>
+      <c r="F105" s="181"/>
       <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9007,7 +9027,7 @@
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="F106" s="184"/>
+      <c r="F106" s="181"/>
       <c r="G106" s="28"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9023,7 +9043,7 @@
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="F107" s="184"/>
+      <c r="F107" s="181"/>
       <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9039,7 +9059,7 @@
         <f t="shared" si="1"/>
         <v>2055</v>
       </c>
-      <c r="F108" s="184"/>
+      <c r="F108" s="181"/>
       <c r="G108" s="28" t="s">
         <v>532</v>
       </c>
@@ -9057,7 +9077,7 @@
         <f t="shared" si="1"/>
         <v>2068</v>
       </c>
-      <c r="F109" s="184"/>
+      <c r="F109" s="181"/>
       <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9073,7 +9093,7 @@
         <f t="shared" si="1"/>
         <v>2082</v>
       </c>
-      <c r="F110" s="184"/>
+      <c r="F110" s="181"/>
       <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9089,7 +9109,7 @@
         <f t="shared" si="1"/>
         <v>2091</v>
       </c>
-      <c r="F111" s="184"/>
+      <c r="F111" s="181"/>
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9105,7 +9125,7 @@
         <f t="shared" si="1"/>
         <v>2095</v>
       </c>
-      <c r="F112" s="184"/>
+      <c r="F112" s="181"/>
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9121,7 +9141,7 @@
         <f t="shared" si="1"/>
         <v>2098</v>
       </c>
-      <c r="F113" s="184"/>
+      <c r="F113" s="181"/>
       <c r="G113" s="28" t="s">
         <v>636</v>
       </c>
@@ -9139,7 +9159,7 @@
         <f>SUM(D114,E113)</f>
         <v>2130</v>
       </c>
-      <c r="F114" s="184"/>
+      <c r="F114" s="181"/>
       <c r="G114" s="28" t="s">
         <v>610</v>
       </c>
@@ -9157,7 +9177,7 @@
         <f>SUM(D115,E114)</f>
         <v>2144</v>
       </c>
-      <c r="F115" s="185"/>
+      <c r="F115" s="182"/>
       <c r="G115" s="28" t="s">
         <v>658</v>
       </c>
@@ -9199,7 +9219,7 @@
         <f t="shared" si="1"/>
         <v>2218</v>
       </c>
-      <c r="F117" s="183" t="s">
+      <c r="F117" s="180" t="s">
         <v>650</v>
       </c>
       <c r="G117" s="28" t="s">
@@ -9219,7 +9239,7 @@
         <f>SUM(D118,E117)</f>
         <v>2263</v>
       </c>
-      <c r="F118" s="184"/>
+      <c r="F118" s="181"/>
       <c r="G118" s="29" t="s">
         <v>626</v>
       </c>
@@ -9237,7 +9257,7 @@
         <f>SUM(D119,E118)</f>
         <v>2273</v>
       </c>
-      <c r="F119" s="184"/>
+      <c r="F119" s="181"/>
       <c r="G119" s="29" t="s">
         <v>615</v>
       </c>
@@ -9255,7 +9275,7 @@
         <f t="shared" si="1"/>
         <v>2282</v>
       </c>
-      <c r="F120" s="184"/>
+      <c r="F120" s="181"/>
       <c r="G120" s="28"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -9271,7 +9291,7 @@
         <f t="shared" si="1"/>
         <v>2293</v>
       </c>
-      <c r="F121" s="184"/>
+      <c r="F121" s="181"/>
       <c r="G121" s="28"/>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9287,7 +9307,7 @@
         <f t="shared" si="1"/>
         <v>2306</v>
       </c>
-      <c r="F122" s="184"/>
+      <c r="F122" s="181"/>
       <c r="G122" s="28" t="s">
         <v>614</v>
       </c>
@@ -9305,7 +9325,7 @@
         <f t="shared" si="1"/>
         <v>2327</v>
       </c>
-      <c r="F123" s="184"/>
+      <c r="F123" s="181"/>
       <c r="G123" s="28" t="s">
         <v>623</v>
       </c>
@@ -9323,7 +9343,7 @@
         <f t="shared" si="1"/>
         <v>2349</v>
       </c>
-      <c r="F124" s="184"/>
+      <c r="F124" s="181"/>
       <c r="G124" s="28" t="s">
         <v>618</v>
       </c>
@@ -9341,7 +9361,7 @@
         <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="F125" s="184"/>
+      <c r="F125" s="181"/>
       <c r="G125" s="28" t="s">
         <v>617</v>
       </c>
@@ -9359,7 +9379,7 @@
         <f t="shared" si="1"/>
         <v>2376</v>
       </c>
-      <c r="F126" s="185"/>
+      <c r="F126" s="182"/>
       <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -9399,7 +9419,7 @@
         <f t="shared" si="1"/>
         <v>2392</v>
       </c>
-      <c r="F128" s="183" t="s">
+      <c r="F128" s="180" t="s">
         <v>651</v>
       </c>
       <c r="G128" s="28" t="s">
@@ -9419,7 +9439,7 @@
         <f t="shared" si="1"/>
         <v>2399</v>
       </c>
-      <c r="F129" s="184"/>
+      <c r="F129" s="181"/>
       <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -9435,7 +9455,7 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F130" s="184"/>
+      <c r="F130" s="181"/>
       <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -9451,7 +9471,7 @@
         <f t="shared" si="1"/>
         <v>2406</v>
       </c>
-      <c r="F131" s="184"/>
+      <c r="F131" s="181"/>
       <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -9467,7 +9487,7 @@
         <f t="shared" si="1"/>
         <v>2408</v>
       </c>
-      <c r="F132" s="184"/>
+      <c r="F132" s="181"/>
       <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -9483,7 +9503,7 @@
         <f t="shared" si="1"/>
         <v>2409</v>
       </c>
-      <c r="F133" s="184"/>
+      <c r="F133" s="181"/>
       <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9499,7 +9519,7 @@
         <f t="shared" si="1"/>
         <v>2417</v>
       </c>
-      <c r="F134" s="184"/>
+      <c r="F134" s="181"/>
       <c r="G134" s="28" t="s">
         <v>622</v>
       </c>
@@ -9517,7 +9537,7 @@
         <f t="shared" ref="E135:E198" si="2">SUM(D135,E134)</f>
         <v>2431</v>
       </c>
-      <c r="F135" s="184"/>
+      <c r="F135" s="181"/>
       <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -9533,7 +9553,7 @@
         <f t="shared" si="2"/>
         <v>2432</v>
       </c>
-      <c r="F136" s="184"/>
+      <c r="F136" s="181"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9549,7 +9569,7 @@
         <f t="shared" si="2"/>
         <v>2437</v>
       </c>
-      <c r="F137" s="184"/>
+      <c r="F137" s="181"/>
       <c r="G137" s="109" t="s">
         <v>621</v>
       </c>
@@ -9567,7 +9587,7 @@
         <f t="shared" si="2"/>
         <v>2454</v>
       </c>
-      <c r="F138" s="184"/>
+      <c r="F138" s="181"/>
       <c r="G138" s="28"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -9583,7 +9603,7 @@
         <f t="shared" si="2"/>
         <v>2484</v>
       </c>
-      <c r="F139" s="184"/>
+      <c r="F139" s="181"/>
       <c r="G139" s="28"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -9599,7 +9619,7 @@
         <f t="shared" si="2"/>
         <v>2498</v>
       </c>
-      <c r="F140" s="184"/>
+      <c r="F140" s="181"/>
       <c r="G140" s="28"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -9615,7 +9635,7 @@
         <f t="shared" si="2"/>
         <v>2516</v>
       </c>
-      <c r="F141" s="184"/>
+      <c r="F141" s="181"/>
       <c r="G141" s="28"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -9631,7 +9651,7 @@
         <f t="shared" si="2"/>
         <v>2528</v>
       </c>
-      <c r="F142" s="184"/>
+      <c r="F142" s="181"/>
       <c r="G142" s="28"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -9647,7 +9667,7 @@
         <f t="shared" si="2"/>
         <v>2532</v>
       </c>
-      <c r="F143" s="184"/>
+      <c r="F143" s="181"/>
       <c r="G143" s="28"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -9663,7 +9683,7 @@
         <f t="shared" si="2"/>
         <v>2560</v>
       </c>
-      <c r="F144" s="184"/>
+      <c r="F144" s="181"/>
       <c r="G144" s="28"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -9679,7 +9699,7 @@
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
-      <c r="F145" s="185"/>
+      <c r="F145" s="182"/>
       <c r="G145" s="28"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -9717,7 +9737,7 @@
         <f t="shared" si="2"/>
         <v>2581</v>
       </c>
-      <c r="F147" s="183" t="s">
+      <c r="F147" s="180" t="s">
         <v>652</v>
       </c>
       <c r="G147" s="28"/>
@@ -9735,7 +9755,7 @@
         <f t="shared" si="2"/>
         <v>2587</v>
       </c>
-      <c r="F148" s="184"/>
+      <c r="F148" s="181"/>
       <c r="G148" s="28"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -9751,7 +9771,7 @@
         <f t="shared" si="2"/>
         <v>2592</v>
       </c>
-      <c r="F149" s="184"/>
+      <c r="F149" s="181"/>
       <c r="G149" s="28"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -9767,7 +9787,7 @@
         <f t="shared" si="2"/>
         <v>2617</v>
       </c>
-      <c r="F150" s="184"/>
+      <c r="F150" s="181"/>
       <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -9783,7 +9803,7 @@
         <f t="shared" si="2"/>
         <v>2621</v>
       </c>
-      <c r="F151" s="184"/>
+      <c r="F151" s="181"/>
       <c r="G151" s="28" t="s">
         <v>515</v>
       </c>
@@ -9801,7 +9821,7 @@
         <f t="shared" si="2"/>
         <v>2626</v>
       </c>
-      <c r="F152" s="184"/>
+      <c r="F152" s="181"/>
       <c r="G152" s="28"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -9817,7 +9837,7 @@
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="F153" s="184"/>
+      <c r="F153" s="181"/>
       <c r="G153" s="28"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -9833,7 +9853,7 @@
         <f t="shared" si="2"/>
         <v>2649</v>
       </c>
-      <c r="F154" s="184"/>
+      <c r="F154" s="181"/>
       <c r="G154" s="28" t="s">
         <v>516</v>
       </c>
@@ -9851,7 +9871,7 @@
         <f t="shared" si="2"/>
         <v>2657</v>
       </c>
-      <c r="F155" s="184"/>
+      <c r="F155" s="181"/>
       <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -9867,7 +9887,7 @@
         <f t="shared" si="2"/>
         <v>2684</v>
       </c>
-      <c r="F156" s="184"/>
+      <c r="F156" s="181"/>
       <c r="G156" s="28" t="s">
         <v>517</v>
       </c>
@@ -9885,7 +9905,7 @@
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="F157" s="184"/>
+      <c r="F157" s="181"/>
       <c r="G157" s="28"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -9901,7 +9921,7 @@
         <f t="shared" si="2"/>
         <v>2762</v>
       </c>
-      <c r="F158" s="184"/>
+      <c r="F158" s="181"/>
       <c r="G158" s="28"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -9917,7 +9937,7 @@
         <f t="shared" si="2"/>
         <v>2763</v>
       </c>
-      <c r="F159" s="184"/>
+      <c r="F159" s="181"/>
       <c r="G159" s="28"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -9933,7 +9953,7 @@
         <f t="shared" si="2"/>
         <v>2781</v>
       </c>
-      <c r="F160" s="184"/>
+      <c r="F160" s="181"/>
       <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -9949,7 +9969,7 @@
         <f t="shared" si="2"/>
         <v>2784</v>
       </c>
-      <c r="F161" s="184"/>
+      <c r="F161" s="181"/>
       <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -9965,7 +9985,7 @@
         <f t="shared" si="2"/>
         <v>2805</v>
       </c>
-      <c r="F162" s="185"/>
+      <c r="F162" s="182"/>
       <c r="G162" s="28" t="s">
         <v>509</v>
       </c>
@@ -10007,7 +10027,7 @@
         <f t="shared" si="2"/>
         <v>2823</v>
       </c>
-      <c r="F164" s="183" t="s">
+      <c r="F164" s="180" t="s">
         <v>653</v>
       </c>
       <c r="G164" s="28" t="s">
@@ -10027,7 +10047,7 @@
         <f t="shared" si="2"/>
         <v>2824</v>
       </c>
-      <c r="F165" s="184"/>
+      <c r="F165" s="181"/>
       <c r="G165" s="28"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -10043,7 +10063,7 @@
         <f t="shared" si="2"/>
         <v>2834</v>
       </c>
-      <c r="F166" s="184"/>
+      <c r="F166" s="181"/>
       <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -10059,7 +10079,7 @@
         <f t="shared" si="2"/>
         <v>2839</v>
       </c>
-      <c r="F167" s="184"/>
+      <c r="F167" s="181"/>
       <c r="G167" s="28"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -10075,7 +10095,7 @@
         <f t="shared" si="2"/>
         <v>2844</v>
       </c>
-      <c r="F168" s="184"/>
+      <c r="F168" s="181"/>
       <c r="G168" s="28" t="s">
         <v>509</v>
       </c>
@@ -10093,7 +10113,7 @@
         <f t="shared" si="2"/>
         <v>2854</v>
       </c>
-      <c r="F169" s="184"/>
+      <c r="F169" s="181"/>
       <c r="G169" s="28"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -10109,7 +10129,7 @@
         <f t="shared" si="2"/>
         <v>2891</v>
       </c>
-      <c r="F170" s="184"/>
+      <c r="F170" s="181"/>
       <c r="G170" s="28"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -10125,7 +10145,7 @@
         <f t="shared" si="2"/>
         <v>2902</v>
       </c>
-      <c r="F171" s="184"/>
+      <c r="F171" s="181"/>
       <c r="G171" s="28"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -10141,7 +10161,7 @@
         <f t="shared" si="2"/>
         <v>2923</v>
       </c>
-      <c r="F172" s="184"/>
+      <c r="F172" s="181"/>
       <c r="G172" s="103"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -10157,7 +10177,7 @@
         <f t="shared" si="2"/>
         <v>2941</v>
       </c>
-      <c r="F173" s="184"/>
+      <c r="F173" s="181"/>
       <c r="G173" s="28" t="s">
         <v>509</v>
       </c>
@@ -10175,7 +10195,7 @@
         <f t="shared" si="2"/>
         <v>2953</v>
       </c>
-      <c r="F174" s="184"/>
+      <c r="F174" s="181"/>
       <c r="G174" s="28"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -10191,7 +10211,7 @@
         <f t="shared" si="2"/>
         <v>2967</v>
       </c>
-      <c r="F175" s="184"/>
+      <c r="F175" s="181"/>
       <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -10207,7 +10227,7 @@
         <f t="shared" si="2"/>
         <v>2970</v>
       </c>
-      <c r="F176" s="184"/>
+      <c r="F176" s="181"/>
       <c r="G176" s="28"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -10223,7 +10243,7 @@
         <f t="shared" si="2"/>
         <v>2976</v>
       </c>
-      <c r="F177" s="185"/>
+      <c r="F177" s="182"/>
       <c r="G177" s="28"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -10261,7 +10281,7 @@
         <f t="shared" si="2"/>
         <v>2994</v>
       </c>
-      <c r="F179" s="183" t="s">
+      <c r="F179" s="180" t="s">
         <v>654</v>
       </c>
       <c r="G179" s="28"/>
@@ -10279,7 +10299,7 @@
         <f t="shared" si="2"/>
         <v>2998</v>
       </c>
-      <c r="F180" s="184"/>
+      <c r="F180" s="181"/>
       <c r="G180" s="28"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -10295,7 +10315,7 @@
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
-      <c r="F181" s="184"/>
+      <c r="F181" s="181"/>
       <c r="G181" s="28"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -10311,7 +10331,7 @@
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
-      <c r="F182" s="184"/>
+      <c r="F182" s="181"/>
       <c r="G182" s="28"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -10327,7 +10347,7 @@
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
-      <c r="F183" s="184"/>
+      <c r="F183" s="181"/>
       <c r="G183" s="28"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -10343,7 +10363,7 @@
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
-      <c r="F184" s="184"/>
+      <c r="F184" s="181"/>
       <c r="G184" s="28"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -10359,7 +10379,7 @@
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
-      <c r="F185" s="184"/>
+      <c r="F185" s="181"/>
       <c r="G185" s="28"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -10375,7 +10395,7 @@
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
-      <c r="F186" s="184"/>
+      <c r="F186" s="181"/>
       <c r="G186" s="28" t="s">
         <v>518</v>
       </c>
@@ -10393,7 +10413,7 @@
         <f t="shared" si="2"/>
         <v>3035</v>
       </c>
-      <c r="F187" s="184"/>
+      <c r="F187" s="181"/>
       <c r="G187" s="103"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -10409,7 +10429,7 @@
         <f t="shared" si="2"/>
         <v>3038</v>
       </c>
-      <c r="F188" s="184"/>
+      <c r="F188" s="181"/>
       <c r="G188" s="28"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -10425,7 +10445,7 @@
         <f t="shared" si="2"/>
         <v>3042</v>
       </c>
-      <c r="F189" s="184"/>
+      <c r="F189" s="181"/>
       <c r="G189" s="28"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -10441,7 +10461,7 @@
         <f t="shared" si="2"/>
         <v>3046</v>
       </c>
-      <c r="F190" s="184"/>
+      <c r="F190" s="181"/>
       <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -10457,7 +10477,7 @@
         <f t="shared" si="2"/>
         <v>3054</v>
       </c>
-      <c r="F191" s="184"/>
+      <c r="F191" s="181"/>
       <c r="G191" s="28"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -10473,7 +10493,7 @@
         <f t="shared" si="2"/>
         <v>3063</v>
       </c>
-      <c r="F192" s="184"/>
+      <c r="F192" s="181"/>
       <c r="G192" s="28"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -10489,7 +10509,7 @@
         <f t="shared" si="2"/>
         <v>3068</v>
       </c>
-      <c r="F193" s="184"/>
+      <c r="F193" s="181"/>
       <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -10505,7 +10525,7 @@
         <f t="shared" si="2"/>
         <v>3071</v>
       </c>
-      <c r="F194" s="184"/>
+      <c r="F194" s="181"/>
       <c r="G194" s="28"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -10521,7 +10541,7 @@
         <f t="shared" si="2"/>
         <v>3076</v>
       </c>
-      <c r="F195" s="184"/>
+      <c r="F195" s="181"/>
       <c r="G195" s="28"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -10537,7 +10557,7 @@
         <f t="shared" si="2"/>
         <v>3085</v>
       </c>
-      <c r="F196" s="184"/>
+      <c r="F196" s="181"/>
       <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -10553,7 +10573,7 @@
         <f t="shared" si="2"/>
         <v>3089</v>
       </c>
-      <c r="F197" s="184"/>
+      <c r="F197" s="181"/>
       <c r="G197" s="28"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -10569,7 +10589,7 @@
         <f t="shared" si="2"/>
         <v>3104</v>
       </c>
-      <c r="F198" s="184"/>
+      <c r="F198" s="181"/>
       <c r="G198" s="28"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -10585,7 +10605,7 @@
         <f t="shared" ref="E199" si="3">SUM(D199,E198)</f>
         <v>3124</v>
       </c>
-      <c r="F199" s="184"/>
+      <c r="F199" s="181"/>
       <c r="G199" s="28"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -10601,7 +10621,7 @@
         <f>SUM(D200,E199)</f>
         <v>3146</v>
       </c>
-      <c r="F200" s="184"/>
+      <c r="F200" s="181"/>
       <c r="G200" s="28"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -10617,7 +10637,7 @@
         <f t="shared" ref="E201:E207" si="4">SUM(D201,E200)</f>
         <v>3156</v>
       </c>
-      <c r="F201" s="184"/>
+      <c r="F201" s="181"/>
       <c r="G201" s="28"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -10633,7 +10653,7 @@
         <f t="shared" si="4"/>
         <v>3170</v>
       </c>
-      <c r="F202" s="184"/>
+      <c r="F202" s="181"/>
       <c r="G202" s="28"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -10649,7 +10669,7 @@
         <f t="shared" si="4"/>
         <v>3212</v>
       </c>
-      <c r="F203" s="184"/>
+      <c r="F203" s="181"/>
       <c r="G203" s="28"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -10665,7 +10685,7 @@
         <f t="shared" si="4"/>
         <v>3262</v>
       </c>
-      <c r="F204" s="184"/>
+      <c r="F204" s="181"/>
       <c r="G204" s="28"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -10681,7 +10701,7 @@
         <f t="shared" si="4"/>
         <v>3297</v>
       </c>
-      <c r="F205" s="184"/>
+      <c r="F205" s="181"/>
       <c r="G205" s="28"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -10697,7 +10717,7 @@
         <f t="shared" si="4"/>
         <v>3333</v>
       </c>
-      <c r="F206" s="185"/>
+      <c r="F206" s="182"/>
       <c r="G206" s="28"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -10726,6 +10746,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="F20:F30"/>
+    <mergeCell ref="F32:F48"/>
+    <mergeCell ref="F50:F66"/>
     <mergeCell ref="F147:F162"/>
     <mergeCell ref="F164:F177"/>
     <mergeCell ref="F179:F206"/>
@@ -10735,11 +10760,6 @@
     <mergeCell ref="F102:F115"/>
     <mergeCell ref="F117:F126"/>
     <mergeCell ref="F128:F145"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="F20:F30"/>
-    <mergeCell ref="F32:F48"/>
-    <mergeCell ref="F50:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10802,13 +10822,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="194">
+      <c r="A2" s="189">
         <v>1</v>
       </c>
-      <c r="B2" s="195">
+      <c r="B2" s="191">
         <v>41438</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="192" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10825,9 +10845,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="194"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="190"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
       <c r="D3" s="24" t="s">
         <v>171</v>
       </c>
@@ -10842,9 +10862,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="194"/>
-      <c r="B4" s="195"/>
-      <c r="C4" s="190"/>
+      <c r="A4" s="189"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="192"/>
       <c r="D4" s="24" t="s">
         <v>175</v>
       </c>
@@ -10859,9 +10879,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194"/>
-      <c r="B5" s="195"/>
-      <c r="C5" s="190"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="24" t="s">
         <v>177</v>
       </c>
@@ -10876,13 +10896,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="193">
+      <c r="A6" s="194">
         <v>2</v>
       </c>
-      <c r="B6" s="191">
+      <c r="B6" s="195">
         <v>41439</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="193" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -10899,9 +10919,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="192"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="193"/>
       <c r="D7" s="132" t="s">
         <v>659</v>
       </c>
@@ -10916,9 +10936,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="193"/>
       <c r="D8" s="28" t="s">
         <v>406</v>
       </c>
@@ -10933,9 +10953,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
-      <c r="B9" s="191"/>
-      <c r="C9" s="192" t="s">
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="193" t="s">
         <v>404</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -10952,9 +10972,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="192"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="193"/>
       <c r="D10" s="28" t="s">
         <v>563</v>
       </c>
@@ -10969,9 +10989,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="192"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="28" t="s">
         <v>416</v>
       </c>
@@ -10986,13 +11006,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="194">
+      <c r="A12" s="189">
         <v>3</v>
       </c>
-      <c r="B12" s="195">
+      <c r="B12" s="191">
         <v>41440</v>
       </c>
-      <c r="C12" s="190" t="s">
+      <c r="C12" s="192" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -11009,9 +11029,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="194"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="190"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="24" t="s">
         <v>183</v>
       </c>
@@ -11026,9 +11046,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="194"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="190"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="24" t="s">
         <v>185</v>
       </c>
@@ -11043,9 +11063,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="194"/>
-      <c r="B15" s="195"/>
-      <c r="C15" s="190"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="24" t="s">
         <v>186</v>
       </c>
@@ -11060,13 +11080,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="193">
+      <c r="A16" s="194">
         <v>4</v>
       </c>
-      <c r="B16" s="191">
+      <c r="B16" s="195">
         <v>41441</v>
       </c>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="193" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -11083,9 +11103,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="193"/>
       <c r="D17" s="28" t="s">
         <v>193</v>
       </c>
@@ -11100,13 +11120,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="189" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="190" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -11123,9 +11143,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="194"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="196"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="24" t="s">
         <v>559</v>
       </c>
@@ -11138,9 +11158,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="194"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="196"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="190"/>
       <c r="D20" s="24" t="s">
         <v>547</v>
       </c>
@@ -11155,9 +11175,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="194"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="196"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="190"/>
       <c r="D21" s="24" t="s">
         <v>549</v>
       </c>
@@ -11172,9 +11192,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="194"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="196"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="190"/>
       <c r="D22" s="24" t="s">
         <v>552</v>
       </c>
@@ -11189,9 +11209,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="194"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="196"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="24" t="s">
         <v>556</v>
       </c>
@@ -11206,9 +11226,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="194"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="196"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="24" t="s">
         <v>197</v>
       </c>
@@ -11223,9 +11243,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="194"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="196"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="24" t="s">
         <v>203</v>
       </c>
@@ -11240,9 +11260,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="194"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="24" t="s">
         <v>206</v>
       </c>
@@ -11257,9 +11277,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="190"/>
       <c r="D27" s="24" t="s">
         <v>199</v>
       </c>
@@ -11274,13 +11294,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="193">
+      <c r="A28" s="194">
         <v>7</v>
       </c>
-      <c r="B28" s="191">
+      <c r="B28" s="195">
         <v>41444</v>
       </c>
-      <c r="C28" s="192" t="s">
+      <c r="C28" s="193" t="s">
         <v>244</v>
       </c>
       <c r="D28" s="28" t="s">
@@ -11297,9 +11317,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="193"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="193"/>
       <c r="D29" s="28" t="s">
         <v>212</v>
       </c>
@@ -11314,9 +11334,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="193"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="192"/>
+      <c r="A30" s="194"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="193"/>
       <c r="D30" s="28" t="s">
         <v>214</v>
       </c>
@@ -11331,9 +11351,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="193"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
+      <c r="A31" s="194"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="193"/>
       <c r="D31" s="28" t="s">
         <v>235</v>
       </c>
@@ -11348,9 +11368,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="193"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
+      <c r="A32" s="194"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="193"/>
       <c r="D32" s="28" t="s">
         <v>236</v>
       </c>
@@ -11365,9 +11385,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="193"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="143" t="s">
         <v>683</v>
       </c>
@@ -11382,9 +11402,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="193"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="192"/>
+      <c r="A34" s="194"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="193"/>
       <c r="D34" s="28" t="s">
         <v>237</v>
       </c>
@@ -11399,13 +11419,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="194">
+      <c r="A35" s="189">
         <v>9</v>
       </c>
-      <c r="B35" s="195">
+      <c r="B35" s="191">
         <v>41446</v>
       </c>
-      <c r="C35" s="190" t="s">
+      <c r="C35" s="192" t="s">
         <v>282</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -11422,9 +11442,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="194"/>
-      <c r="B36" s="195"/>
-      <c r="C36" s="190"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="24" t="s">
         <v>221</v>
       </c>
@@ -11439,9 +11459,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="194"/>
-      <c r="B37" s="195"/>
-      <c r="C37" s="190"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="192"/>
       <c r="D37" s="24" t="s">
         <v>223</v>
       </c>
@@ -11456,9 +11476,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="194"/>
-      <c r="B38" s="195"/>
-      <c r="C38" s="190"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="192"/>
       <c r="D38" s="24" t="s">
         <v>225</v>
       </c>
@@ -11473,9 +11493,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="194"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="190"/>
+      <c r="A39" s="189"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="192"/>
       <c r="D39" s="24" t="s">
         <v>227</v>
       </c>
@@ -11490,9 +11510,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="194"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="190"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="192"/>
       <c r="D40" s="24" t="s">
         <v>228</v>
       </c>
@@ -11507,13 +11527,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="193">
+      <c r="A41" s="194">
         <v>10</v>
       </c>
-      <c r="B41" s="191">
+      <c r="B41" s="195">
         <v>41447</v>
       </c>
-      <c r="C41" s="192" t="s">
+      <c r="C41" s="193" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -11530,9 +11550,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="193"/>
-      <c r="B42" s="191"/>
-      <c r="C42" s="192"/>
+      <c r="A42" s="194"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="193"/>
       <c r="D42" s="28" t="s">
         <v>233</v>
       </c>
@@ -11547,9 +11567,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="193"/>
-      <c r="B43" s="191"/>
-      <c r="C43" s="192"/>
+      <c r="A43" s="194"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="193"/>
       <c r="D43" s="28" t="s">
         <v>238</v>
       </c>
@@ -11564,9 +11584,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="193"/>
-      <c r="B44" s="191"/>
-      <c r="C44" s="192"/>
+      <c r="A44" s="194"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="193"/>
       <c r="D44" s="28" t="s">
         <v>239</v>
       </c>
@@ -11581,9 +11601,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="193"/>
-      <c r="B45" s="191"/>
-      <c r="C45" s="192"/>
+      <c r="A45" s="194"/>
+      <c r="B45" s="195"/>
+      <c r="C45" s="193"/>
       <c r="D45" s="28" t="s">
         <v>566</v>
       </c>
@@ -11601,10 +11621,10 @@
       <c r="A46" s="197">
         <v>11</v>
       </c>
-      <c r="B46" s="195">
+      <c r="B46" s="191">
         <v>41448</v>
       </c>
-      <c r="C46" s="196" t="s">
+      <c r="C46" s="190" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -11622,8 +11642,8 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="198"/>
-      <c r="B47" s="195"/>
-      <c r="C47" s="196"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="190"/>
       <c r="D47" s="24" t="s">
         <v>245</v>
       </c>
@@ -11639,8 +11659,8 @@
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="198"/>
-      <c r="B48" s="195"/>
-      <c r="C48" s="196"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="190"/>
       <c r="D48" s="24" t="s">
         <v>248</v>
       </c>
@@ -11656,8 +11676,8 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="199"/>
-      <c r="B49" s="195"/>
-      <c r="C49" s="196"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="190"/>
       <c r="D49" s="24" t="s">
         <v>250</v>
       </c>
@@ -11672,13 +11692,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="193">
+      <c r="A50" s="194">
         <v>12</v>
       </c>
-      <c r="B50" s="191">
+      <c r="B50" s="195">
         <v>41449</v>
       </c>
-      <c r="C50" s="192" t="s">
+      <c r="C50" s="193" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="28" t="s">
@@ -11695,9 +11715,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="193"/>
-      <c r="B51" s="191"/>
-      <c r="C51" s="192"/>
+      <c r="A51" s="194"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="193"/>
       <c r="D51" s="28" t="s">
         <v>263</v>
       </c>
@@ -11712,9 +11732,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="193"/>
-      <c r="B52" s="191"/>
-      <c r="C52" s="192"/>
+      <c r="A52" s="194"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="193"/>
       <c r="D52" s="28" t="s">
         <v>266</v>
       </c>
@@ -11729,9 +11749,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="193"/>
-      <c r="B53" s="191"/>
-      <c r="C53" s="192"/>
+      <c r="A53" s="194"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="193"/>
       <c r="D53" s="28" t="s">
         <v>268</v>
       </c>
@@ -11746,13 +11766,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="194">
+      <c r="A54" s="189">
         <v>13</v>
       </c>
-      <c r="B54" s="195">
+      <c r="B54" s="191">
         <v>41450</v>
       </c>
-      <c r="C54" s="190" t="s">
+      <c r="C54" s="192" t="s">
         <v>149</v>
       </c>
       <c r="D54" s="24" t="s">
@@ -11769,9 +11789,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="194"/>
-      <c r="B55" s="195"/>
-      <c r="C55" s="190"/>
+      <c r="A55" s="189"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="192"/>
       <c r="D55" s="24" t="s">
         <v>273</v>
       </c>
@@ -11786,9 +11806,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="194"/>
-      <c r="B56" s="195"/>
-      <c r="C56" s="190"/>
+      <c r="A56" s="189"/>
+      <c r="B56" s="191"/>
+      <c r="C56" s="192"/>
       <c r="D56" s="24" t="s">
         <v>276</v>
       </c>
@@ -11803,9 +11823,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="194"/>
-      <c r="B57" s="195"/>
-      <c r="C57" s="190"/>
+      <c r="A57" s="189"/>
+      <c r="B57" s="191"/>
+      <c r="C57" s="192"/>
       <c r="D57" s="24" t="s">
         <v>279</v>
       </c>
@@ -11820,13 +11840,13 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="193">
+      <c r="A58" s="194">
         <v>14</v>
       </c>
-      <c r="B58" s="191">
+      <c r="B58" s="195">
         <v>41451</v>
       </c>
-      <c r="C58" s="192" t="s">
+      <c r="C58" s="193" t="s">
         <v>150</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -11843,9 +11863,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="193"/>
-      <c r="B59" s="191"/>
-      <c r="C59" s="192"/>
+      <c r="A59" s="194"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="193"/>
       <c r="D59" s="28" t="s">
         <v>287</v>
       </c>
@@ -11860,9 +11880,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="193"/>
-      <c r="B60" s="191"/>
-      <c r="C60" s="192"/>
+      <c r="A60" s="194"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="193"/>
       <c r="D60" s="28" t="s">
         <v>290</v>
       </c>
@@ -11899,35 +11919,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="189" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="189" t="s">
+    <row r="63" spans="1:7" s="196" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="196" t="s">
         <v>520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="A63:XFD63"/>
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="B41:B45"/>
@@ -11944,6 +11942,28 @@
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B18:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -12359,7 +12379,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193">
+      <c r="A5" s="194">
         <v>4</v>
       </c>
       <c r="B5" s="97" t="s">
@@ -12367,19 +12387,19 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="81" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
+      <c r="A7" s="194"/>
       <c r="B7" s="81" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193">
+      <c r="A8" s="194">
         <v>5</v>
       </c>
       <c r="B8" s="97" t="s">
@@ -12387,13 +12407,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="81" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="81" t="s">
         <v>695</v>
       </c>
@@ -12407,7 +12427,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="193">
+      <c r="A12" s="194">
         <v>7</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -12415,7 +12435,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="81" t="s">
         <v>594</v>
       </c>

--- a/june-2019/references/leh-itinerary-detailed.xlsx
+++ b/june-2019/references/leh-itinerary-detailed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\travel\june-2019\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70059F1C-D918-406A-BE98-D353D7C5D450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4989793-2315-406E-9ACE-7C0026382740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Info" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="750">
   <si>
     <t>Tasks</t>
   </si>
@@ -4754,6 +4754,43 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Udhampur - Patnitop - Batote - Ramban - Banihal - Qazigund - Khanabal - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Srinagar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Wayul - Manigam - Gund - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sonamarg</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Srinagar – Wayul - Manigam - </t>
     </r>
     <r>
@@ -4817,7 +4854,337 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (from sonamarg traffic is allowed between 1 to 5 pm only)</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sonamarg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Zozi La – Drass – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kargil – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mulbekh - Haniskot - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lamayuru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Khalsi - Saspul - Basgo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Magnetic Hill - Hall of fame- Leh </t>
+    </r>
+  </si>
+  <si>
+    <t>Nagbal,
+Gund</t>
+  </si>
+  <si>
+    <t>Leh,
+Diskit, Karu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leh – South Pullu - North Pullu - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khardung La</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Khalsar - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diskit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Hunder - Khardung La - Leh - Karu</t>
+    </r>
+  </si>
+  <si>
+    <t>Karu,
+Leh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Karzok - Tso Kiagar - Sumdo - Tso Kar - Leh -Manali Highway - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pang - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lachung La</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Gata Loops - Sarchu</t>
+    </r>
+  </si>
+  <si>
+    <t>Manali</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pang - Lachung La - Sarchu - Antrk Camps - KillingSarai - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jispa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Satingiri Halipad - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Keylong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Biling- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tandi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Sissu - Koksar - Gramphu - Rohtang pass - Marhi - Gulaba - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manali</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manali</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kullu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mandi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Bilaspur - Rupnagar - Ambala - Kurukshetra - Karnal- Panipat- Rai - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghaziabad</t>
     </r>
   </si>
 </sst>
@@ -5195,7 +5562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5698,6 +6065,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6649,11 +7022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:M16"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6757,7 +7130,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="152">
         <v>3</v>
       </c>
@@ -6783,7 +7156,7 @@
         <v>727</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
@@ -7049,22 +7422,22 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="178" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
       <c r="F14" s="162">
         <f>SUM(F2:F13)</f>
         <v>3002</v>
       </c>
-      <c r="G14" s="178" t="s">
+      <c r="G14" s="180" t="s">
         <v>717</v>
       </c>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="181"/>
     </row>
     <row r="15" spans="2:13" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="169"/>
@@ -7074,7 +7447,7 @@
       <c r="F15" s="169"/>
       <c r="G15" s="169"/>
     </row>
-    <row r="16" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="96" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="169"/>
       <c r="C16" s="173"/>
       <c r="D16" s="169"/>
@@ -7082,17 +7455,329 @@
       <c r="F16" s="169"/>
       <c r="G16" s="169"/>
     </row>
+    <row r="17" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="177" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="177" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="177" t="s">
+        <v>732</v>
+      </c>
+      <c r="G17" s="177" t="s">
+        <v>733</v>
+      </c>
+      <c r="H17" s="177" t="s">
+        <v>718</v>
+      </c>
+      <c r="I17" s="177" t="s">
+        <v>295</v>
+      </c>
+      <c r="J17" s="157" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="148">
+        <v>1</v>
+      </c>
+      <c r="C18" s="164">
+        <v>43617</v>
+      </c>
+      <c r="D18" s="149" t="s">
+        <v>706</v>
+      </c>
+      <c r="E18" s="149" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="149">
+        <v>638</v>
+      </c>
+      <c r="G18" s="150">
+        <v>980</v>
+      </c>
+      <c r="H18" s="149" t="s">
+        <v>737</v>
+      </c>
+      <c r="I18" s="149" t="s">
+        <v>711</v>
+      </c>
+      <c r="J18" s="151" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="152">
+        <v>2</v>
+      </c>
+      <c r="C19" s="165">
+        <v>43618</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="153">
+        <v>300</v>
+      </c>
+      <c r="G19" s="153">
+        <v>9079</v>
+      </c>
+      <c r="H19" s="155" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" s="155" t="s">
+        <v>742</v>
+      </c>
+      <c r="J19" s="154" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="152">
+        <v>3</v>
+      </c>
+      <c r="C20" s="165">
+        <v>43619</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="153">
+        <v>340</v>
+      </c>
+      <c r="G20" s="153">
+        <v>14136</v>
+      </c>
+      <c r="H20" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="155" t="s">
+        <v>728</v>
+      </c>
+      <c r="J20" s="154" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="152">
+        <v>4</v>
+      </c>
+      <c r="C21" s="165">
+        <v>43620</v>
+      </c>
+      <c r="D21" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="155" t="s">
+        <v>709</v>
+      </c>
+      <c r="F21" s="153">
+        <v>20</v>
+      </c>
+      <c r="G21" s="153">
+        <v>14136</v>
+      </c>
+      <c r="H21" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="153" t="s">
+        <v>711</v>
+      </c>
+      <c r="J21" s="154" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="152">
+        <v>5</v>
+      </c>
+      <c r="C22" s="165">
+        <v>43621</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="153">
+        <v>255</v>
+      </c>
+      <c r="G22" s="153">
+        <v>14271</v>
+      </c>
+      <c r="H22" s="155" t="s">
+        <v>745</v>
+      </c>
+      <c r="I22" s="155" t="s">
+        <v>743</v>
+      </c>
+      <c r="J22" s="154" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="152">
+        <v>6</v>
+      </c>
+      <c r="C23" s="165">
+        <v>43622</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="155" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="153">
+        <v>186</v>
+      </c>
+      <c r="G23" s="167">
+        <v>14836</v>
+      </c>
+      <c r="H23" s="155" t="s">
+        <v>734</v>
+      </c>
+      <c r="I23" s="153" t="s">
+        <v>726</v>
+      </c>
+      <c r="J23" s="154" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="152">
+        <v>7</v>
+      </c>
+      <c r="C24" s="165">
+        <v>43623</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>704</v>
+      </c>
+      <c r="E24" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="153">
+        <v>220</v>
+      </c>
+      <c r="G24" s="153">
+        <v>15600</v>
+      </c>
+      <c r="H24" s="155" t="s">
+        <v>720</v>
+      </c>
+      <c r="I24" s="153" t="s">
+        <v>726</v>
+      </c>
+      <c r="J24" s="154" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B25" s="152">
+        <v>8</v>
+      </c>
+      <c r="C25" s="165">
+        <v>43624</v>
+      </c>
+      <c r="D25" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="155" t="s">
+        <v>747</v>
+      </c>
+      <c r="F25" s="153">
+        <v>230</v>
+      </c>
+      <c r="G25" s="153">
+        <v>10140</v>
+      </c>
+      <c r="H25" s="155" t="s">
+        <v>721</v>
+      </c>
+      <c r="I25" s="153" t="s">
+        <v>726</v>
+      </c>
+      <c r="J25" s="154" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="152">
+        <v>9</v>
+      </c>
+      <c r="C26" s="165">
+        <v>43625</v>
+      </c>
+      <c r="D26" s="160" t="s">
+        <v>747</v>
+      </c>
+      <c r="E26" s="160" t="s">
+        <v>706</v>
+      </c>
+      <c r="F26" s="159">
+        <v>565</v>
+      </c>
+      <c r="G26" s="168">
+        <v>2474</v>
+      </c>
+      <c r="H26" s="150" t="s">
+        <v>705</v>
+      </c>
+      <c r="I26" s="160" t="s">
+        <v>711</v>
+      </c>
+      <c r="J26" s="161" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="178" t="s">
+        <v>707</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="162">
+        <f>SUM(F18:F26)</f>
+        <v>2754</v>
+      </c>
+      <c r="G27" s="180" t="s">
+        <v>717</v>
+      </c>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:J27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14:J14" r:id="rId1" display="More details at inbravo.github.io" xr:uid="{2F18EA03-5D28-45AD-BC31-E6CE7A435076}"/>
     <hyperlink ref="G14" r:id="rId2" xr:uid="{3CA731C0-C46B-4D99-BA8E-49F5D70E462C}"/>
+    <hyperlink ref="G27:J27" r:id="rId3" display="More details at inbravo.github.io" xr:uid="{E4F465E3-E0AC-4163-8202-A84E60E5D431}"/>
+    <hyperlink ref="G27" r:id="rId4" xr:uid="{C32A59CE-3D88-4C7A-9CEE-DA15AC83042C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7177,7 +7862,7 @@
         <f>SUM(D3,E2)</f>
         <v>112</v>
       </c>
-      <c r="F3" s="183" t="s">
+      <c r="F3" s="185" t="s">
         <v>638</v>
       </c>
       <c r="G3" s="29"/>
@@ -7196,7 +7881,7 @@
         <f>SUM(D4,E3)</f>
         <v>148</v>
       </c>
-      <c r="F4" s="184"/>
+      <c r="F4" s="186"/>
       <c r="G4" s="29"/>
       <c r="H4" s="7"/>
     </row>
@@ -7213,7 +7898,7 @@
         <f t="shared" ref="E5:E68" si="0">SUM(D5,E4)</f>
         <v>183</v>
       </c>
-      <c r="F5" s="184"/>
+      <c r="F5" s="186"/>
       <c r="G5" s="29"/>
       <c r="H5" s="7"/>
     </row>
@@ -7230,7 +7915,7 @@
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="F6" s="184"/>
+      <c r="F6" s="186"/>
       <c r="G6" s="29"/>
       <c r="H6" s="7"/>
     </row>
@@ -7247,7 +7932,7 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F7" s="184"/>
+      <c r="F7" s="186"/>
       <c r="G7" s="29"/>
       <c r="H7" s="7"/>
     </row>
@@ -7264,7 +7949,7 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="F8" s="185"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="29"/>
       <c r="H8" s="7"/>
     </row>
@@ -7304,7 +7989,7 @@
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="185" t="s">
         <v>640</v>
       </c>
       <c r="G10" s="29"/>
@@ -7323,7 +8008,7 @@
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="F11" s="184"/>
+      <c r="F11" s="186"/>
       <c r="G11" s="29"/>
       <c r="H11" s="7"/>
     </row>
@@ -7340,7 +8025,7 @@
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
-      <c r="F12" s="184"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="29"/>
       <c r="H12" s="7"/>
     </row>
@@ -7357,7 +8042,7 @@
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="F13" s="184"/>
+      <c r="F13" s="186"/>
       <c r="G13" s="29"/>
       <c r="H13" s="7"/>
     </row>
@@ -7374,7 +8059,7 @@
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="F14" s="184"/>
+      <c r="F14" s="186"/>
       <c r="G14" s="29" t="s">
         <v>627</v>
       </c>
@@ -7393,7 +8078,7 @@
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="F15" s="184"/>
+      <c r="F15" s="186"/>
       <c r="G15" s="103"/>
       <c r="H15" s="9"/>
     </row>
@@ -7410,7 +8095,7 @@
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="F16" s="184"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="29"/>
       <c r="H16" s="7"/>
     </row>
@@ -7427,7 +8112,7 @@
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-      <c r="F17" s="184"/>
+      <c r="F17" s="186"/>
       <c r="G17" s="29"/>
       <c r="H17" s="7"/>
     </row>
@@ -7444,7 +8129,7 @@
         <f t="shared" si="0"/>
         <v>769</v>
       </c>
-      <c r="F18" s="185"/>
+      <c r="F18" s="187"/>
       <c r="G18" s="29"/>
       <c r="H18" s="7"/>
     </row>
@@ -7486,7 +8171,7 @@
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
-      <c r="F20" s="183" t="s">
+      <c r="F20" s="185" t="s">
         <v>644</v>
       </c>
       <c r="G20" s="29"/>
@@ -7505,7 +8190,7 @@
         <f t="shared" si="0"/>
         <v>803</v>
       </c>
-      <c r="F21" s="184"/>
+      <c r="F21" s="186"/>
       <c r="G21" s="29"/>
       <c r="H21" s="7"/>
     </row>
@@ -7522,7 +8207,7 @@
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="F22" s="184"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="29"/>
       <c r="H22" s="7"/>
     </row>
@@ -7539,7 +8224,7 @@
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
-      <c r="F23" s="184"/>
+      <c r="F23" s="186"/>
       <c r="G23" s="29"/>
       <c r="H23" s="7"/>
     </row>
@@ -7556,7 +8241,7 @@
         <f t="shared" si="0"/>
         <v>854</v>
       </c>
-      <c r="F24" s="184"/>
+      <c r="F24" s="186"/>
       <c r="G24" s="29"/>
       <c r="H24" s="7"/>
     </row>
@@ -7573,7 +8258,7 @@
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
-      <c r="F25" s="184"/>
+      <c r="F25" s="186"/>
       <c r="G25" s="29"/>
       <c r="H25" s="7"/>
     </row>
@@ -7590,7 +8275,7 @@
         <f t="shared" si="0"/>
         <v>895</v>
       </c>
-      <c r="F26" s="184"/>
+      <c r="F26" s="186"/>
       <c r="G26" s="29" t="s">
         <v>589</v>
       </c>
@@ -7609,7 +8294,7 @@
         <f t="shared" si="0"/>
         <v>912</v>
       </c>
-      <c r="F27" s="184"/>
+      <c r="F27" s="186"/>
       <c r="G27" s="29"/>
       <c r="H27" s="7"/>
     </row>
@@ -7626,7 +8311,7 @@
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="F28" s="184"/>
+      <c r="F28" s="186"/>
       <c r="G28" s="29"/>
       <c r="H28" s="7"/>
     </row>
@@ -7643,7 +8328,7 @@
         <f t="shared" si="0"/>
         <v>951</v>
       </c>
-      <c r="F29" s="184"/>
+      <c r="F29" s="186"/>
       <c r="G29" s="29"/>
       <c r="H29" s="7"/>
     </row>
@@ -7660,7 +8345,7 @@
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="F30" s="185"/>
+      <c r="F30" s="187"/>
       <c r="G30" s="29"/>
       <c r="H30" s="7"/>
     </row>
@@ -7702,7 +8387,7 @@
         <f t="shared" si="0"/>
         <v>967</v>
       </c>
-      <c r="F32" s="180" t="s">
+      <c r="F32" s="182" t="s">
         <v>645</v>
       </c>
       <c r="G32" s="104"/>
@@ -7721,7 +8406,7 @@
         <f t="shared" si="0"/>
         <v>971</v>
       </c>
-      <c r="F33" s="181"/>
+      <c r="F33" s="183"/>
       <c r="G33" s="29"/>
       <c r="H33" s="7"/>
     </row>
@@ -7738,7 +8423,7 @@
         <f t="shared" si="0"/>
         <v>972</v>
       </c>
-      <c r="F34" s="181"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="29"/>
       <c r="H34" s="7"/>
     </row>
@@ -7755,7 +8440,7 @@
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="F35" s="181"/>
+      <c r="F35" s="183"/>
       <c r="G35" s="29"/>
       <c r="H35" s="7"/>
     </row>
@@ -7772,7 +8457,7 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="F36" s="181"/>
+      <c r="F36" s="183"/>
       <c r="G36" s="29"/>
       <c r="H36" s="7"/>
     </row>
@@ -7789,7 +8474,7 @@
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
-      <c r="F37" s="181"/>
+      <c r="F37" s="183"/>
       <c r="G37" s="29"/>
       <c r="H37" s="7"/>
     </row>
@@ -7806,7 +8491,7 @@
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="F38" s="181"/>
+      <c r="F38" s="183"/>
       <c r="G38" s="29"/>
       <c r="H38" s="7"/>
     </row>
@@ -7823,7 +8508,7 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="F39" s="181"/>
+      <c r="F39" s="183"/>
       <c r="G39" s="29"/>
       <c r="H39" s="7"/>
     </row>
@@ -7840,7 +8525,7 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="F40" s="181"/>
+      <c r="F40" s="183"/>
       <c r="G40" s="29" t="s">
         <v>509</v>
       </c>
@@ -7859,7 +8544,7 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="F41" s="181"/>
+      <c r="F41" s="183"/>
       <c r="G41" s="29"/>
       <c r="H41" s="7"/>
     </row>
@@ -7876,7 +8561,7 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="F42" s="181"/>
+      <c r="F42" s="183"/>
       <c r="G42" s="29" t="s">
         <v>686</v>
       </c>
@@ -7895,7 +8580,7 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="F43" s="181"/>
+      <c r="F43" s="183"/>
       <c r="G43" s="105"/>
       <c r="H43" s="11"/>
     </row>
@@ -7912,7 +8597,7 @@
         <f t="shared" si="0"/>
         <v>1074</v>
       </c>
-      <c r="F44" s="181"/>
+      <c r="F44" s="183"/>
       <c r="G44" s="29" t="s">
         <v>522</v>
       </c>
@@ -7931,7 +8616,7 @@
         <f t="shared" si="0"/>
         <v>1091</v>
       </c>
-      <c r="F45" s="181"/>
+      <c r="F45" s="183"/>
       <c r="G45" s="29"/>
       <c r="H45" s="7"/>
     </row>
@@ -7948,7 +8633,7 @@
         <f t="shared" si="0"/>
         <v>1112</v>
       </c>
-      <c r="F46" s="181"/>
+      <c r="F46" s="183"/>
       <c r="G46" s="29" t="s">
         <v>630</v>
       </c>
@@ -7967,7 +8652,7 @@
         <f t="shared" si="0"/>
         <v>1136</v>
       </c>
-      <c r="F47" s="181"/>
+      <c r="F47" s="183"/>
       <c r="G47" s="29"/>
       <c r="H47" s="7"/>
     </row>
@@ -7984,7 +8669,7 @@
         <f t="shared" si="0"/>
         <v>1155</v>
       </c>
-      <c r="F48" s="182"/>
+      <c r="F48" s="184"/>
       <c r="G48" s="29"/>
       <c r="H48" s="7"/>
     </row>
@@ -8026,7 +8711,7 @@
         <f t="shared" si="0"/>
         <v>1189</v>
       </c>
-      <c r="F50" s="183" t="s">
+      <c r="F50" s="185" t="s">
         <v>646</v>
       </c>
       <c r="G50" s="29"/>
@@ -8045,7 +8730,7 @@
         <f t="shared" si="0"/>
         <v>1191</v>
       </c>
-      <c r="F51" s="184"/>
+      <c r="F51" s="186"/>
       <c r="G51" s="29"/>
       <c r="H51" s="7"/>
     </row>
@@ -8062,7 +8747,7 @@
         <f t="shared" si="0"/>
         <v>1209</v>
       </c>
-      <c r="F52" s="184"/>
+      <c r="F52" s="186"/>
       <c r="G52" s="29"/>
       <c r="H52" s="7"/>
     </row>
@@ -8079,7 +8764,7 @@
         <f t="shared" si="0"/>
         <v>1215</v>
       </c>
-      <c r="F53" s="184"/>
+      <c r="F53" s="186"/>
       <c r="G53" s="29" t="s">
         <v>509</v>
       </c>
@@ -8098,7 +8783,7 @@
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="F54" s="184"/>
+      <c r="F54" s="186"/>
       <c r="G54" s="29"/>
       <c r="H54" s="7"/>
     </row>
@@ -8115,7 +8800,7 @@
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
-      <c r="F55" s="184"/>
+      <c r="F55" s="186"/>
       <c r="G55" s="29"/>
       <c r="H55" s="7"/>
     </row>
@@ -8132,7 +8817,7 @@
         <f t="shared" si="0"/>
         <v>1247</v>
       </c>
-      <c r="F56" s="184"/>
+      <c r="F56" s="186"/>
       <c r="G56" s="29"/>
       <c r="H56" s="7"/>
     </row>
@@ -8149,7 +8834,7 @@
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="F57" s="184"/>
+      <c r="F57" s="186"/>
       <c r="G57" s="29"/>
       <c r="H57" s="7"/>
     </row>
@@ -8166,7 +8851,7 @@
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
-      <c r="F58" s="184"/>
+      <c r="F58" s="186"/>
       <c r="G58" s="29"/>
       <c r="H58" s="7"/>
     </row>
@@ -8183,7 +8868,7 @@
         <f t="shared" si="0"/>
         <v>1283</v>
       </c>
-      <c r="F59" s="184"/>
+      <c r="F59" s="186"/>
       <c r="G59" s="105" t="s">
         <v>507</v>
       </c>
@@ -8202,7 +8887,7 @@
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="F60" s="184"/>
+      <c r="F60" s="186"/>
       <c r="G60" s="29"/>
       <c r="H60" s="7"/>
     </row>
@@ -8219,7 +8904,7 @@
         <f t="shared" si="0"/>
         <v>1315</v>
       </c>
-      <c r="F61" s="184"/>
+      <c r="F61" s="186"/>
       <c r="G61" s="29"/>
       <c r="H61" s="7"/>
     </row>
@@ -8236,7 +8921,7 @@
         <f t="shared" si="0"/>
         <v>1341</v>
       </c>
-      <c r="F62" s="184"/>
+      <c r="F62" s="186"/>
       <c r="G62" s="29"/>
       <c r="H62" s="7"/>
     </row>
@@ -8253,7 +8938,7 @@
         <f t="shared" si="0"/>
         <v>1362</v>
       </c>
-      <c r="F63" s="184"/>
+      <c r="F63" s="186"/>
       <c r="G63" s="29"/>
       <c r="H63" s="7"/>
     </row>
@@ -8270,7 +8955,7 @@
         <f t="shared" si="0"/>
         <v>1367</v>
       </c>
-      <c r="F64" s="184"/>
+      <c r="F64" s="186"/>
       <c r="G64" s="29" t="s">
         <v>534</v>
       </c>
@@ -8289,7 +8974,7 @@
         <f t="shared" si="0"/>
         <v>1374</v>
       </c>
-      <c r="F65" s="184"/>
+      <c r="F65" s="186"/>
       <c r="G65" s="29" t="s">
         <v>605</v>
       </c>
@@ -8308,7 +8993,7 @@
         <f t="shared" si="0"/>
         <v>1394</v>
       </c>
-      <c r="F66" s="185"/>
+      <c r="F66" s="187"/>
       <c r="G66" s="29" t="s">
         <v>535</v>
       </c>
@@ -8352,7 +9037,7 @@
         <f t="shared" si="0"/>
         <v>1427</v>
       </c>
-      <c r="F68" s="183" t="s">
+      <c r="F68" s="185" t="s">
         <v>647</v>
       </c>
       <c r="G68" s="29"/>
@@ -8371,7 +9056,7 @@
         <f t="shared" ref="E69:E134" si="1">SUM(D69,E68)</f>
         <v>1441</v>
       </c>
-      <c r="F69" s="184"/>
+      <c r="F69" s="186"/>
       <c r="G69" s="29" t="s">
         <v>510</v>
       </c>
@@ -8390,7 +9075,7 @@
         <f t="shared" si="1"/>
         <v>1457</v>
       </c>
-      <c r="F70" s="184"/>
+      <c r="F70" s="186"/>
       <c r="G70" s="29"/>
       <c r="H70" s="7"/>
     </row>
@@ -8407,7 +9092,7 @@
         <f t="shared" si="1"/>
         <v>1474</v>
       </c>
-      <c r="F71" s="184"/>
+      <c r="F71" s="186"/>
       <c r="G71" s="29"/>
       <c r="H71" s="7"/>
     </row>
@@ -8424,7 +9109,7 @@
         <f t="shared" si="1"/>
         <v>1496</v>
       </c>
-      <c r="F72" s="184"/>
+      <c r="F72" s="186"/>
       <c r="G72" s="29"/>
       <c r="H72" s="7"/>
     </row>
@@ -8441,7 +9126,7 @@
         <f t="shared" si="1"/>
         <v>1519</v>
       </c>
-      <c r="F73" s="185"/>
+      <c r="F73" s="187"/>
       <c r="G73" s="29" t="s">
         <v>587</v>
       </c>
@@ -8485,7 +9170,7 @@
         <f t="shared" si="1"/>
         <v>1543</v>
       </c>
-      <c r="F75" s="186" t="s">
+      <c r="F75" s="188" t="s">
         <v>645</v>
       </c>
       <c r="G75" s="29" t="s">
@@ -8506,7 +9191,7 @@
         <f t="shared" si="1"/>
         <v>1563</v>
       </c>
-      <c r="F76" s="187"/>
+      <c r="F76" s="189"/>
       <c r="G76" s="29"/>
       <c r="H76" s="7"/>
     </row>
@@ -8523,7 +9208,7 @@
         <f t="shared" si="1"/>
         <v>1570</v>
       </c>
-      <c r="F77" s="187"/>
+      <c r="F77" s="189"/>
       <c r="G77" s="29"/>
       <c r="H77" s="7"/>
     </row>
@@ -8540,7 +9225,7 @@
         <f t="shared" si="1"/>
         <v>1574</v>
       </c>
-      <c r="F78" s="187"/>
+      <c r="F78" s="189"/>
       <c r="G78" s="29" t="s">
         <v>539</v>
       </c>
@@ -8559,7 +9244,7 @@
         <f t="shared" si="1"/>
         <v>1589</v>
       </c>
-      <c r="F79" s="187"/>
+      <c r="F79" s="189"/>
       <c r="G79" s="29"/>
       <c r="H79" s="7"/>
     </row>
@@ -8576,7 +9261,7 @@
         <f t="shared" si="1"/>
         <v>1599</v>
       </c>
-      <c r="F80" s="187"/>
+      <c r="F80" s="189"/>
       <c r="G80" s="29" t="s">
         <v>540</v>
       </c>
@@ -8595,7 +9280,7 @@
         <f t="shared" si="1"/>
         <v>1609</v>
       </c>
-      <c r="F81" s="187"/>
+      <c r="F81" s="189"/>
       <c r="G81" s="29"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -8611,7 +9296,7 @@
         <f t="shared" si="1"/>
         <v>1624</v>
       </c>
-      <c r="F82" s="187"/>
+      <c r="F82" s="189"/>
       <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -8627,7 +9312,7 @@
         <f t="shared" si="1"/>
         <v>1647</v>
       </c>
-      <c r="F83" s="187"/>
+      <c r="F83" s="189"/>
       <c r="G83" s="29"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -8643,7 +9328,7 @@
         <f t="shared" si="1"/>
         <v>1669</v>
       </c>
-      <c r="F84" s="187"/>
+      <c r="F84" s="189"/>
       <c r="G84" s="29"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -8659,7 +9344,7 @@
         <f t="shared" si="1"/>
         <v>1686</v>
       </c>
-      <c r="F85" s="187"/>
+      <c r="F85" s="189"/>
       <c r="G85" s="29"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -8675,7 +9360,7 @@
         <f t="shared" si="1"/>
         <v>1702</v>
       </c>
-      <c r="F86" s="187"/>
+      <c r="F86" s="189"/>
       <c r="G86" s="29"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -8691,7 +9376,7 @@
         <f t="shared" si="1"/>
         <v>1716</v>
       </c>
-      <c r="F87" s="188"/>
+      <c r="F87" s="190"/>
       <c r="G87" s="29"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -8731,7 +9416,7 @@
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="F89" s="183" t="s">
+      <c r="F89" s="185" t="s">
         <v>648</v>
       </c>
       <c r="G89" s="28"/>
@@ -8749,7 +9434,7 @@
         <f t="shared" si="1"/>
         <v>1757</v>
       </c>
-      <c r="F90" s="184"/>
+      <c r="F90" s="186"/>
       <c r="G90" s="28" t="s">
         <v>564</v>
       </c>
@@ -8767,7 +9452,7 @@
         <f t="shared" si="1"/>
         <v>1763</v>
       </c>
-      <c r="F91" s="184"/>
+      <c r="F91" s="186"/>
       <c r="G91" s="28" t="s">
         <v>511</v>
       </c>
@@ -8785,7 +9470,7 @@
         <f t="shared" si="1"/>
         <v>1779</v>
       </c>
-      <c r="F92" s="184"/>
+      <c r="F92" s="186"/>
       <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
@@ -8801,7 +9486,7 @@
         <f t="shared" si="1"/>
         <v>1786</v>
       </c>
-      <c r="F93" s="184"/>
+      <c r="F93" s="186"/>
       <c r="G93" s="28" t="s">
         <v>665</v>
       </c>
@@ -8819,7 +9504,7 @@
         <f t="shared" si="1"/>
         <v>1793</v>
       </c>
-      <c r="F94" s="184"/>
+      <c r="F94" s="186"/>
       <c r="G94" s="28" t="s">
         <v>531</v>
       </c>
@@ -8837,7 +9522,7 @@
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="F95" s="184"/>
+      <c r="F95" s="186"/>
       <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -8853,7 +9538,7 @@
         <f t="shared" si="1"/>
         <v>1838</v>
       </c>
-      <c r="F96" s="184"/>
+      <c r="F96" s="186"/>
       <c r="G96" s="28" t="s">
         <v>512</v>
       </c>
@@ -8871,7 +9556,7 @@
         <f t="shared" si="1"/>
         <v>1870</v>
       </c>
-      <c r="F97" s="184"/>
+      <c r="F97" s="186"/>
       <c r="G97" s="28"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8887,7 +9572,7 @@
         <f t="shared" si="1"/>
         <v>1879</v>
       </c>
-      <c r="F98" s="184"/>
+      <c r="F98" s="186"/>
       <c r="G98" s="28"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -8903,7 +9588,7 @@
         <f t="shared" si="1"/>
         <v>1903</v>
       </c>
-      <c r="F99" s="184"/>
+      <c r="F99" s="186"/>
       <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8919,7 +9604,7 @@
         <f t="shared" si="1"/>
         <v>1923</v>
       </c>
-      <c r="F100" s="185"/>
+      <c r="F100" s="187"/>
       <c r="G100" s="28"/>
     </row>
     <row r="101" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
@@ -8959,7 +9644,7 @@
         <f t="shared" si="1"/>
         <v>1925</v>
       </c>
-      <c r="F102" s="180" t="s">
+      <c r="F102" s="182" t="s">
         <v>649</v>
       </c>
       <c r="G102" s="28"/>
@@ -8977,7 +9662,7 @@
         <f t="shared" si="1"/>
         <v>1945</v>
       </c>
-      <c r="F103" s="181"/>
+      <c r="F103" s="183"/>
       <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8993,7 +9678,7 @@
         <f t="shared" si="1"/>
         <v>1969</v>
       </c>
-      <c r="F104" s="181"/>
+      <c r="F104" s="183"/>
       <c r="G104" s="28" t="s">
         <v>513</v>
       </c>
@@ -9011,7 +9696,7 @@
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="F105" s="181"/>
+      <c r="F105" s="183"/>
       <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9027,7 +9712,7 @@
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="F106" s="181"/>
+      <c r="F106" s="183"/>
       <c r="G106" s="28"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9043,7 +9728,7 @@
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="F107" s="181"/>
+      <c r="F107" s="183"/>
       <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9059,7 +9744,7 @@
         <f t="shared" si="1"/>
         <v>2055</v>
       </c>
-      <c r="F108" s="181"/>
+      <c r="F108" s="183"/>
       <c r="G108" s="28" t="s">
         <v>532</v>
       </c>
@@ -9077,7 +9762,7 @@
         <f t="shared" si="1"/>
         <v>2068</v>
       </c>
-      <c r="F109" s="181"/>
+      <c r="F109" s="183"/>
       <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9093,7 +9778,7 @@
         <f t="shared" si="1"/>
         <v>2082</v>
       </c>
-      <c r="F110" s="181"/>
+      <c r="F110" s="183"/>
       <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9109,7 +9794,7 @@
         <f t="shared" si="1"/>
         <v>2091</v>
       </c>
-      <c r="F111" s="181"/>
+      <c r="F111" s="183"/>
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9125,7 +9810,7 @@
         <f t="shared" si="1"/>
         <v>2095</v>
       </c>
-      <c r="F112" s="181"/>
+      <c r="F112" s="183"/>
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9141,7 +9826,7 @@
         <f t="shared" si="1"/>
         <v>2098</v>
       </c>
-      <c r="F113" s="181"/>
+      <c r="F113" s="183"/>
       <c r="G113" s="28" t="s">
         <v>636</v>
       </c>
@@ -9159,7 +9844,7 @@
         <f>SUM(D114,E113)</f>
         <v>2130</v>
       </c>
-      <c r="F114" s="181"/>
+      <c r="F114" s="183"/>
       <c r="G114" s="28" t="s">
         <v>610</v>
       </c>
@@ -9177,7 +9862,7 @@
         <f>SUM(D115,E114)</f>
         <v>2144</v>
       </c>
-      <c r="F115" s="182"/>
+      <c r="F115" s="184"/>
       <c r="G115" s="28" t="s">
         <v>658</v>
       </c>
@@ -9219,7 +9904,7 @@
         <f t="shared" si="1"/>
         <v>2218</v>
       </c>
-      <c r="F117" s="180" t="s">
+      <c r="F117" s="182" t="s">
         <v>650</v>
       </c>
       <c r="G117" s="28" t="s">
@@ -9239,7 +9924,7 @@
         <f>SUM(D118,E117)</f>
         <v>2263</v>
       </c>
-      <c r="F118" s="181"/>
+      <c r="F118" s="183"/>
       <c r="G118" s="29" t="s">
         <v>626</v>
       </c>
@@ -9257,7 +9942,7 @@
         <f>SUM(D119,E118)</f>
         <v>2273</v>
       </c>
-      <c r="F119" s="181"/>
+      <c r="F119" s="183"/>
       <c r="G119" s="29" t="s">
         <v>615</v>
       </c>
@@ -9275,7 +9960,7 @@
         <f t="shared" si="1"/>
         <v>2282</v>
       </c>
-      <c r="F120" s="181"/>
+      <c r="F120" s="183"/>
       <c r="G120" s="28"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -9291,7 +9976,7 @@
         <f t="shared" si="1"/>
         <v>2293</v>
       </c>
-      <c r="F121" s="181"/>
+      <c r="F121" s="183"/>
       <c r="G121" s="28"/>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9307,7 +9992,7 @@
         <f t="shared" si="1"/>
         <v>2306</v>
       </c>
-      <c r="F122" s="181"/>
+      <c r="F122" s="183"/>
       <c r="G122" s="28" t="s">
         <v>614</v>
       </c>
@@ -9325,7 +10010,7 @@
         <f t="shared" si="1"/>
         <v>2327</v>
       </c>
-      <c r="F123" s="181"/>
+      <c r="F123" s="183"/>
       <c r="G123" s="28" t="s">
         <v>623</v>
       </c>
@@ -9343,7 +10028,7 @@
         <f t="shared" si="1"/>
         <v>2349</v>
       </c>
-      <c r="F124" s="181"/>
+      <c r="F124" s="183"/>
       <c r="G124" s="28" t="s">
         <v>618</v>
       </c>
@@ -9361,7 +10046,7 @@
         <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="F125" s="181"/>
+      <c r="F125" s="183"/>
       <c r="G125" s="28" t="s">
         <v>617</v>
       </c>
@@ -9379,7 +10064,7 @@
         <f t="shared" si="1"/>
         <v>2376</v>
       </c>
-      <c r="F126" s="182"/>
+      <c r="F126" s="184"/>
       <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -9419,7 +10104,7 @@
         <f t="shared" si="1"/>
         <v>2392</v>
       </c>
-      <c r="F128" s="180" t="s">
+      <c r="F128" s="182" t="s">
         <v>651</v>
       </c>
       <c r="G128" s="28" t="s">
@@ -9439,7 +10124,7 @@
         <f t="shared" si="1"/>
         <v>2399</v>
       </c>
-      <c r="F129" s="181"/>
+      <c r="F129" s="183"/>
       <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -9455,7 +10140,7 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F130" s="181"/>
+      <c r="F130" s="183"/>
       <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -9471,7 +10156,7 @@
         <f t="shared" si="1"/>
         <v>2406</v>
       </c>
-      <c r="F131" s="181"/>
+      <c r="F131" s="183"/>
       <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -9487,7 +10172,7 @@
         <f t="shared" si="1"/>
         <v>2408</v>
       </c>
-      <c r="F132" s="181"/>
+      <c r="F132" s="183"/>
       <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -9503,7 +10188,7 @@
         <f t="shared" si="1"/>
         <v>2409</v>
       </c>
-      <c r="F133" s="181"/>
+      <c r="F133" s="183"/>
       <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9519,7 +10204,7 @@
         <f t="shared" si="1"/>
         <v>2417</v>
       </c>
-      <c r="F134" s="181"/>
+      <c r="F134" s="183"/>
       <c r="G134" s="28" t="s">
         <v>622</v>
       </c>
@@ -9537,7 +10222,7 @@
         <f t="shared" ref="E135:E198" si="2">SUM(D135,E134)</f>
         <v>2431</v>
       </c>
-      <c r="F135" s="181"/>
+      <c r="F135" s="183"/>
       <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -9553,7 +10238,7 @@
         <f t="shared" si="2"/>
         <v>2432</v>
       </c>
-      <c r="F136" s="181"/>
+      <c r="F136" s="183"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9569,7 +10254,7 @@
         <f t="shared" si="2"/>
         <v>2437</v>
       </c>
-      <c r="F137" s="181"/>
+      <c r="F137" s="183"/>
       <c r="G137" s="109" t="s">
         <v>621</v>
       </c>
@@ -9587,7 +10272,7 @@
         <f t="shared" si="2"/>
         <v>2454</v>
       </c>
-      <c r="F138" s="181"/>
+      <c r="F138" s="183"/>
       <c r="G138" s="28"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -9603,7 +10288,7 @@
         <f t="shared" si="2"/>
         <v>2484</v>
       </c>
-      <c r="F139" s="181"/>
+      <c r="F139" s="183"/>
       <c r="G139" s="28"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -9619,7 +10304,7 @@
         <f t="shared" si="2"/>
         <v>2498</v>
       </c>
-      <c r="F140" s="181"/>
+      <c r="F140" s="183"/>
       <c r="G140" s="28"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -9635,7 +10320,7 @@
         <f t="shared" si="2"/>
         <v>2516</v>
       </c>
-      <c r="F141" s="181"/>
+      <c r="F141" s="183"/>
       <c r="G141" s="28"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -9651,7 +10336,7 @@
         <f t="shared" si="2"/>
         <v>2528</v>
       </c>
-      <c r="F142" s="181"/>
+      <c r="F142" s="183"/>
       <c r="G142" s="28"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -9667,7 +10352,7 @@
         <f t="shared" si="2"/>
         <v>2532</v>
       </c>
-      <c r="F143" s="181"/>
+      <c r="F143" s="183"/>
       <c r="G143" s="28"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -9683,7 +10368,7 @@
         <f t="shared" si="2"/>
         <v>2560</v>
       </c>
-      <c r="F144" s="181"/>
+      <c r="F144" s="183"/>
       <c r="G144" s="28"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -9699,7 +10384,7 @@
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
-      <c r="F145" s="182"/>
+      <c r="F145" s="184"/>
       <c r="G145" s="28"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -9737,7 +10422,7 @@
         <f t="shared" si="2"/>
         <v>2581</v>
       </c>
-      <c r="F147" s="180" t="s">
+      <c r="F147" s="182" t="s">
         <v>652</v>
       </c>
       <c r="G147" s="28"/>
@@ -9755,7 +10440,7 @@
         <f t="shared" si="2"/>
         <v>2587</v>
       </c>
-      <c r="F148" s="181"/>
+      <c r="F148" s="183"/>
       <c r="G148" s="28"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -9771,7 +10456,7 @@
         <f t="shared" si="2"/>
         <v>2592</v>
       </c>
-      <c r="F149" s="181"/>
+      <c r="F149" s="183"/>
       <c r="G149" s="28"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -9787,7 +10472,7 @@
         <f t="shared" si="2"/>
         <v>2617</v>
       </c>
-      <c r="F150" s="181"/>
+      <c r="F150" s="183"/>
       <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -9803,7 +10488,7 @@
         <f t="shared" si="2"/>
         <v>2621</v>
       </c>
-      <c r="F151" s="181"/>
+      <c r="F151" s="183"/>
       <c r="G151" s="28" t="s">
         <v>515</v>
       </c>
@@ -9821,7 +10506,7 @@
         <f t="shared" si="2"/>
         <v>2626</v>
       </c>
-      <c r="F152" s="181"/>
+      <c r="F152" s="183"/>
       <c r="G152" s="28"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -9837,7 +10522,7 @@
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="F153" s="181"/>
+      <c r="F153" s="183"/>
       <c r="G153" s="28"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -9853,7 +10538,7 @@
         <f t="shared" si="2"/>
         <v>2649</v>
       </c>
-      <c r="F154" s="181"/>
+      <c r="F154" s="183"/>
       <c r="G154" s="28" t="s">
         <v>516</v>
       </c>
@@ -9871,7 +10556,7 @@
         <f t="shared" si="2"/>
         <v>2657</v>
       </c>
-      <c r="F155" s="181"/>
+      <c r="F155" s="183"/>
       <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -9887,7 +10572,7 @@
         <f t="shared" si="2"/>
         <v>2684</v>
       </c>
-      <c r="F156" s="181"/>
+      <c r="F156" s="183"/>
       <c r="G156" s="28" t="s">
         <v>517</v>
       </c>
@@ -9905,7 +10590,7 @@
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="F157" s="181"/>
+      <c r="F157" s="183"/>
       <c r="G157" s="28"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -9921,7 +10606,7 @@
         <f t="shared" si="2"/>
         <v>2762</v>
       </c>
-      <c r="F158" s="181"/>
+      <c r="F158" s="183"/>
       <c r="G158" s="28"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -9937,7 +10622,7 @@
         <f t="shared" si="2"/>
         <v>2763</v>
       </c>
-      <c r="F159" s="181"/>
+      <c r="F159" s="183"/>
       <c r="G159" s="28"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -9953,7 +10638,7 @@
         <f t="shared" si="2"/>
         <v>2781</v>
       </c>
-      <c r="F160" s="181"/>
+      <c r="F160" s="183"/>
       <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -9969,7 +10654,7 @@
         <f t="shared" si="2"/>
         <v>2784</v>
       </c>
-      <c r="F161" s="181"/>
+      <c r="F161" s="183"/>
       <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -9985,7 +10670,7 @@
         <f t="shared" si="2"/>
         <v>2805</v>
       </c>
-      <c r="F162" s="182"/>
+      <c r="F162" s="184"/>
       <c r="G162" s="28" t="s">
         <v>509</v>
       </c>
@@ -10027,7 +10712,7 @@
         <f t="shared" si="2"/>
         <v>2823</v>
       </c>
-      <c r="F164" s="180" t="s">
+      <c r="F164" s="182" t="s">
         <v>653</v>
       </c>
       <c r="G164" s="28" t="s">
@@ -10047,7 +10732,7 @@
         <f t="shared" si="2"/>
         <v>2824</v>
       </c>
-      <c r="F165" s="181"/>
+      <c r="F165" s="183"/>
       <c r="G165" s="28"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -10063,7 +10748,7 @@
         <f t="shared" si="2"/>
         <v>2834</v>
       </c>
-      <c r="F166" s="181"/>
+      <c r="F166" s="183"/>
       <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -10079,7 +10764,7 @@
         <f t="shared" si="2"/>
         <v>2839</v>
       </c>
-      <c r="F167" s="181"/>
+      <c r="F167" s="183"/>
       <c r="G167" s="28"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -10095,7 +10780,7 @@
         <f t="shared" si="2"/>
         <v>2844</v>
       </c>
-      <c r="F168" s="181"/>
+      <c r="F168" s="183"/>
       <c r="G168" s="28" t="s">
         <v>509</v>
       </c>
@@ -10113,7 +10798,7 @@
         <f t="shared" si="2"/>
         <v>2854</v>
       </c>
-      <c r="F169" s="181"/>
+      <c r="F169" s="183"/>
       <c r="G169" s="28"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -10129,7 +10814,7 @@
         <f t="shared" si="2"/>
         <v>2891</v>
       </c>
-      <c r="F170" s="181"/>
+      <c r="F170" s="183"/>
       <c r="G170" s="28"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -10145,7 +10830,7 @@
         <f t="shared" si="2"/>
         <v>2902</v>
       </c>
-      <c r="F171" s="181"/>
+      <c r="F171" s="183"/>
       <c r="G171" s="28"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -10161,7 +10846,7 @@
         <f t="shared" si="2"/>
         <v>2923</v>
       </c>
-      <c r="F172" s="181"/>
+      <c r="F172" s="183"/>
       <c r="G172" s="103"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -10177,7 +10862,7 @@
         <f t="shared" si="2"/>
         <v>2941</v>
       </c>
-      <c r="F173" s="181"/>
+      <c r="F173" s="183"/>
       <c r="G173" s="28" t="s">
         <v>509</v>
       </c>
@@ -10195,7 +10880,7 @@
         <f t="shared" si="2"/>
         <v>2953</v>
       </c>
-      <c r="F174" s="181"/>
+      <c r="F174" s="183"/>
       <c r="G174" s="28"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -10211,7 +10896,7 @@
         <f t="shared" si="2"/>
         <v>2967</v>
       </c>
-      <c r="F175" s="181"/>
+      <c r="F175" s="183"/>
       <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -10227,7 +10912,7 @@
         <f t="shared" si="2"/>
         <v>2970</v>
       </c>
-      <c r="F176" s="181"/>
+      <c r="F176" s="183"/>
       <c r="G176" s="28"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -10243,7 +10928,7 @@
         <f t="shared" si="2"/>
         <v>2976</v>
       </c>
-      <c r="F177" s="182"/>
+      <c r="F177" s="184"/>
       <c r="G177" s="28"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -10281,7 +10966,7 @@
         <f t="shared" si="2"/>
         <v>2994</v>
       </c>
-      <c r="F179" s="180" t="s">
+      <c r="F179" s="182" t="s">
         <v>654</v>
       </c>
       <c r="G179" s="28"/>
@@ -10299,7 +10984,7 @@
         <f t="shared" si="2"/>
         <v>2998</v>
       </c>
-      <c r="F180" s="181"/>
+      <c r="F180" s="183"/>
       <c r="G180" s="28"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -10315,7 +11000,7 @@
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
-      <c r="F181" s="181"/>
+      <c r="F181" s="183"/>
       <c r="G181" s="28"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -10331,7 +11016,7 @@
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
-      <c r="F182" s="181"/>
+      <c r="F182" s="183"/>
       <c r="G182" s="28"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -10347,7 +11032,7 @@
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
-      <c r="F183" s="181"/>
+      <c r="F183" s="183"/>
       <c r="G183" s="28"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -10363,7 +11048,7 @@
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
-      <c r="F184" s="181"/>
+      <c r="F184" s="183"/>
       <c r="G184" s="28"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -10379,7 +11064,7 @@
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
-      <c r="F185" s="181"/>
+      <c r="F185" s="183"/>
       <c r="G185" s="28"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -10395,7 +11080,7 @@
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
-      <c r="F186" s="181"/>
+      <c r="F186" s="183"/>
       <c r="G186" s="28" t="s">
         <v>518</v>
       </c>
@@ -10413,7 +11098,7 @@
         <f t="shared" si="2"/>
         <v>3035</v>
       </c>
-      <c r="F187" s="181"/>
+      <c r="F187" s="183"/>
       <c r="G187" s="103"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -10429,7 +11114,7 @@
         <f t="shared" si="2"/>
         <v>3038</v>
       </c>
-      <c r="F188" s="181"/>
+      <c r="F188" s="183"/>
       <c r="G188" s="28"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -10445,7 +11130,7 @@
         <f t="shared" si="2"/>
         <v>3042</v>
       </c>
-      <c r="F189" s="181"/>
+      <c r="F189" s="183"/>
       <c r="G189" s="28"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -10461,7 +11146,7 @@
         <f t="shared" si="2"/>
         <v>3046</v>
       </c>
-      <c r="F190" s="181"/>
+      <c r="F190" s="183"/>
       <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -10477,7 +11162,7 @@
         <f t="shared" si="2"/>
         <v>3054</v>
       </c>
-      <c r="F191" s="181"/>
+      <c r="F191" s="183"/>
       <c r="G191" s="28"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -10493,7 +11178,7 @@
         <f t="shared" si="2"/>
         <v>3063</v>
       </c>
-      <c r="F192" s="181"/>
+      <c r="F192" s="183"/>
       <c r="G192" s="28"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -10509,7 +11194,7 @@
         <f t="shared" si="2"/>
         <v>3068</v>
       </c>
-      <c r="F193" s="181"/>
+      <c r="F193" s="183"/>
       <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -10525,7 +11210,7 @@
         <f t="shared" si="2"/>
         <v>3071</v>
       </c>
-      <c r="F194" s="181"/>
+      <c r="F194" s="183"/>
       <c r="G194" s="28"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -10541,7 +11226,7 @@
         <f t="shared" si="2"/>
         <v>3076</v>
       </c>
-      <c r="F195" s="181"/>
+      <c r="F195" s="183"/>
       <c r="G195" s="28"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -10557,7 +11242,7 @@
         <f t="shared" si="2"/>
         <v>3085</v>
       </c>
-      <c r="F196" s="181"/>
+      <c r="F196" s="183"/>
       <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -10573,7 +11258,7 @@
         <f t="shared" si="2"/>
         <v>3089</v>
       </c>
-      <c r="F197" s="181"/>
+      <c r="F197" s="183"/>
       <c r="G197" s="28"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -10589,7 +11274,7 @@
         <f t="shared" si="2"/>
         <v>3104</v>
       </c>
-      <c r="F198" s="181"/>
+      <c r="F198" s="183"/>
       <c r="G198" s="28"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -10605,7 +11290,7 @@
         <f t="shared" ref="E199" si="3">SUM(D199,E198)</f>
         <v>3124</v>
       </c>
-      <c r="F199" s="181"/>
+      <c r="F199" s="183"/>
       <c r="G199" s="28"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -10621,7 +11306,7 @@
         <f>SUM(D200,E199)</f>
         <v>3146</v>
       </c>
-      <c r="F200" s="181"/>
+      <c r="F200" s="183"/>
       <c r="G200" s="28"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -10637,7 +11322,7 @@
         <f t="shared" ref="E201:E207" si="4">SUM(D201,E200)</f>
         <v>3156</v>
       </c>
-      <c r="F201" s="181"/>
+      <c r="F201" s="183"/>
       <c r="G201" s="28"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -10653,7 +11338,7 @@
         <f t="shared" si="4"/>
         <v>3170</v>
       </c>
-      <c r="F202" s="181"/>
+      <c r="F202" s="183"/>
       <c r="G202" s="28"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -10669,7 +11354,7 @@
         <f t="shared" si="4"/>
         <v>3212</v>
       </c>
-      <c r="F203" s="181"/>
+      <c r="F203" s="183"/>
       <c r="G203" s="28"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -10685,7 +11370,7 @@
         <f t="shared" si="4"/>
         <v>3262</v>
       </c>
-      <c r="F204" s="181"/>
+      <c r="F204" s="183"/>
       <c r="G204" s="28"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -10701,7 +11386,7 @@
         <f t="shared" si="4"/>
         <v>3297</v>
       </c>
-      <c r="F205" s="181"/>
+      <c r="F205" s="183"/>
       <c r="G205" s="28"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -10717,7 +11402,7 @@
         <f t="shared" si="4"/>
         <v>3333</v>
       </c>
-      <c r="F206" s="182"/>
+      <c r="F206" s="184"/>
       <c r="G206" s="28"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -10822,13 +11507,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="189">
+      <c r="A2" s="191">
         <v>1</v>
       </c>
-      <c r="B2" s="191">
+      <c r="B2" s="193">
         <v>41438</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="194" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10845,9 +11530,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="189"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
       <c r="D3" s="24" t="s">
         <v>171</v>
       </c>
@@ -10862,9 +11547,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="189"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="192"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
       <c r="D4" s="24" t="s">
         <v>175</v>
       </c>
@@ -10879,9 +11564,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
-      <c r="B5" s="191"/>
-      <c r="C5" s="192"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
       <c r="D5" s="24" t="s">
         <v>177</v>
       </c>
@@ -10896,13 +11581,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194">
+      <c r="A6" s="196">
         <v>2</v>
       </c>
-      <c r="B6" s="195">
+      <c r="B6" s="197">
         <v>41439</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="195" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -10919,9 +11604,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="193"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="195"/>
       <c r="D7" s="132" t="s">
         <v>659</v>
       </c>
@@ -10936,9 +11621,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="193"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="195"/>
       <c r="D8" s="28" t="s">
         <v>406</v>
       </c>
@@ -10953,9 +11638,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="193" t="s">
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="195" t="s">
         <v>404</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -10972,9 +11657,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="194"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="193"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="28" t="s">
         <v>563</v>
       </c>
@@ -10989,9 +11674,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="194"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="193"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="195"/>
       <c r="D11" s="28" t="s">
         <v>416</v>
       </c>
@@ -11006,13 +11691,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="189">
+      <c r="A12" s="191">
         <v>3</v>
       </c>
-      <c r="B12" s="191">
+      <c r="B12" s="193">
         <v>41440</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="194" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -11029,9 +11714,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="192"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="194"/>
       <c r="D13" s="24" t="s">
         <v>183</v>
       </c>
@@ -11046,9 +11731,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="192"/>
+      <c r="A14" s="191"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="194"/>
       <c r="D14" s="24" t="s">
         <v>185</v>
       </c>
@@ -11063,9 +11748,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="189"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="192"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="194"/>
       <c r="D15" s="24" t="s">
         <v>186</v>
       </c>
@@ -11080,13 +11765,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="194">
+      <c r="A16" s="196">
         <v>4</v>
       </c>
-      <c r="B16" s="195">
+      <c r="B16" s="197">
         <v>41441</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="195" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -11103,9 +11788,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="194"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="193"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="28" t="s">
         <v>193</v>
       </c>
@@ -11120,13 +11805,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="191" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="190" t="s">
+      <c r="C18" s="192" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -11143,9 +11828,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="189"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="190"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="192"/>
       <c r="D19" s="24" t="s">
         <v>559</v>
       </c>
@@ -11158,9 +11843,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="189"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="190"/>
+      <c r="A20" s="191"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="192"/>
       <c r="D20" s="24" t="s">
         <v>547</v>
       </c>
@@ -11175,9 +11860,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="189"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="190"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="24" t="s">
         <v>549</v>
       </c>
@@ -11192,9 +11877,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="189"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="190"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="192"/>
       <c r="D22" s="24" t="s">
         <v>552</v>
       </c>
@@ -11209,9 +11894,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="190"/>
+      <c r="A23" s="191"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="192"/>
       <c r="D23" s="24" t="s">
         <v>556</v>
       </c>
@@ -11226,9 +11911,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="190"/>
+      <c r="A24" s="191"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="24" t="s">
         <v>197</v>
       </c>
@@ -11243,9 +11928,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="189"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="190"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="192"/>
       <c r="D25" s="24" t="s">
         <v>203</v>
       </c>
@@ -11260,9 +11945,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="189"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="190"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="192"/>
       <c r="D26" s="24" t="s">
         <v>206</v>
       </c>
@@ -11277,9 +11962,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="189"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="190"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="192"/>
       <c r="D27" s="24" t="s">
         <v>199</v>
       </c>
@@ -11294,13 +11979,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="194">
+      <c r="A28" s="196">
         <v>7</v>
       </c>
-      <c r="B28" s="195">
+      <c r="B28" s="197">
         <v>41444</v>
       </c>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="195" t="s">
         <v>244</v>
       </c>
       <c r="D28" s="28" t="s">
@@ -11317,9 +12002,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="194"/>
-      <c r="B29" s="195"/>
-      <c r="C29" s="193"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="195"/>
       <c r="D29" s="28" t="s">
         <v>212</v>
       </c>
@@ -11334,9 +12019,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="194"/>
-      <c r="B30" s="195"/>
-      <c r="C30" s="193"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="195"/>
       <c r="D30" s="28" t="s">
         <v>214</v>
       </c>
@@ -11351,9 +12036,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="194"/>
-      <c r="B31" s="195"/>
-      <c r="C31" s="193"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="195"/>
       <c r="D31" s="28" t="s">
         <v>235</v>
       </c>
@@ -11368,9 +12053,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="194"/>
-      <c r="B32" s="195"/>
-      <c r="C32" s="193"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="195"/>
       <c r="D32" s="28" t="s">
         <v>236</v>
       </c>
@@ -11385,9 +12070,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="194"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="193"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="195"/>
       <c r="D33" s="143" t="s">
         <v>683</v>
       </c>
@@ -11402,9 +12087,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="194"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="193"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="195"/>
       <c r="D34" s="28" t="s">
         <v>237</v>
       </c>
@@ -11419,13 +12104,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="189">
+      <c r="A35" s="191">
         <v>9</v>
       </c>
-      <c r="B35" s="191">
+      <c r="B35" s="193">
         <v>41446</v>
       </c>
-      <c r="C35" s="192" t="s">
+      <c r="C35" s="194" t="s">
         <v>282</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -11442,9 +12127,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="189"/>
-      <c r="B36" s="191"/>
-      <c r="C36" s="192"/>
+      <c r="A36" s="191"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="194"/>
       <c r="D36" s="24" t="s">
         <v>221</v>
       </c>
@@ -11459,9 +12144,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="189"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="192"/>
+      <c r="A37" s="191"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="194"/>
       <c r="D37" s="24" t="s">
         <v>223</v>
       </c>
@@ -11476,9 +12161,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="189"/>
-      <c r="B38" s="191"/>
-      <c r="C38" s="192"/>
+      <c r="A38" s="191"/>
+      <c r="B38" s="193"/>
+      <c r="C38" s="194"/>
       <c r="D38" s="24" t="s">
         <v>225</v>
       </c>
@@ -11493,9 +12178,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="189"/>
-      <c r="B39" s="191"/>
-      <c r="C39" s="192"/>
+      <c r="A39" s="191"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="194"/>
       <c r="D39" s="24" t="s">
         <v>227</v>
       </c>
@@ -11510,9 +12195,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="189"/>
-      <c r="B40" s="191"/>
-      <c r="C40" s="192"/>
+      <c r="A40" s="191"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="194"/>
       <c r="D40" s="24" t="s">
         <v>228</v>
       </c>
@@ -11527,13 +12212,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="194">
+      <c r="A41" s="196">
         <v>10</v>
       </c>
-      <c r="B41" s="195">
+      <c r="B41" s="197">
         <v>41447</v>
       </c>
-      <c r="C41" s="193" t="s">
+      <c r="C41" s="195" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -11550,9 +12235,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="194"/>
-      <c r="B42" s="195"/>
-      <c r="C42" s="193"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="195"/>
       <c r="D42" s="28" t="s">
         <v>233</v>
       </c>
@@ -11567,9 +12252,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="194"/>
-      <c r="B43" s="195"/>
-      <c r="C43" s="193"/>
+      <c r="A43" s="196"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="195"/>
       <c r="D43" s="28" t="s">
         <v>238</v>
       </c>
@@ -11584,9 +12269,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="194"/>
-      <c r="B44" s="195"/>
-      <c r="C44" s="193"/>
+      <c r="A44" s="196"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="195"/>
       <c r="D44" s="28" t="s">
         <v>239</v>
       </c>
@@ -11601,9 +12286,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="194"/>
-      <c r="B45" s="195"/>
-      <c r="C45" s="193"/>
+      <c r="A45" s="196"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="195"/>
       <c r="D45" s="28" t="s">
         <v>566</v>
       </c>
@@ -11618,13 +12303,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="197">
+      <c r="A46" s="199">
         <v>11</v>
       </c>
-      <c r="B46" s="191">
+      <c r="B46" s="193">
         <v>41448</v>
       </c>
-      <c r="C46" s="190" t="s">
+      <c r="C46" s="192" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -11641,9 +12326,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="198"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="190"/>
+      <c r="A47" s="200"/>
+      <c r="B47" s="193"/>
+      <c r="C47" s="192"/>
       <c r="D47" s="24" t="s">
         <v>245</v>
       </c>
@@ -11658,9 +12343,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="198"/>
-      <c r="B48" s="191"/>
-      <c r="C48" s="190"/>
+      <c r="A48" s="200"/>
+      <c r="B48" s="193"/>
+      <c r="C48" s="192"/>
       <c r="D48" s="24" t="s">
         <v>248</v>
       </c>
@@ -11675,9 +12360,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="199"/>
-      <c r="B49" s="191"/>
-      <c r="C49" s="190"/>
+      <c r="A49" s="201"/>
+      <c r="B49" s="193"/>
+      <c r="C49" s="192"/>
       <c r="D49" s="24" t="s">
         <v>250</v>
       </c>
@@ -11692,13 +12377,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="194">
+      <c r="A50" s="196">
         <v>12</v>
       </c>
-      <c r="B50" s="195">
+      <c r="B50" s="197">
         <v>41449</v>
       </c>
-      <c r="C50" s="193" t="s">
+      <c r="C50" s="195" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="28" t="s">
@@ -11715,9 +12400,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="194"/>
-      <c r="B51" s="195"/>
-      <c r="C51" s="193"/>
+      <c r="A51" s="196"/>
+      <c r="B51" s="197"/>
+      <c r="C51" s="195"/>
       <c r="D51" s="28" t="s">
         <v>263</v>
       </c>
@@ -11732,9 +12417,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="194"/>
-      <c r="B52" s="195"/>
-      <c r="C52" s="193"/>
+      <c r="A52" s="196"/>
+      <c r="B52" s="197"/>
+      <c r="C52" s="195"/>
       <c r="D52" s="28" t="s">
         <v>266</v>
       </c>
@@ -11749,9 +12434,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="194"/>
-      <c r="B53" s="195"/>
-      <c r="C53" s="193"/>
+      <c r="A53" s="196"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="195"/>
       <c r="D53" s="28" t="s">
         <v>268</v>
       </c>
@@ -11766,13 +12451,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="189">
+      <c r="A54" s="191">
         <v>13</v>
       </c>
-      <c r="B54" s="191">
+      <c r="B54" s="193">
         <v>41450</v>
       </c>
-      <c r="C54" s="192" t="s">
+      <c r="C54" s="194" t="s">
         <v>149</v>
       </c>
       <c r="D54" s="24" t="s">
@@ -11789,9 +12474,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="189"/>
-      <c r="B55" s="191"/>
-      <c r="C55" s="192"/>
+      <c r="A55" s="191"/>
+      <c r="B55" s="193"/>
+      <c r="C55" s="194"/>
       <c r="D55" s="24" t="s">
         <v>273</v>
       </c>
@@ -11806,9 +12491,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="189"/>
-      <c r="B56" s="191"/>
-      <c r="C56" s="192"/>
+      <c r="A56" s="191"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="194"/>
       <c r="D56" s="24" t="s">
         <v>276</v>
       </c>
@@ -11823,9 +12508,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="189"/>
-      <c r="B57" s="191"/>
-      <c r="C57" s="192"/>
+      <c r="A57" s="191"/>
+      <c r="B57" s="193"/>
+      <c r="C57" s="194"/>
       <c r="D57" s="24" t="s">
         <v>279</v>
       </c>
@@ -11840,13 +12525,13 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="194">
+      <c r="A58" s="196">
         <v>14</v>
       </c>
-      <c r="B58" s="195">
+      <c r="B58" s="197">
         <v>41451</v>
       </c>
-      <c r="C58" s="193" t="s">
+      <c r="C58" s="195" t="s">
         <v>150</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -11863,9 +12548,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="194"/>
-      <c r="B59" s="195"/>
-      <c r="C59" s="193"/>
+      <c r="A59" s="196"/>
+      <c r="B59" s="197"/>
+      <c r="C59" s="195"/>
       <c r="D59" s="28" t="s">
         <v>287</v>
       </c>
@@ -11880,9 +12565,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="194"/>
-      <c r="B60" s="195"/>
-      <c r="C60" s="193"/>
+      <c r="A60" s="196"/>
+      <c r="B60" s="197"/>
+      <c r="C60" s="195"/>
       <c r="D60" s="28" t="s">
         <v>290</v>
       </c>
@@ -11919,8 +12604,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="196" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="196" t="s">
+    <row r="63" spans="1:7" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="198" t="s">
         <v>520</v>
       </c>
     </row>
@@ -12379,7 +13064,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194">
+      <c r="A5" s="196">
         <v>4</v>
       </c>
       <c r="B5" s="97" t="s">
@@ -12387,19 +13072,19 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="81" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="81" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="194">
+      <c r="A8" s="196">
         <v>5</v>
       </c>
       <c r="B8" s="97" t="s">
@@ -12407,13 +13092,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="81" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="194"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="81" t="s">
         <v>695</v>
       </c>
@@ -12427,7 +13112,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="194">
+      <c r="A12" s="196">
         <v>7</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -12435,7 +13120,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="194"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="81" t="s">
         <v>594</v>
       </c>
@@ -12713,7 +13398,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="201" t="s">
+      <c r="A50" s="203" t="s">
         <v>568</v>
       </c>
       <c r="B50" s="116" t="s">
@@ -12721,19 +13406,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="202"/>
+      <c r="A51" s="204"/>
       <c r="B51" s="116" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="202"/>
+      <c r="A52" s="204"/>
       <c r="B52" s="116" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="203"/>
+      <c r="A53" s="205"/>
       <c r="B53" s="116" t="s">
         <v>574</v>
       </c>
@@ -12755,7 +13440,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="200" t="s">
+      <c r="A56" s="202" t="s">
         <v>578</v>
       </c>
       <c r="B56" s="116" t="s">
@@ -12763,13 +13448,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="200"/>
+      <c r="A57" s="202"/>
       <c r="B57" s="116" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="200"/>
+      <c r="A58" s="202"/>
       <c r="B58" s="117" t="s">
         <v>581</v>
       </c>
@@ -13076,10 +13761,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="206"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -13268,10 +13953,10 @@
       <c r="D15" s="77"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="204"/>
+      <c r="B16" s="206"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
@@ -13512,10 +14197,10 @@
       <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="204" t="s">
+      <c r="A34" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="204"/>
+      <c r="B34" s="206"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
@@ -13738,10 +14423,10 @@
       <c r="D50" s="77"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="204" t="s">
+      <c r="A52" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="204"/>
+      <c r="B52" s="206"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
@@ -13960,10 +14645,10 @@
       <c r="D68" s="77"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="204" t="s">
+      <c r="A69" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="204"/>
+      <c r="B69" s="206"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">

--- a/june-2019/references/leh-itinerary-detailed.xlsx
+++ b/june-2019/references/leh-itinerary-detailed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\travel\june-2019\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4989793-2315-406E-9ACE-7C0026382740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C60E9-73F0-4CEE-A9B2-56CE531B0560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6085,6 +6085,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6094,15 +6103,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6112,29 +6112,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7026,7 +7026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:F25"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7862,7 +7862,7 @@
         <f>SUM(D3,E2)</f>
         <v>112</v>
       </c>
-      <c r="F3" s="185" t="s">
+      <c r="F3" s="182" t="s">
         <v>638</v>
       </c>
       <c r="G3" s="29"/>
@@ -7881,7 +7881,7 @@
         <f>SUM(D4,E3)</f>
         <v>148</v>
       </c>
-      <c r="F4" s="186"/>
+      <c r="F4" s="183"/>
       <c r="G4" s="29"/>
       <c r="H4" s="7"/>
     </row>
@@ -7898,7 +7898,7 @@
         <f t="shared" ref="E5:E68" si="0">SUM(D5,E4)</f>
         <v>183</v>
       </c>
-      <c r="F5" s="186"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="29"/>
       <c r="H5" s="7"/>
     </row>
@@ -7915,7 +7915,7 @@
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="29"/>
       <c r="H6" s="7"/>
     </row>
@@ -7932,7 +7932,7 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F7" s="186"/>
+      <c r="F7" s="183"/>
       <c r="G7" s="29"/>
       <c r="H7" s="7"/>
     </row>
@@ -7949,7 +7949,7 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="F8" s="187"/>
+      <c r="F8" s="184"/>
       <c r="G8" s="29"/>
       <c r="H8" s="7"/>
     </row>
@@ -7989,7 +7989,7 @@
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="F10" s="185" t="s">
+      <c r="F10" s="182" t="s">
         <v>640</v>
       </c>
       <c r="G10" s="29"/>
@@ -8008,7 +8008,7 @@
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="F11" s="186"/>
+      <c r="F11" s="183"/>
       <c r="G11" s="29"/>
       <c r="H11" s="7"/>
     </row>
@@ -8025,7 +8025,7 @@
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
-      <c r="F12" s="186"/>
+      <c r="F12" s="183"/>
       <c r="G12" s="29"/>
       <c r="H12" s="7"/>
     </row>
@@ -8042,7 +8042,7 @@
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="F13" s="186"/>
+      <c r="F13" s="183"/>
       <c r="G13" s="29"/>
       <c r="H13" s="7"/>
     </row>
@@ -8059,7 +8059,7 @@
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="F14" s="186"/>
+      <c r="F14" s="183"/>
       <c r="G14" s="29" t="s">
         <v>627</v>
       </c>
@@ -8078,7 +8078,7 @@
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
-      <c r="F15" s="186"/>
+      <c r="F15" s="183"/>
       <c r="G15" s="103"/>
       <c r="H15" s="9"/>
     </row>
@@ -8095,7 +8095,7 @@
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="F16" s="186"/>
+      <c r="F16" s="183"/>
       <c r="G16" s="29"/>
       <c r="H16" s="7"/>
     </row>
@@ -8112,7 +8112,7 @@
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-      <c r="F17" s="186"/>
+      <c r="F17" s="183"/>
       <c r="G17" s="29"/>
       <c r="H17" s="7"/>
     </row>
@@ -8129,7 +8129,7 @@
         <f t="shared" si="0"/>
         <v>769</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="184"/>
       <c r="G18" s="29"/>
       <c r="H18" s="7"/>
     </row>
@@ -8171,7 +8171,7 @@
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
-      <c r="F20" s="185" t="s">
+      <c r="F20" s="182" t="s">
         <v>644</v>
       </c>
       <c r="G20" s="29"/>
@@ -8190,7 +8190,7 @@
         <f t="shared" si="0"/>
         <v>803</v>
       </c>
-      <c r="F21" s="186"/>
+      <c r="F21" s="183"/>
       <c r="G21" s="29"/>
       <c r="H21" s="7"/>
     </row>
@@ -8207,7 +8207,7 @@
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="F22" s="186"/>
+      <c r="F22" s="183"/>
       <c r="G22" s="29"/>
       <c r="H22" s="7"/>
     </row>
@@ -8224,7 +8224,7 @@
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
-      <c r="F23" s="186"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="29"/>
       <c r="H23" s="7"/>
     </row>
@@ -8241,7 +8241,7 @@
         <f t="shared" si="0"/>
         <v>854</v>
       </c>
-      <c r="F24" s="186"/>
+      <c r="F24" s="183"/>
       <c r="G24" s="29"/>
       <c r="H24" s="7"/>
     </row>
@@ -8258,7 +8258,7 @@
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
-      <c r="F25" s="186"/>
+      <c r="F25" s="183"/>
       <c r="G25" s="29"/>
       <c r="H25" s="7"/>
     </row>
@@ -8275,7 +8275,7 @@
         <f t="shared" si="0"/>
         <v>895</v>
       </c>
-      <c r="F26" s="186"/>
+      <c r="F26" s="183"/>
       <c r="G26" s="29" t="s">
         <v>589</v>
       </c>
@@ -8294,7 +8294,7 @@
         <f t="shared" si="0"/>
         <v>912</v>
       </c>
-      <c r="F27" s="186"/>
+      <c r="F27" s="183"/>
       <c r="G27" s="29"/>
       <c r="H27" s="7"/>
     </row>
@@ -8311,7 +8311,7 @@
         <f t="shared" si="0"/>
         <v>936</v>
       </c>
-      <c r="F28" s="186"/>
+      <c r="F28" s="183"/>
       <c r="G28" s="29"/>
       <c r="H28" s="7"/>
     </row>
@@ -8328,7 +8328,7 @@
         <f t="shared" si="0"/>
         <v>951</v>
       </c>
-      <c r="F29" s="186"/>
+      <c r="F29" s="183"/>
       <c r="G29" s="29"/>
       <c r="H29" s="7"/>
     </row>
@@ -8345,7 +8345,7 @@
         <f t="shared" si="0"/>
         <v>958</v>
       </c>
-      <c r="F30" s="187"/>
+      <c r="F30" s="184"/>
       <c r="G30" s="29"/>
       <c r="H30" s="7"/>
     </row>
@@ -8387,7 +8387,7 @@
         <f t="shared" si="0"/>
         <v>967</v>
       </c>
-      <c r="F32" s="182" t="s">
+      <c r="F32" s="185" t="s">
         <v>645</v>
       </c>
       <c r="G32" s="104"/>
@@ -8406,7 +8406,7 @@
         <f t="shared" si="0"/>
         <v>971</v>
       </c>
-      <c r="F33" s="183"/>
+      <c r="F33" s="186"/>
       <c r="G33" s="29"/>
       <c r="H33" s="7"/>
     </row>
@@ -8423,7 +8423,7 @@
         <f t="shared" si="0"/>
         <v>972</v>
       </c>
-      <c r="F34" s="183"/>
+      <c r="F34" s="186"/>
       <c r="G34" s="29"/>
       <c r="H34" s="7"/>
     </row>
@@ -8440,7 +8440,7 @@
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="F35" s="183"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="29"/>
       <c r="H35" s="7"/>
     </row>
@@ -8457,7 +8457,7 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="F36" s="183"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="29"/>
       <c r="H36" s="7"/>
     </row>
@@ -8474,7 +8474,7 @@
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
-      <c r="F37" s="183"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="29"/>
       <c r="H37" s="7"/>
     </row>
@@ -8491,7 +8491,7 @@
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="F38" s="183"/>
+      <c r="F38" s="186"/>
       <c r="G38" s="29"/>
       <c r="H38" s="7"/>
     </row>
@@ -8508,7 +8508,7 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="F39" s="183"/>
+      <c r="F39" s="186"/>
       <c r="G39" s="29"/>
       <c r="H39" s="7"/>
     </row>
@@ -8525,7 +8525,7 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="F40" s="183"/>
+      <c r="F40" s="186"/>
       <c r="G40" s="29" t="s">
         <v>509</v>
       </c>
@@ -8544,7 +8544,7 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="F41" s="183"/>
+      <c r="F41" s="186"/>
       <c r="G41" s="29"/>
       <c r="H41" s="7"/>
     </row>
@@ -8561,7 +8561,7 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="F42" s="183"/>
+      <c r="F42" s="186"/>
       <c r="G42" s="29" t="s">
         <v>686</v>
       </c>
@@ -8580,7 +8580,7 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="F43" s="183"/>
+      <c r="F43" s="186"/>
       <c r="G43" s="105"/>
       <c r="H43" s="11"/>
     </row>
@@ -8597,7 +8597,7 @@
         <f t="shared" si="0"/>
         <v>1074</v>
       </c>
-      <c r="F44" s="183"/>
+      <c r="F44" s="186"/>
       <c r="G44" s="29" t="s">
         <v>522</v>
       </c>
@@ -8616,7 +8616,7 @@
         <f t="shared" si="0"/>
         <v>1091</v>
       </c>
-      <c r="F45" s="183"/>
+      <c r="F45" s="186"/>
       <c r="G45" s="29"/>
       <c r="H45" s="7"/>
     </row>
@@ -8633,7 +8633,7 @@
         <f t="shared" si="0"/>
         <v>1112</v>
       </c>
-      <c r="F46" s="183"/>
+      <c r="F46" s="186"/>
       <c r="G46" s="29" t="s">
         <v>630</v>
       </c>
@@ -8652,7 +8652,7 @@
         <f t="shared" si="0"/>
         <v>1136</v>
       </c>
-      <c r="F47" s="183"/>
+      <c r="F47" s="186"/>
       <c r="G47" s="29"/>
       <c r="H47" s="7"/>
     </row>
@@ -8669,7 +8669,7 @@
         <f t="shared" si="0"/>
         <v>1155</v>
       </c>
-      <c r="F48" s="184"/>
+      <c r="F48" s="187"/>
       <c r="G48" s="29"/>
       <c r="H48" s="7"/>
     </row>
@@ -8711,7 +8711,7 @@
         <f t="shared" si="0"/>
         <v>1189</v>
       </c>
-      <c r="F50" s="185" t="s">
+      <c r="F50" s="182" t="s">
         <v>646</v>
       </c>
       <c r="G50" s="29"/>
@@ -8730,7 +8730,7 @@
         <f t="shared" si="0"/>
         <v>1191</v>
       </c>
-      <c r="F51" s="186"/>
+      <c r="F51" s="183"/>
       <c r="G51" s="29"/>
       <c r="H51" s="7"/>
     </row>
@@ -8747,7 +8747,7 @@
         <f t="shared" si="0"/>
         <v>1209</v>
       </c>
-      <c r="F52" s="186"/>
+      <c r="F52" s="183"/>
       <c r="G52" s="29"/>
       <c r="H52" s="7"/>
     </row>
@@ -8764,7 +8764,7 @@
         <f t="shared" si="0"/>
         <v>1215</v>
       </c>
-      <c r="F53" s="186"/>
+      <c r="F53" s="183"/>
       <c r="G53" s="29" t="s">
         <v>509</v>
       </c>
@@ -8783,7 +8783,7 @@
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="F54" s="186"/>
+      <c r="F54" s="183"/>
       <c r="G54" s="29"/>
       <c r="H54" s="7"/>
     </row>
@@ -8800,7 +8800,7 @@
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
-      <c r="F55" s="186"/>
+      <c r="F55" s="183"/>
       <c r="G55" s="29"/>
       <c r="H55" s="7"/>
     </row>
@@ -8817,7 +8817,7 @@
         <f t="shared" si="0"/>
         <v>1247</v>
       </c>
-      <c r="F56" s="186"/>
+      <c r="F56" s="183"/>
       <c r="G56" s="29"/>
       <c r="H56" s="7"/>
     </row>
@@ -8834,7 +8834,7 @@
         <f t="shared" si="0"/>
         <v>1254</v>
       </c>
-      <c r="F57" s="186"/>
+      <c r="F57" s="183"/>
       <c r="G57" s="29"/>
       <c r="H57" s="7"/>
     </row>
@@ -8851,7 +8851,7 @@
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
-      <c r="F58" s="186"/>
+      <c r="F58" s="183"/>
       <c r="G58" s="29"/>
       <c r="H58" s="7"/>
     </row>
@@ -8868,7 +8868,7 @@
         <f t="shared" si="0"/>
         <v>1283</v>
       </c>
-      <c r="F59" s="186"/>
+      <c r="F59" s="183"/>
       <c r="G59" s="105" t="s">
         <v>507</v>
       </c>
@@ -8887,7 +8887,7 @@
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="F60" s="186"/>
+      <c r="F60" s="183"/>
       <c r="G60" s="29"/>
       <c r="H60" s="7"/>
     </row>
@@ -8904,7 +8904,7 @@
         <f t="shared" si="0"/>
         <v>1315</v>
       </c>
-      <c r="F61" s="186"/>
+      <c r="F61" s="183"/>
       <c r="G61" s="29"/>
       <c r="H61" s="7"/>
     </row>
@@ -8921,7 +8921,7 @@
         <f t="shared" si="0"/>
         <v>1341</v>
       </c>
-      <c r="F62" s="186"/>
+      <c r="F62" s="183"/>
       <c r="G62" s="29"/>
       <c r="H62" s="7"/>
     </row>
@@ -8938,7 +8938,7 @@
         <f t="shared" si="0"/>
         <v>1362</v>
       </c>
-      <c r="F63" s="186"/>
+      <c r="F63" s="183"/>
       <c r="G63" s="29"/>
       <c r="H63" s="7"/>
     </row>
@@ -8955,7 +8955,7 @@
         <f t="shared" si="0"/>
         <v>1367</v>
       </c>
-      <c r="F64" s="186"/>
+      <c r="F64" s="183"/>
       <c r="G64" s="29" t="s">
         <v>534</v>
       </c>
@@ -8974,7 +8974,7 @@
         <f t="shared" si="0"/>
         <v>1374</v>
       </c>
-      <c r="F65" s="186"/>
+      <c r="F65" s="183"/>
       <c r="G65" s="29" t="s">
         <v>605</v>
       </c>
@@ -8993,7 +8993,7 @@
         <f t="shared" si="0"/>
         <v>1394</v>
       </c>
-      <c r="F66" s="187"/>
+      <c r="F66" s="184"/>
       <c r="G66" s="29" t="s">
         <v>535</v>
       </c>
@@ -9037,7 +9037,7 @@
         <f t="shared" si="0"/>
         <v>1427</v>
       </c>
-      <c r="F68" s="185" t="s">
+      <c r="F68" s="182" t="s">
         <v>647</v>
       </c>
       <c r="G68" s="29"/>
@@ -9056,7 +9056,7 @@
         <f t="shared" ref="E69:E134" si="1">SUM(D69,E68)</f>
         <v>1441</v>
       </c>
-      <c r="F69" s="186"/>
+      <c r="F69" s="183"/>
       <c r="G69" s="29" t="s">
         <v>510</v>
       </c>
@@ -9075,7 +9075,7 @@
         <f t="shared" si="1"/>
         <v>1457</v>
       </c>
-      <c r="F70" s="186"/>
+      <c r="F70" s="183"/>
       <c r="G70" s="29"/>
       <c r="H70" s="7"/>
     </row>
@@ -9092,7 +9092,7 @@
         <f t="shared" si="1"/>
         <v>1474</v>
       </c>
-      <c r="F71" s="186"/>
+      <c r="F71" s="183"/>
       <c r="G71" s="29"/>
       <c r="H71" s="7"/>
     </row>
@@ -9109,7 +9109,7 @@
         <f t="shared" si="1"/>
         <v>1496</v>
       </c>
-      <c r="F72" s="186"/>
+      <c r="F72" s="183"/>
       <c r="G72" s="29"/>
       <c r="H72" s="7"/>
     </row>
@@ -9126,7 +9126,7 @@
         <f t="shared" si="1"/>
         <v>1519</v>
       </c>
-      <c r="F73" s="187"/>
+      <c r="F73" s="184"/>
       <c r="G73" s="29" t="s">
         <v>587</v>
       </c>
@@ -9416,7 +9416,7 @@
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="F89" s="185" t="s">
+      <c r="F89" s="182" t="s">
         <v>648</v>
       </c>
       <c r="G89" s="28"/>
@@ -9434,7 +9434,7 @@
         <f t="shared" si="1"/>
         <v>1757</v>
       </c>
-      <c r="F90" s="186"/>
+      <c r="F90" s="183"/>
       <c r="G90" s="28" t="s">
         <v>564</v>
       </c>
@@ -9452,7 +9452,7 @@
         <f t="shared" si="1"/>
         <v>1763</v>
       </c>
-      <c r="F91" s="186"/>
+      <c r="F91" s="183"/>
       <c r="G91" s="28" t="s">
         <v>511</v>
       </c>
@@ -9470,7 +9470,7 @@
         <f t="shared" si="1"/>
         <v>1779</v>
       </c>
-      <c r="F92" s="186"/>
+      <c r="F92" s="183"/>
       <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
@@ -9486,7 +9486,7 @@
         <f t="shared" si="1"/>
         <v>1786</v>
       </c>
-      <c r="F93" s="186"/>
+      <c r="F93" s="183"/>
       <c r="G93" s="28" t="s">
         <v>665</v>
       </c>
@@ -9504,7 +9504,7 @@
         <f t="shared" si="1"/>
         <v>1793</v>
       </c>
-      <c r="F94" s="186"/>
+      <c r="F94" s="183"/>
       <c r="G94" s="28" t="s">
         <v>531</v>
       </c>
@@ -9522,7 +9522,7 @@
         <f t="shared" si="1"/>
         <v>1825</v>
       </c>
-      <c r="F95" s="186"/>
+      <c r="F95" s="183"/>
       <c r="G95" s="28"/>
     </row>
     <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -9538,7 +9538,7 @@
         <f t="shared" si="1"/>
         <v>1838</v>
       </c>
-      <c r="F96" s="186"/>
+      <c r="F96" s="183"/>
       <c r="G96" s="28" t="s">
         <v>512</v>
       </c>
@@ -9556,7 +9556,7 @@
         <f t="shared" si="1"/>
         <v>1870</v>
       </c>
-      <c r="F97" s="186"/>
+      <c r="F97" s="183"/>
       <c r="G97" s="28"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9572,7 +9572,7 @@
         <f t="shared" si="1"/>
         <v>1879</v>
       </c>
-      <c r="F98" s="186"/>
+      <c r="F98" s="183"/>
       <c r="G98" s="28"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -9588,7 +9588,7 @@
         <f t="shared" si="1"/>
         <v>1903</v>
       </c>
-      <c r="F99" s="186"/>
+      <c r="F99" s="183"/>
       <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -9604,7 +9604,7 @@
         <f t="shared" si="1"/>
         <v>1923</v>
       </c>
-      <c r="F100" s="187"/>
+      <c r="F100" s="184"/>
       <c r="G100" s="28"/>
     </row>
     <row r="101" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
@@ -9644,7 +9644,7 @@
         <f t="shared" si="1"/>
         <v>1925</v>
       </c>
-      <c r="F102" s="182" t="s">
+      <c r="F102" s="185" t="s">
         <v>649</v>
       </c>
       <c r="G102" s="28"/>
@@ -9662,7 +9662,7 @@
         <f t="shared" si="1"/>
         <v>1945</v>
       </c>
-      <c r="F103" s="183"/>
+      <c r="F103" s="186"/>
       <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -9678,7 +9678,7 @@
         <f t="shared" si="1"/>
         <v>1969</v>
       </c>
-      <c r="F104" s="183"/>
+      <c r="F104" s="186"/>
       <c r="G104" s="28" t="s">
         <v>513</v>
       </c>
@@ -9696,7 +9696,7 @@
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="F105" s="183"/>
+      <c r="F105" s="186"/>
       <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9712,7 +9712,7 @@
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="F106" s="183"/>
+      <c r="F106" s="186"/>
       <c r="G106" s="28"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="F107" s="183"/>
+      <c r="F107" s="186"/>
       <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -9744,7 +9744,7 @@
         <f t="shared" si="1"/>
         <v>2055</v>
       </c>
-      <c r="F108" s="183"/>
+      <c r="F108" s="186"/>
       <c r="G108" s="28" t="s">
         <v>532</v>
       </c>
@@ -9762,7 +9762,7 @@
         <f t="shared" si="1"/>
         <v>2068</v>
       </c>
-      <c r="F109" s="183"/>
+      <c r="F109" s="186"/>
       <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9778,7 +9778,7 @@
         <f t="shared" si="1"/>
         <v>2082</v>
       </c>
-      <c r="F110" s="183"/>
+      <c r="F110" s="186"/>
       <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9794,7 +9794,7 @@
         <f t="shared" si="1"/>
         <v>2091</v>
       </c>
-      <c r="F111" s="183"/>
+      <c r="F111" s="186"/>
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9810,7 +9810,7 @@
         <f t="shared" si="1"/>
         <v>2095</v>
       </c>
-      <c r="F112" s="183"/>
+      <c r="F112" s="186"/>
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9826,7 +9826,7 @@
         <f t="shared" si="1"/>
         <v>2098</v>
       </c>
-      <c r="F113" s="183"/>
+      <c r="F113" s="186"/>
       <c r="G113" s="28" t="s">
         <v>636</v>
       </c>
@@ -9844,7 +9844,7 @@
         <f>SUM(D114,E113)</f>
         <v>2130</v>
       </c>
-      <c r="F114" s="183"/>
+      <c r="F114" s="186"/>
       <c r="G114" s="28" t="s">
         <v>610</v>
       </c>
@@ -9862,7 +9862,7 @@
         <f>SUM(D115,E114)</f>
         <v>2144</v>
       </c>
-      <c r="F115" s="184"/>
+      <c r="F115" s="187"/>
       <c r="G115" s="28" t="s">
         <v>658</v>
       </c>
@@ -9904,7 +9904,7 @@
         <f t="shared" si="1"/>
         <v>2218</v>
       </c>
-      <c r="F117" s="182" t="s">
+      <c r="F117" s="185" t="s">
         <v>650</v>
       </c>
       <c r="G117" s="28" t="s">
@@ -9924,7 +9924,7 @@
         <f>SUM(D118,E117)</f>
         <v>2263</v>
       </c>
-      <c r="F118" s="183"/>
+      <c r="F118" s="186"/>
       <c r="G118" s="29" t="s">
         <v>626</v>
       </c>
@@ -9942,7 +9942,7 @@
         <f>SUM(D119,E118)</f>
         <v>2273</v>
       </c>
-      <c r="F119" s="183"/>
+      <c r="F119" s="186"/>
       <c r="G119" s="29" t="s">
         <v>615</v>
       </c>
@@ -9960,7 +9960,7 @@
         <f t="shared" si="1"/>
         <v>2282</v>
       </c>
-      <c r="F120" s="183"/>
+      <c r="F120" s="186"/>
       <c r="G120" s="28"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <f t="shared" si="1"/>
         <v>2293</v>
       </c>
-      <c r="F121" s="183"/>
+      <c r="F121" s="186"/>
       <c r="G121" s="28"/>
     </row>
     <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <f t="shared" si="1"/>
         <v>2306</v>
       </c>
-      <c r="F122" s="183"/>
+      <c r="F122" s="186"/>
       <c r="G122" s="28" t="s">
         <v>614</v>
       </c>
@@ -10010,7 +10010,7 @@
         <f t="shared" si="1"/>
         <v>2327</v>
       </c>
-      <c r="F123" s="183"/>
+      <c r="F123" s="186"/>
       <c r="G123" s="28" t="s">
         <v>623</v>
       </c>
@@ -10028,7 +10028,7 @@
         <f t="shared" si="1"/>
         <v>2349</v>
       </c>
-      <c r="F124" s="183"/>
+      <c r="F124" s="186"/>
       <c r="G124" s="28" t="s">
         <v>618</v>
       </c>
@@ -10046,7 +10046,7 @@
         <f t="shared" si="1"/>
         <v>2359</v>
       </c>
-      <c r="F125" s="183"/>
+      <c r="F125" s="186"/>
       <c r="G125" s="28" t="s">
         <v>617</v>
       </c>
@@ -10064,7 +10064,7 @@
         <f t="shared" si="1"/>
         <v>2376</v>
       </c>
-      <c r="F126" s="184"/>
+      <c r="F126" s="187"/>
       <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -10104,7 +10104,7 @@
         <f t="shared" si="1"/>
         <v>2392</v>
       </c>
-      <c r="F128" s="182" t="s">
+      <c r="F128" s="185" t="s">
         <v>651</v>
       </c>
       <c r="G128" s="28" t="s">
@@ -10124,7 +10124,7 @@
         <f t="shared" si="1"/>
         <v>2399</v>
       </c>
-      <c r="F129" s="183"/>
+      <c r="F129" s="186"/>
       <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -10140,7 +10140,7 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F130" s="183"/>
+      <c r="F130" s="186"/>
       <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -10156,7 +10156,7 @@
         <f t="shared" si="1"/>
         <v>2406</v>
       </c>
-      <c r="F131" s="183"/>
+      <c r="F131" s="186"/>
       <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
         <f t="shared" si="1"/>
         <v>2408</v>
       </c>
-      <c r="F132" s="183"/>
+      <c r="F132" s="186"/>
       <c r="G132" s="28"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -10188,7 +10188,7 @@
         <f t="shared" si="1"/>
         <v>2409</v>
       </c>
-      <c r="F133" s="183"/>
+      <c r="F133" s="186"/>
       <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -10204,7 +10204,7 @@
         <f t="shared" si="1"/>
         <v>2417</v>
       </c>
-      <c r="F134" s="183"/>
+      <c r="F134" s="186"/>
       <c r="G134" s="28" t="s">
         <v>622</v>
       </c>
@@ -10222,7 +10222,7 @@
         <f t="shared" ref="E135:E198" si="2">SUM(D135,E134)</f>
         <v>2431</v>
       </c>
-      <c r="F135" s="183"/>
+      <c r="F135" s="186"/>
       <c r="G135" s="28"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -10238,7 +10238,7 @@
         <f t="shared" si="2"/>
         <v>2432</v>
       </c>
-      <c r="F136" s="183"/>
+      <c r="F136" s="186"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -10254,7 +10254,7 @@
         <f t="shared" si="2"/>
         <v>2437</v>
       </c>
-      <c r="F137" s="183"/>
+      <c r="F137" s="186"/>
       <c r="G137" s="109" t="s">
         <v>621</v>
       </c>
@@ -10272,7 +10272,7 @@
         <f t="shared" si="2"/>
         <v>2454</v>
       </c>
-      <c r="F138" s="183"/>
+      <c r="F138" s="186"/>
       <c r="G138" s="28"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -10288,7 +10288,7 @@
         <f t="shared" si="2"/>
         <v>2484</v>
       </c>
-      <c r="F139" s="183"/>
+      <c r="F139" s="186"/>
       <c r="G139" s="28"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -10304,7 +10304,7 @@
         <f t="shared" si="2"/>
         <v>2498</v>
       </c>
-      <c r="F140" s="183"/>
+      <c r="F140" s="186"/>
       <c r="G140" s="28"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -10320,7 +10320,7 @@
         <f t="shared" si="2"/>
         <v>2516</v>
       </c>
-      <c r="F141" s="183"/>
+      <c r="F141" s="186"/>
       <c r="G141" s="28"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
         <f t="shared" si="2"/>
         <v>2528</v>
       </c>
-      <c r="F142" s="183"/>
+      <c r="F142" s="186"/>
       <c r="G142" s="28"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <f t="shared" si="2"/>
         <v>2532</v>
       </c>
-      <c r="F143" s="183"/>
+      <c r="F143" s="186"/>
       <c r="G143" s="28"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -10368,7 +10368,7 @@
         <f t="shared" si="2"/>
         <v>2560</v>
       </c>
-      <c r="F144" s="183"/>
+      <c r="F144" s="186"/>
       <c r="G144" s="28"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -10384,7 +10384,7 @@
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
-      <c r="F145" s="184"/>
+      <c r="F145" s="187"/>
       <c r="G145" s="28"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -10422,7 +10422,7 @@
         <f t="shared" si="2"/>
         <v>2581</v>
       </c>
-      <c r="F147" s="182" t="s">
+      <c r="F147" s="185" t="s">
         <v>652</v>
       </c>
       <c r="G147" s="28"/>
@@ -10440,7 +10440,7 @@
         <f t="shared" si="2"/>
         <v>2587</v>
       </c>
-      <c r="F148" s="183"/>
+      <c r="F148" s="186"/>
       <c r="G148" s="28"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -10456,7 +10456,7 @@
         <f t="shared" si="2"/>
         <v>2592</v>
       </c>
-      <c r="F149" s="183"/>
+      <c r="F149" s="186"/>
       <c r="G149" s="28"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -10472,7 +10472,7 @@
         <f t="shared" si="2"/>
         <v>2617</v>
       </c>
-      <c r="F150" s="183"/>
+      <c r="F150" s="186"/>
       <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -10488,7 +10488,7 @@
         <f t="shared" si="2"/>
         <v>2621</v>
       </c>
-      <c r="F151" s="183"/>
+      <c r="F151" s="186"/>
       <c r="G151" s="28" t="s">
         <v>515</v>
       </c>
@@ -10506,7 +10506,7 @@
         <f t="shared" si="2"/>
         <v>2626</v>
       </c>
-      <c r="F152" s="183"/>
+      <c r="F152" s="186"/>
       <c r="G152" s="28"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -10522,7 +10522,7 @@
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="F153" s="183"/>
+      <c r="F153" s="186"/>
       <c r="G153" s="28"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -10538,7 +10538,7 @@
         <f t="shared" si="2"/>
         <v>2649</v>
       </c>
-      <c r="F154" s="183"/>
+      <c r="F154" s="186"/>
       <c r="G154" s="28" t="s">
         <v>516</v>
       </c>
@@ -10556,7 +10556,7 @@
         <f t="shared" si="2"/>
         <v>2657</v>
       </c>
-      <c r="F155" s="183"/>
+      <c r="F155" s="186"/>
       <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -10572,7 +10572,7 @@
         <f t="shared" si="2"/>
         <v>2684</v>
       </c>
-      <c r="F156" s="183"/>
+      <c r="F156" s="186"/>
       <c r="G156" s="28" t="s">
         <v>517</v>
       </c>
@@ -10590,7 +10590,7 @@
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="F157" s="183"/>
+      <c r="F157" s="186"/>
       <c r="G157" s="28"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -10606,7 +10606,7 @@
         <f t="shared" si="2"/>
         <v>2762</v>
       </c>
-      <c r="F158" s="183"/>
+      <c r="F158" s="186"/>
       <c r="G158" s="28"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -10622,7 +10622,7 @@
         <f t="shared" si="2"/>
         <v>2763</v>
       </c>
-      <c r="F159" s="183"/>
+      <c r="F159" s="186"/>
       <c r="G159" s="28"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -10638,7 +10638,7 @@
         <f t="shared" si="2"/>
         <v>2781</v>
       </c>
-      <c r="F160" s="183"/>
+      <c r="F160" s="186"/>
       <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -10654,7 +10654,7 @@
         <f t="shared" si="2"/>
         <v>2784</v>
       </c>
-      <c r="F161" s="183"/>
+      <c r="F161" s="186"/>
       <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -10670,7 +10670,7 @@
         <f t="shared" si="2"/>
         <v>2805</v>
       </c>
-      <c r="F162" s="184"/>
+      <c r="F162" s="187"/>
       <c r="G162" s="28" t="s">
         <v>509</v>
       </c>
@@ -10712,7 +10712,7 @@
         <f t="shared" si="2"/>
         <v>2823</v>
       </c>
-      <c r="F164" s="182" t="s">
+      <c r="F164" s="185" t="s">
         <v>653</v>
       </c>
       <c r="G164" s="28" t="s">
@@ -10732,7 +10732,7 @@
         <f t="shared" si="2"/>
         <v>2824</v>
       </c>
-      <c r="F165" s="183"/>
+      <c r="F165" s="186"/>
       <c r="G165" s="28"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -10748,7 +10748,7 @@
         <f t="shared" si="2"/>
         <v>2834</v>
       </c>
-      <c r="F166" s="183"/>
+      <c r="F166" s="186"/>
       <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -10764,7 +10764,7 @@
         <f t="shared" si="2"/>
         <v>2839</v>
       </c>
-      <c r="F167" s="183"/>
+      <c r="F167" s="186"/>
       <c r="G167" s="28"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -10780,7 +10780,7 @@
         <f t="shared" si="2"/>
         <v>2844</v>
       </c>
-      <c r="F168" s="183"/>
+      <c r="F168" s="186"/>
       <c r="G168" s="28" t="s">
         <v>509</v>
       </c>
@@ -10798,7 +10798,7 @@
         <f t="shared" si="2"/>
         <v>2854</v>
       </c>
-      <c r="F169" s="183"/>
+      <c r="F169" s="186"/>
       <c r="G169" s="28"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -10814,7 +10814,7 @@
         <f t="shared" si="2"/>
         <v>2891</v>
       </c>
-      <c r="F170" s="183"/>
+      <c r="F170" s="186"/>
       <c r="G170" s="28"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
         <f t="shared" si="2"/>
         <v>2902</v>
       </c>
-      <c r="F171" s="183"/>
+      <c r="F171" s="186"/>
       <c r="G171" s="28"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -10846,7 +10846,7 @@
         <f t="shared" si="2"/>
         <v>2923</v>
       </c>
-      <c r="F172" s="183"/>
+      <c r="F172" s="186"/>
       <c r="G172" s="103"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -10862,7 +10862,7 @@
         <f t="shared" si="2"/>
         <v>2941</v>
       </c>
-      <c r="F173" s="183"/>
+      <c r="F173" s="186"/>
       <c r="G173" s="28" t="s">
         <v>509</v>
       </c>
@@ -10880,7 +10880,7 @@
         <f t="shared" si="2"/>
         <v>2953</v>
       </c>
-      <c r="F174" s="183"/>
+      <c r="F174" s="186"/>
       <c r="G174" s="28"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -10896,7 +10896,7 @@
         <f t="shared" si="2"/>
         <v>2967</v>
       </c>
-      <c r="F175" s="183"/>
+      <c r="F175" s="186"/>
       <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <f t="shared" si="2"/>
         <v>2970</v>
       </c>
-      <c r="F176" s="183"/>
+      <c r="F176" s="186"/>
       <c r="G176" s="28"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
         <f t="shared" si="2"/>
         <v>2976</v>
       </c>
-      <c r="F177" s="184"/>
+      <c r="F177" s="187"/>
       <c r="G177" s="28"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -10966,7 +10966,7 @@
         <f t="shared" si="2"/>
         <v>2994</v>
       </c>
-      <c r="F179" s="182" t="s">
+      <c r="F179" s="185" t="s">
         <v>654</v>
       </c>
       <c r="G179" s="28"/>
@@ -10984,7 +10984,7 @@
         <f t="shared" si="2"/>
         <v>2998</v>
       </c>
-      <c r="F180" s="183"/>
+      <c r="F180" s="186"/>
       <c r="G180" s="28"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -11000,7 +11000,7 @@
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
-      <c r="F181" s="183"/>
+      <c r="F181" s="186"/>
       <c r="G181" s="28"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
-      <c r="F182" s="183"/>
+      <c r="F182" s="186"/>
       <c r="G182" s="28"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
-      <c r="F183" s="183"/>
+      <c r="F183" s="186"/>
       <c r="G183" s="28"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -11048,7 +11048,7 @@
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
-      <c r="F184" s="183"/>
+      <c r="F184" s="186"/>
       <c r="G184" s="28"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -11064,7 +11064,7 @@
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
-      <c r="F185" s="183"/>
+      <c r="F185" s="186"/>
       <c r="G185" s="28"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -11080,7 +11080,7 @@
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
-      <c r="F186" s="183"/>
+      <c r="F186" s="186"/>
       <c r="G186" s="28" t="s">
         <v>518</v>
       </c>
@@ -11098,7 +11098,7 @@
         <f t="shared" si="2"/>
         <v>3035</v>
       </c>
-      <c r="F187" s="183"/>
+      <c r="F187" s="186"/>
       <c r="G187" s="103"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -11114,7 +11114,7 @@
         <f t="shared" si="2"/>
         <v>3038</v>
       </c>
-      <c r="F188" s="183"/>
+      <c r="F188" s="186"/>
       <c r="G188" s="28"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -11130,7 +11130,7 @@
         <f t="shared" si="2"/>
         <v>3042</v>
       </c>
-      <c r="F189" s="183"/>
+      <c r="F189" s="186"/>
       <c r="G189" s="28"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -11146,7 +11146,7 @@
         <f t="shared" si="2"/>
         <v>3046</v>
       </c>
-      <c r="F190" s="183"/>
+      <c r="F190" s="186"/>
       <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -11162,7 +11162,7 @@
         <f t="shared" si="2"/>
         <v>3054</v>
       </c>
-      <c r="F191" s="183"/>
+      <c r="F191" s="186"/>
       <c r="G191" s="28"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -11178,7 +11178,7 @@
         <f t="shared" si="2"/>
         <v>3063</v>
       </c>
-      <c r="F192" s="183"/>
+      <c r="F192" s="186"/>
       <c r="G192" s="28"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -11194,7 +11194,7 @@
         <f t="shared" si="2"/>
         <v>3068</v>
       </c>
-      <c r="F193" s="183"/>
+      <c r="F193" s="186"/>
       <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -11210,7 +11210,7 @@
         <f t="shared" si="2"/>
         <v>3071</v>
       </c>
-      <c r="F194" s="183"/>
+      <c r="F194" s="186"/>
       <c r="G194" s="28"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -11226,7 +11226,7 @@
         <f t="shared" si="2"/>
         <v>3076</v>
       </c>
-      <c r="F195" s="183"/>
+      <c r="F195" s="186"/>
       <c r="G195" s="28"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -11242,7 +11242,7 @@
         <f t="shared" si="2"/>
         <v>3085</v>
       </c>
-      <c r="F196" s="183"/>
+      <c r="F196" s="186"/>
       <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -11258,7 +11258,7 @@
         <f t="shared" si="2"/>
         <v>3089</v>
       </c>
-      <c r="F197" s="183"/>
+      <c r="F197" s="186"/>
       <c r="G197" s="28"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -11274,7 +11274,7 @@
         <f t="shared" si="2"/>
         <v>3104</v>
       </c>
-      <c r="F198" s="183"/>
+      <c r="F198" s="186"/>
       <c r="G198" s="28"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -11290,7 +11290,7 @@
         <f t="shared" ref="E199" si="3">SUM(D199,E198)</f>
         <v>3124</v>
       </c>
-      <c r="F199" s="183"/>
+      <c r="F199" s="186"/>
       <c r="G199" s="28"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -11306,7 +11306,7 @@
         <f>SUM(D200,E199)</f>
         <v>3146</v>
       </c>
-      <c r="F200" s="183"/>
+      <c r="F200" s="186"/>
       <c r="G200" s="28"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -11322,7 +11322,7 @@
         <f t="shared" ref="E201:E207" si="4">SUM(D201,E200)</f>
         <v>3156</v>
       </c>
-      <c r="F201" s="183"/>
+      <c r="F201" s="186"/>
       <c r="G201" s="28"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -11338,7 +11338,7 @@
         <f t="shared" si="4"/>
         <v>3170</v>
       </c>
-      <c r="F202" s="183"/>
+      <c r="F202" s="186"/>
       <c r="G202" s="28"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -11354,7 +11354,7 @@
         <f t="shared" si="4"/>
         <v>3212</v>
       </c>
-      <c r="F203" s="183"/>
+      <c r="F203" s="186"/>
       <c r="G203" s="28"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -11370,7 +11370,7 @@
         <f t="shared" si="4"/>
         <v>3262</v>
       </c>
-      <c r="F204" s="183"/>
+      <c r="F204" s="186"/>
       <c r="G204" s="28"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -11386,7 +11386,7 @@
         <f t="shared" si="4"/>
         <v>3297</v>
       </c>
-      <c r="F205" s="183"/>
+      <c r="F205" s="186"/>
       <c r="G205" s="28"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -11402,7 +11402,7 @@
         <f t="shared" si="4"/>
         <v>3333</v>
       </c>
-      <c r="F206" s="184"/>
+      <c r="F206" s="187"/>
       <c r="G206" s="28"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -11431,11 +11431,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="F20:F30"/>
-    <mergeCell ref="F32:F48"/>
-    <mergeCell ref="F50:F66"/>
     <mergeCell ref="F147:F162"/>
     <mergeCell ref="F164:F177"/>
     <mergeCell ref="F179:F206"/>
@@ -11445,6 +11440,11 @@
     <mergeCell ref="F102:F115"/>
     <mergeCell ref="F117:F126"/>
     <mergeCell ref="F128:F145"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="F20:F30"/>
+    <mergeCell ref="F32:F48"/>
+    <mergeCell ref="F50:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11507,13 +11507,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="191">
+      <c r="A2" s="196">
         <v>1</v>
       </c>
-      <c r="B2" s="193">
+      <c r="B2" s="197">
         <v>41438</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="192" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11530,9 +11530,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="191"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="192"/>
       <c r="D3" s="24" t="s">
         <v>171</v>
       </c>
@@ -11547,9 +11547,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="192"/>
       <c r="D4" s="24" t="s">
         <v>175</v>
       </c>
@@ -11564,9 +11564,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="194"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="24" t="s">
         <v>177</v>
       </c>
@@ -11581,13 +11581,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196">
+      <c r="A6" s="195">
         <v>2</v>
       </c>
-      <c r="B6" s="197">
+      <c r="B6" s="193">
         <v>41439</v>
       </c>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="194" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -11604,9 +11604,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="195"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="132" t="s">
         <v>659</v>
       </c>
@@ -11621,9 +11621,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="195"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
       <c r="D8" s="28" t="s">
         <v>406</v>
       </c>
@@ -11638,9 +11638,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="195" t="s">
+      <c r="A9" s="195"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="194" t="s">
         <v>404</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -11657,9 +11657,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
-      <c r="B10" s="197"/>
-      <c r="C10" s="195"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="194"/>
       <c r="D10" s="28" t="s">
         <v>563</v>
       </c>
@@ -11674,9 +11674,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
-      <c r="B11" s="197"/>
-      <c r="C11" s="195"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="194"/>
       <c r="D11" s="28" t="s">
         <v>416</v>
       </c>
@@ -11691,13 +11691,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="191">
+      <c r="A12" s="196">
         <v>3</v>
       </c>
-      <c r="B12" s="193">
+      <c r="B12" s="197">
         <v>41440</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="192" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -11714,9 +11714,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="194"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="24" t="s">
         <v>183</v>
       </c>
@@ -11731,9 +11731,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="24" t="s">
         <v>185</v>
       </c>
@@ -11748,9 +11748,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="194"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="24" t="s">
         <v>186</v>
       </c>
@@ -11765,13 +11765,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="196">
+      <c r="A16" s="195">
         <v>4</v>
       </c>
-      <c r="B16" s="197">
+      <c r="B16" s="193">
         <v>41441</v>
       </c>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="194" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -11788,9 +11788,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="196"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="195"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="28" t="s">
         <v>193</v>
       </c>
@@ -11805,13 +11805,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191" t="s">
+      <c r="A18" s="196" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="197" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="198" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -11828,9 +11828,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="191"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="192"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="24" t="s">
         <v>559</v>
       </c>
@@ -11843,9 +11843,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="192"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="24" t="s">
         <v>547</v>
       </c>
@@ -11860,9 +11860,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="192"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="198"/>
       <c r="D21" s="24" t="s">
         <v>549</v>
       </c>
@@ -11877,9 +11877,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="191"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="192"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
       <c r="D22" s="24" t="s">
         <v>552</v>
       </c>
@@ -11894,9 +11894,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="191"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="192"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="24" t="s">
         <v>556</v>
       </c>
@@ -11911,9 +11911,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="191"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="192"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="24" t="s">
         <v>197</v>
       </c>
@@ -11928,9 +11928,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="192"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="198"/>
       <c r="D25" s="24" t="s">
         <v>203</v>
       </c>
@@ -11945,9 +11945,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="192"/>
+      <c r="A26" s="196"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="198"/>
       <c r="D26" s="24" t="s">
         <v>206</v>
       </c>
@@ -11962,9 +11962,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="192"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="198"/>
       <c r="D27" s="24" t="s">
         <v>199</v>
       </c>
@@ -11979,13 +11979,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="196">
+      <c r="A28" s="195">
         <v>7</v>
       </c>
-      <c r="B28" s="197">
+      <c r="B28" s="193">
         <v>41444</v>
       </c>
-      <c r="C28" s="195" t="s">
+      <c r="C28" s="194" t="s">
         <v>244</v>
       </c>
       <c r="D28" s="28" t="s">
@@ -12002,9 +12002,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="195"/>
+      <c r="A29" s="195"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="194"/>
       <c r="D29" s="28" t="s">
         <v>212</v>
       </c>
@@ -12019,9 +12019,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="196"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="195"/>
+      <c r="A30" s="195"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="194"/>
       <c r="D30" s="28" t="s">
         <v>214</v>
       </c>
@@ -12036,9 +12036,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="196"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="195"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="194"/>
       <c r="D31" s="28" t="s">
         <v>235</v>
       </c>
@@ -12053,9 +12053,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="196"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="195"/>
+      <c r="A32" s="195"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="194"/>
       <c r="D32" s="28" t="s">
         <v>236</v>
       </c>
@@ -12070,9 +12070,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="196"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="195"/>
+      <c r="A33" s="195"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="194"/>
       <c r="D33" s="143" t="s">
         <v>683</v>
       </c>
@@ -12087,9 +12087,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="196"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="195"/>
+      <c r="A34" s="195"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
       <c r="D34" s="28" t="s">
         <v>237</v>
       </c>
@@ -12104,13 +12104,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="191">
+      <c r="A35" s="196">
         <v>9</v>
       </c>
-      <c r="B35" s="193">
+      <c r="B35" s="197">
         <v>41446</v>
       </c>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="192" t="s">
         <v>282</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -12127,9 +12127,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="191"/>
-      <c r="B36" s="193"/>
-      <c r="C36" s="194"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="24" t="s">
         <v>221</v>
       </c>
@@ -12144,9 +12144,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="191"/>
-      <c r="B37" s="193"/>
-      <c r="C37" s="194"/>
+      <c r="A37" s="196"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="192"/>
       <c r="D37" s="24" t="s">
         <v>223</v>
       </c>
@@ -12161,9 +12161,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="191"/>
-      <c r="B38" s="193"/>
-      <c r="C38" s="194"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="192"/>
       <c r="D38" s="24" t="s">
         <v>225</v>
       </c>
@@ -12178,9 +12178,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="191"/>
-      <c r="B39" s="193"/>
-      <c r="C39" s="194"/>
+      <c r="A39" s="196"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="192"/>
       <c r="D39" s="24" t="s">
         <v>227</v>
       </c>
@@ -12195,9 +12195,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="191"/>
-      <c r="B40" s="193"/>
-      <c r="C40" s="194"/>
+      <c r="A40" s="196"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="192"/>
       <c r="D40" s="24" t="s">
         <v>228</v>
       </c>
@@ -12212,13 +12212,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="196">
+      <c r="A41" s="195">
         <v>10</v>
       </c>
-      <c r="B41" s="197">
+      <c r="B41" s="193">
         <v>41447</v>
       </c>
-      <c r="C41" s="195" t="s">
+      <c r="C41" s="194" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -12235,9 +12235,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="196"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="195"/>
+      <c r="A42" s="195"/>
+      <c r="B42" s="193"/>
+      <c r="C42" s="194"/>
       <c r="D42" s="28" t="s">
         <v>233</v>
       </c>
@@ -12252,9 +12252,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="196"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="195"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="194"/>
       <c r="D43" s="28" t="s">
         <v>238</v>
       </c>
@@ -12269,9 +12269,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="196"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="195"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="193"/>
+      <c r="C44" s="194"/>
       <c r="D44" s="28" t="s">
         <v>239</v>
       </c>
@@ -12286,9 +12286,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="196"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="195"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="194"/>
       <c r="D45" s="28" t="s">
         <v>566</v>
       </c>
@@ -12306,10 +12306,10 @@
       <c r="A46" s="199">
         <v>11</v>
       </c>
-      <c r="B46" s="193">
+      <c r="B46" s="197">
         <v>41448</v>
       </c>
-      <c r="C46" s="192" t="s">
+      <c r="C46" s="198" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -12327,8 +12327,8 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="200"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="192"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="198"/>
       <c r="D47" s="24" t="s">
         <v>245</v>
       </c>
@@ -12344,8 +12344,8 @@
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="200"/>
-      <c r="B48" s="193"/>
-      <c r="C48" s="192"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="198"/>
       <c r="D48" s="24" t="s">
         <v>248</v>
       </c>
@@ -12361,8 +12361,8 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="201"/>
-      <c r="B49" s="193"/>
-      <c r="C49" s="192"/>
+      <c r="B49" s="197"/>
+      <c r="C49" s="198"/>
       <c r="D49" s="24" t="s">
         <v>250</v>
       </c>
@@ -12377,13 +12377,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="196">
+      <c r="A50" s="195">
         <v>12</v>
       </c>
-      <c r="B50" s="197">
+      <c r="B50" s="193">
         <v>41449</v>
       </c>
-      <c r="C50" s="195" t="s">
+      <c r="C50" s="194" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="28" t="s">
@@ -12400,9 +12400,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="195"/>
+      <c r="A51" s="195"/>
+      <c r="B51" s="193"/>
+      <c r="C51" s="194"/>
       <c r="D51" s="28" t="s">
         <v>263</v>
       </c>
@@ -12417,9 +12417,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="195"/>
+      <c r="A52" s="195"/>
+      <c r="B52" s="193"/>
+      <c r="C52" s="194"/>
       <c r="D52" s="28" t="s">
         <v>266</v>
       </c>
@@ -12434,9 +12434,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="196"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="195"/>
+      <c r="A53" s="195"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="194"/>
       <c r="D53" s="28" t="s">
         <v>268</v>
       </c>
@@ -12451,13 +12451,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="191">
+      <c r="A54" s="196">
         <v>13</v>
       </c>
-      <c r="B54" s="193">
+      <c r="B54" s="197">
         <v>41450</v>
       </c>
-      <c r="C54" s="194" t="s">
+      <c r="C54" s="192" t="s">
         <v>149</v>
       </c>
       <c r="D54" s="24" t="s">
@@ -12474,9 +12474,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="191"/>
-      <c r="B55" s="193"/>
-      <c r="C55" s="194"/>
+      <c r="A55" s="196"/>
+      <c r="B55" s="197"/>
+      <c r="C55" s="192"/>
       <c r="D55" s="24" t="s">
         <v>273</v>
       </c>
@@ -12491,9 +12491,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="191"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="194"/>
+      <c r="A56" s="196"/>
+      <c r="B56" s="197"/>
+      <c r="C56" s="192"/>
       <c r="D56" s="24" t="s">
         <v>276</v>
       </c>
@@ -12508,9 +12508,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="191"/>
-      <c r="B57" s="193"/>
-      <c r="C57" s="194"/>
+      <c r="A57" s="196"/>
+      <c r="B57" s="197"/>
+      <c r="C57" s="192"/>
       <c r="D57" s="24" t="s">
         <v>279</v>
       </c>
@@ -12525,13 +12525,13 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="196">
+      <c r="A58" s="195">
         <v>14</v>
       </c>
-      <c r="B58" s="197">
+      <c r="B58" s="193">
         <v>41451</v>
       </c>
-      <c r="C58" s="195" t="s">
+      <c r="C58" s="194" t="s">
         <v>150</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -12548,9 +12548,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="196"/>
-      <c r="B59" s="197"/>
-      <c r="C59" s="195"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="193"/>
+      <c r="C59" s="194"/>
       <c r="D59" s="28" t="s">
         <v>287</v>
       </c>
@@ -12565,9 +12565,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="196"/>
-      <c r="B60" s="197"/>
-      <c r="C60" s="195"/>
+      <c r="A60" s="195"/>
+      <c r="B60" s="193"/>
+      <c r="C60" s="194"/>
       <c r="D60" s="28" t="s">
         <v>290</v>
       </c>
@@ -12604,13 +12604,35 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="198" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="198" t="s">
+    <row r="63" spans="1:7" s="191" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="191" t="s">
         <v>520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="A63:XFD63"/>
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="B41:B45"/>
@@ -12627,28 +12649,6 @@
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="B18:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -13064,7 +13064,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="196">
+      <c r="A5" s="195">
         <v>4</v>
       </c>
       <c r="B5" s="97" t="s">
@@ -13072,19 +13072,19 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="81" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="81" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196">
+      <c r="A8" s="195">
         <v>5</v>
       </c>
       <c r="B8" s="97" t="s">
@@ -13092,13 +13092,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="81" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="81" t="s">
         <v>695</v>
       </c>
@@ -13112,7 +13112,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="196">
+      <c r="A12" s="195">
         <v>7</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -13120,7 +13120,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="81" t="s">
         <v>594</v>
       </c>
